--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="285">
   <si>
     <t>规范术语</t>
   </si>
@@ -39,27 +39,60 @@
     <t>1、一局游戏：开始游戏到游戏失败（倒计时为0，方块触碰边界线，牌库剩余方块为0）</t>
   </si>
   <si>
+    <t>Whole Game</t>
+  </si>
+  <si>
     <t>2、一轮游戏：游戏开始到下一次胡牌，或胡牌清空桌面后到下一次胡牌</t>
   </si>
   <si>
+    <t>Round</t>
+  </si>
+  <si>
     <t>3、一次胡牌：胡牌区凑成可以胡牌的牌型</t>
   </si>
   <si>
+    <t>Hu</t>
+  </si>
+  <si>
     <t>4、一圈胡牌：完成4次胡牌为一圈</t>
   </si>
   <si>
+    <t>Four Hu Streak</t>
+  </si>
+  <si>
     <t>5、基础分：胡牌得分基础分，初始为10</t>
   </si>
   <si>
+    <t>Baisc Score</t>
+  </si>
+  <si>
     <t>6、番数倍率：根据胡牌牌型确定的倍率，为2的番数次方</t>
   </si>
   <si>
+    <t>Fan Multiplier</t>
+  </si>
+  <si>
+    <t>Fan Mult.</t>
+  </si>
+  <si>
     <t>7、方块倍率：所有方块的倍率之和，会被道具或协议影响</t>
   </si>
   <si>
+    <t>Polyomino Multiplier</t>
+  </si>
+  <si>
+    <t>Poly. Mult.</t>
+  </si>
+  <si>
     <t>8、额外倍率：来自道具或协议效果的倍率，初始为1</t>
   </si>
   <si>
+    <t>Extra Multiplier</t>
+  </si>
+  <si>
+    <t>Ex Mult.</t>
+  </si>
+  <si>
     <t>牌型</t>
   </si>
   <si>
@@ -75,48 +108,72 @@
     <t>平胡</t>
   </si>
   <si>
+    <t>All Sequences</t>
+  </si>
+  <si>
     <t>对对胡</t>
   </si>
   <si>
     <t>全是刻字牌</t>
   </si>
   <si>
+    <t>All Triplets</t>
+  </si>
+  <si>
     <t>清一色</t>
   </si>
   <si>
     <t>全是相同花色</t>
   </si>
   <si>
+    <t>Full Flush</t>
+  </si>
+  <si>
     <t>清大对</t>
   </si>
   <si>
     <t>清一色+对对胡</t>
   </si>
   <si>
+    <t>Full Flush All Triplets</t>
+  </si>
+  <si>
     <t>清老头</t>
   </si>
   <si>
     <t>对对胡+全是1和9的数字</t>
   </si>
   <si>
+    <t>All Terminals</t>
+  </si>
+  <si>
     <t>九莲宝灯</t>
   </si>
   <si>
     <t>清一色+1和9各3个，2~8各一个，再加任意同色牌</t>
   </si>
   <si>
+    <t>Nine Gates</t>
+  </si>
+  <si>
     <t>地胡</t>
   </si>
   <si>
     <t>胡牌区无牌时，一次连续消行即胡牌</t>
   </si>
   <si>
+    <t>Earthly Hand</t>
+  </si>
+  <si>
     <t>天胡</t>
   </si>
   <si>
     <t>胡牌区无牌时，第一次连续消行即胡牌</t>
   </si>
   <si>
+    <t>Heavenly Hand</t>
+  </si>
+  <si>
     <t>七对</t>
   </si>
   <si>
@@ -309,7 +366,7 @@
     <t>Parachute-C</t>
   </si>
   <si>
-    <t>使用后接下来6个方块的下降速度变为100%</t>
+    <t>使用后接下来8个方块的下降速度变为100%</t>
   </si>
   <si>
     <t>炸弹</t>
@@ -393,10 +450,10 @@
     <t>本轮游戏基础分加12，下轮游戏基础分减12（基础分最低为0）</t>
   </si>
   <si>
-    <t>垃圾筒</t>
-  </si>
-  <si>
-    <t>Bin</t>
+    <t>碎纸机</t>
+  </si>
+  <si>
+    <t>Shredder</t>
   </si>
   <si>
     <t>下次消除的1行不会进行判定是会被直接移除，在下一轮游戏会恢复为正常牌库；</t>
@@ -477,7 +534,7 @@
     <t>礼物盒</t>
   </si>
   <si>
-    <t>Gift</t>
+    <t>Gift Box</t>
   </si>
   <si>
     <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机一组牌加入胡牌区</t>
@@ -492,10 +549,10 @@
     <t>使用后本轮游戏如果触发失败条件则会将所有牌（场上和胡牌区）返回牌库，继续游戏</t>
   </si>
   <si>
-    <t>大垃圾筒</t>
-  </si>
-  <si>
-    <t>Large Bin</t>
+    <t>碎纸机-Pro</t>
+  </si>
+  <si>
+    <t>Shredder-Pro</t>
   </si>
   <si>
     <t>使用后3次消除的行不会进行判定是会被直接移除，在下一轮游戏会恢复为正常牌库；</t>
@@ -1826,19 +1883,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.8416666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.7083333333333" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="18.55" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.9583333333333" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1846,63 +1906,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -1911,10 +2004,13 @@
         <f t="shared" ref="C12:C23" si="0">2^B12</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -1924,12 +2020,15 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -1939,12 +2038,15 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>8</v>
@@ -1954,12 +2056,15 @@
         <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -1969,12 +2074,15 @@
         <v>256</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
         <v>12</v>
@@ -1984,12 +2092,15 @@
         <v>4096</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
@@ -1999,12 +2110,15 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3">
         <v>8</v>
@@ -2014,12 +2128,15 @@
         <v>256</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -2031,7 +2148,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -2043,7 +2160,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3">
         <v>8</v>
@@ -2055,7 +2172,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3">
         <v>12</v>
@@ -2067,19 +2184,19 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2141,19 +2258,19 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2185,8 +2302,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2198,19 +2315,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2218,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -2232,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -2246,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2260,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -2274,7 +2391,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -2288,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -2302,7 +2419,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -2316,7 +2433,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -2330,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -2344,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -2358,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -2372,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -2386,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -2400,7 +2517,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -2414,7 +2531,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -2428,7 +2545,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -2442,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -2456,7 +2573,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -2470,7 +2587,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -2484,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -2498,7 +2615,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -2512,7 +2629,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -2526,7 +2643,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -2540,7 +2657,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -2554,7 +2671,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -2568,7 +2685,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
@@ -2582,7 +2699,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -2596,7 +2713,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -2610,7 +2727,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -2624,7 +2741,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -2638,16 +2755,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3">
         <v>36</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2779,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2671,7 +2788,7 @@
     <col min="2" max="2" width="14.0166666666667" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="101.091666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="76" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="11" width="9.88333333333333" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -2679,19 +2796,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2699,16 +2816,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2716,16 +2833,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2733,16 +2850,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2750,16 +2867,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2767,16 +2884,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2784,16 +2901,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2801,16 +2918,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2818,16 +2935,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3">
         <v>200</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2835,16 +2952,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D10" s="3">
         <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2852,16 +2969,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2869,16 +2986,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2886,16 +3003,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3">
         <v>500</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2903,16 +3020,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3">
         <v>1000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2920,16 +3037,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3">
         <v>1000</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2937,16 +3054,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3">
         <v>1000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
@@ -2954,16 +3071,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3">
         <v>1000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
@@ -2971,16 +3088,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D18" s="3">
         <v>1000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
@@ -2988,16 +3105,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3">
         <v>2000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" s="11" customFormat="1" ht="15.75" spans="1:5">
@@ -3005,16 +3122,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:5">
@@ -3022,16 +3139,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3039,16 +3156,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3056,16 +3173,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D23" s="3">
         <v>2000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3073,16 +3190,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D24" s="3">
         <v>2000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3090,16 +3207,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3107,16 +3224,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D26" s="3">
         <v>3000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3124,16 +3241,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D27" s="3">
         <v>3000</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3141,16 +3258,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D28" s="3">
         <v>3000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3158,16 +3275,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D29" s="3">
         <v>6000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3175,16 +3292,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D30" s="3">
         <v>6000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3192,16 +3309,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D31" s="3">
         <v>10000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3734,7 +3851,7 @@
   <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D20" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3749,19 +3866,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3769,16 +3886,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3786,16 +3903,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3803,16 +3920,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3820,16 +3937,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3837,16 +3954,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3">
         <v>5000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3854,16 +3971,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D7" s="3">
         <v>5000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3871,16 +3988,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="D8" s="3">
         <v>5000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3888,16 +4005,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="D9" s="3">
         <v>5000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3905,16 +4022,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D10" s="3">
         <v>5000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3922,16 +4039,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="D11" s="3">
         <v>5000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3939,16 +4056,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D12" s="3">
         <v>5000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3956,16 +4073,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="D13" s="3">
         <v>5000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3973,16 +4090,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="D14" s="3">
         <v>5000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3990,16 +4107,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D15" s="3">
         <v>5000</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4007,16 +4124,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D16" s="3">
         <v>5000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4024,16 +4141,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D17" s="3">
         <v>5000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4041,16 +4158,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D18" s="3">
         <v>5000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4058,16 +4175,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="D19" s="3">
         <v>5000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4075,16 +4192,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D20" s="3">
         <v>5000</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4092,16 +4209,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D21" s="3">
         <v>240000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4109,16 +4226,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="D22" s="5">
         <v>5000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -4731,13 +4848,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4748,7 +4865,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4759,7 +4876,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4770,7 +4887,7 @@
         <v>300</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4781,7 +4898,7 @@
         <v>600</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4792,7 +4909,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4803,7 +4920,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4814,7 +4931,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4825,7 +4942,7 @@
         <v>300</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4836,7 +4953,7 @@
         <v>600</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4847,7 +4964,7 @@
         <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4858,7 +4975,7 @@
         <v>2000</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4869,7 +4986,7 @@
         <v>3000</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4880,7 +4997,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4891,7 +5008,7 @@
         <v>300</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4902,7 +5019,7 @@
         <v>600</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4913,7 +5030,7 @@
         <v>100</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4924,7 +5041,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4935,7 +5052,7 @@
         <v>600</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4946,7 +5063,7 @@
         <v>500</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4957,7 +5074,7 @@
         <v>500</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4968,7 +5085,7 @@
         <v>500</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4979,7 +5096,7 @@
         <v>500</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4990,7 +5107,7 @@
         <v>500</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5001,7 +5118,7 @@
         <v>500</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5012,7 +5129,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5023,7 +5140,7 @@
         <v>300</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5034,7 +5151,7 @@
         <v>600</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5045,7 +5162,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5056,7 +5173,7 @@
         <v>600</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5067,7 +5184,7 @@
         <v>1000</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5078,7 +5195,7 @@
         <v>2000</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5089,7 +5206,7 @@
         <v>3000</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -453,7 +453,7 @@
     <t>碎纸机</t>
   </si>
   <si>
-    <t>Shredder</t>
+    <t>Bin</t>
   </si>
   <si>
     <t>下次消除的1行不会进行判定是会被直接移除，在下一轮游戏会恢复为正常牌库；</t>
@@ -552,7 +552,7 @@
     <t>碎纸机-Pro</t>
   </si>
   <si>
-    <t>Shredder-Pro</t>
+    <t>Big Bin</t>
   </si>
   <si>
     <t>使用后3次消除的行不会进行判定是会被直接移除，在下一轮游戏会恢复为正常牌库；</t>
@@ -753,10 +753,10 @@
     <t>每轮游戏开始胡牌基础分+100，然后每秒-1直到降为1；</t>
   </si>
   <si>
-    <t>天地无用</t>
-  </si>
-  <si>
-    <t>No Upside Down</t>
+    <t>无重力</t>
+  </si>
+  <si>
+    <t>No Gravity</t>
   </si>
   <si>
     <t>方块中的麻将块会随机旋转方向，额外倍率x2</t>
@@ -2778,8 +2778,8 @@
   <sheetPr/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3850,8 +3850,8 @@
   <sheetPr/>
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D2:D20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="297">
   <si>
     <t>规范术语</t>
   </si>
@@ -687,7 +687,7 @@
     <t>Hyper Hashrate</t>
   </si>
   <si>
-    <t>Level_3方块出现的权重提高200%，额外倍率x3；（必须有Level_3形状才会生效）</t>
+    <t>当有Level_3方块时，Level_3方块出现的权重提高200%，额外倍率x3</t>
   </si>
   <si>
     <t>进击的巨人</t>
@@ -723,7 +723,7 @@
     <t>Typhoon</t>
   </si>
   <si>
-    <t>方块下落时每秒会随机往左或右移动1~2格，额外倍率x2</t>
+    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
   </si>
   <si>
     <t>便宜仓库</t>
@@ -741,7 +741,7 @@
     <t>Meteor Shower</t>
   </si>
   <si>
-    <t>方块有10%的概率加速下落，额外倍率x2</t>
+    <t>方块有10%的概率以300%的速度下落，额外倍率x2</t>
   </si>
   <si>
     <t>临期食品</t>
@@ -759,7 +759,7 @@
     <t>No Gravity</t>
   </si>
   <si>
-    <t>方块中的麻将块会随机旋转方向，额外倍率x2</t>
+    <t>方块中的麻将块上的贴图会随机旋转方向，额外倍率x2</t>
   </si>
   <si>
     <t>戏法空间</t>
@@ -784,6 +784,42 @@
   </si>
   <si>
     <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
+  </si>
+  <si>
+    <t>超超超贵宾</t>
+  </si>
+  <si>
+    <t>SSSVIP</t>
+  </si>
+  <si>
+    <t>每次胡牌每种奖励可以选择2个；</t>
+  </si>
+  <si>
+    <t>朝九晚五</t>
+  </si>
+  <si>
+    <t>Routine Work</t>
+  </si>
+  <si>
+    <t>每轮游戏开始时的剩余时间变为固定90秒；</t>
+  </si>
+  <si>
+    <t>子弹时间</t>
+  </si>
+  <si>
+    <t>Bullet Time</t>
+  </si>
+  <si>
+    <t>当场上有方块高度超过10时，方块下降速度变为50%，倒计时时间流逝速度变为20%；</t>
+  </si>
+  <si>
+    <t>独木桥</t>
+  </si>
+  <si>
+    <t>Log Bridge</t>
+  </si>
+  <si>
+    <t>所有类型的胡牌奖励变为1个，额外倍率x2</t>
   </si>
   <si>
     <t>奖励</t>
@@ -1529,7 +1565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1553,6 +1589,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1885,8 +1927,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1902,7 +1944,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2303,7 +2345,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3117,20 +3159,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" ht="15.75" spans="1:5">
+    <row r="20" s="13" customFormat="1" ht="15.75" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="14">
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3147,7 +3189,7 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="13" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3850,8 +3892,8 @@
   <sheetPr/>
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4238,589 +4280,641 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="3:4">
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="3:4">
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="3:4">
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" spans="3:4">
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="3:4">
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="3:4">
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="3:4">
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" spans="3:4">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="3:4">
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
     </row>
     <row r="76" spans="3:4">
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="3:4">
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="3:4">
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="3:4">
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="3:4">
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="3:4">
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="3:4">
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" spans="3:4">
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="3:4">
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="3:4">
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="3:4">
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="3:4">
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="3:4">
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="3:4">
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="3:4">
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
     </row>
     <row r="93" spans="3:4">
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" spans="3:4">
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" spans="3:4">
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" spans="3:4">
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="3:4">
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" spans="3:4">
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="3:4">
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="3:4">
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="3:4">
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="3:4">
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
     </row>
     <row r="104" spans="3:4">
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" spans="3:4">
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
     </row>
     <row r="106" spans="3:4">
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="3:4">
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="3:4">
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="3:4">
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" spans="3:4">
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
     </row>
     <row r="113" spans="3:4">
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="3:4">
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
     </row>
     <row r="115" spans="3:4">
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
     </row>
     <row r="116" spans="3:4">
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" spans="3:4">
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
     </row>
     <row r="118" spans="3:4">
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
     </row>
     <row r="119" spans="3:4">
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="3:4">
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" spans="3:4">
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" spans="3:4">
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
     </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
     </row>
     <row r="124" spans="3:4">
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
     </row>
     <row r="125" spans="3:4">
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" spans="3:4">
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
     </row>
     <row r="127" spans="3:4">
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
     </row>
     <row r="128" spans="3:4">
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
     </row>
     <row r="129" spans="3:4">
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="3:4">
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="3:4">
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" spans="3:4">
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
     </row>
     <row r="133" spans="3:4">
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
     </row>
     <row r="134" spans="3:4">
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
     </row>
     <row r="135" spans="3:4">
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
     </row>
     <row r="136" spans="3:4">
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
     </row>
     <row r="137" spans="3:4">
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
     </row>
     <row r="138" spans="3:4">
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
     </row>
     <row r="139" spans="3:4">
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" spans="3:4">
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="3:4">
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" spans="3:4">
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
     </row>
     <row r="143" spans="3:4">
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
     </row>
     <row r="144" spans="3:4">
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
     </row>
     <row r="145" spans="3:4">
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
     </row>
     <row r="146" spans="3:4">
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
     </row>
     <row r="147" spans="3:4">
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
     </row>
     <row r="148" spans="3:4">
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
     </row>
     <row r="149" spans="3:4">
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" spans="3:4">
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
     </row>
     <row r="151" spans="3:4">
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" spans="3:4">
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" spans="3:4">
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
     </row>
     <row r="154" spans="3:4">
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
     </row>
     <row r="155" spans="3:4">
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
     </row>
     <row r="156" spans="3:4">
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
     </row>
     <row r="157" spans="3:4">
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
     </row>
     <row r="158" spans="3:4">
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
     </row>
     <row r="159" spans="3:4">
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" spans="3:4">
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
     </row>
     <row r="161" spans="3:4">
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="3:4">
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" spans="3:4">
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
     </row>
     <row r="164" spans="3:4">
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
     </row>
     <row r="165" spans="3:4">
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
     </row>
     <row r="166" spans="3:4">
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
     </row>
     <row r="167" spans="3:4">
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
     </row>
     <row r="168" spans="3:4">
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4851,10 +4945,10 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4865,7 +4959,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4876,7 +4970,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4887,7 +4981,7 @@
         <v>300</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4898,7 +4992,7 @@
         <v>600</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4909,7 +5003,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4920,7 +5014,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4931,7 +5025,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4942,7 +5036,7 @@
         <v>300</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4953,7 +5047,7 @@
         <v>600</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4964,7 +5058,7 @@
         <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4975,7 +5069,7 @@
         <v>2000</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4986,7 +5080,7 @@
         <v>3000</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4997,7 +5091,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5008,7 +5102,7 @@
         <v>300</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5019,7 +5113,7 @@
         <v>600</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5030,7 +5124,7 @@
         <v>100</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5041,7 +5135,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5052,7 +5146,7 @@
         <v>600</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5063,7 +5157,7 @@
         <v>500</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5074,7 +5168,7 @@
         <v>500</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5085,7 +5179,7 @@
         <v>500</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5096,7 +5190,7 @@
         <v>500</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5107,7 +5201,7 @@
         <v>500</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5118,7 +5212,7 @@
         <v>500</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5129,7 +5223,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5140,7 +5234,7 @@
         <v>300</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5151,7 +5245,7 @@
         <v>600</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5162,7 +5256,7 @@
         <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5173,7 +5267,7 @@
         <v>600</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5184,7 +5278,7 @@
         <v>1000</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5195,7 +5289,7 @@
         <v>2000</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5206,7 +5300,7 @@
         <v>3000</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A8436-EB60-4B38-B739-75C4DBC4C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="825" windowWidth="17355" windowHeight="17250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
   <si>
     <t>规范术语</t>
   </si>
@@ -210,6 +204,57 @@
     <t>额外倍率</t>
   </si>
   <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>初始速度</t>
+  </si>
+  <si>
+    <t>初始条约</t>
+  </si>
+  <si>
+    <t>方块</t>
+  </si>
+  <si>
+    <t>新手</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>All Level-1</t>
+  </si>
+  <si>
+    <t>高手</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>All Level-2</t>
+  </si>
+  <si>
+    <t>大师</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>All Level-2 + Random 2 Level-3</t>
+  </si>
+  <si>
+    <t>目标得分</t>
+  </si>
+  <si>
+    <t>金币奖励</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -330,9 +375,15 @@
     <t>效果</t>
   </si>
   <si>
+    <t>增幅器-A型</t>
+  </si>
+  <si>
     <t>Booster-A</t>
   </si>
   <si>
+    <t>本局游戏基础分+3</t>
+  </si>
+  <si>
     <t>增幅器-B型</t>
   </si>
   <si>
@@ -342,6 +393,9 @@
     <t>本轮游戏基础分+8</t>
   </si>
   <si>
+    <t>降落伞-A型</t>
+  </si>
+  <si>
     <t>Parachute-A</t>
   </si>
   <si>
@@ -372,9 +426,18 @@
     <t>Bomb</t>
   </si>
   <si>
+    <t>强行消除最底下1行</t>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
     <t>Duplicator</t>
   </si>
   <si>
+    <t>下一个形状会连续出现3次</t>
+  </si>
+  <si>
     <t>沙漏</t>
   </si>
   <si>
@@ -408,6 +471,9 @@
     <t>Eraser</t>
   </si>
   <si>
+    <t>将上一组加入胡牌区的牌放回牌库</t>
+  </si>
+  <si>
     <t>代金券</t>
   </si>
   <si>
@@ -477,9 +543,18 @@
     <t>Booster-Pro</t>
   </si>
   <si>
+    <t>本局游戏基础分x2</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
     <t>Coupon</t>
   </si>
   <si>
+    <t>当前目标分数减50%</t>
+  </si>
+  <si>
     <t>超级炸弹</t>
   </si>
   <si>
@@ -567,6 +642,9 @@
     <t>God's Salvation</t>
   </si>
   <si>
+    <t>基础分+16，方块下落速度-60%，倒计时+60秒，强行消除最底下2行；</t>
+  </si>
+  <si>
     <t>名称 CH</t>
   </si>
   <si>
@@ -795,9 +873,6 @@
     <t>所有类型的胡牌奖励变为1个，额外倍率x2</t>
   </si>
   <si>
-    <t>奖励</t>
-  </si>
-  <si>
     <t>成就</t>
   </si>
   <si>
@@ -895,62 +970,23 @@
   </si>
   <si>
     <t>游戏最高分达到1024000分</t>
-  </si>
-  <si>
-    <t>本局游戏基础分+3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>增幅器-A型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强行消除最底下1行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前目标分数减50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础分+16，方块下落速度-60%，倒计时+60秒，强行消除最底下2行；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>将上一组加入胡牌区的牌放回牌库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>降落伞-A型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个形状会连续出现3次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,33 +1014,174 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1014,12 +1191,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1027,13 +1384,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,65 +1649,121 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1358,36 +2013,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
+    <col min="6" max="6" width="15.2833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="12.625" style="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1395,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +2069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +2077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +2085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +2096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +2107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +2118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +2132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +2147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +2165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,7 +2183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1543,7 +2201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1561,7 +2219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1579,7 +2237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1597,7 +2255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1615,8 +2273,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3">
@@ -1627,8 +2285,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="3">
@@ -1639,8 +2297,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3">
@@ -1651,8 +2309,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3">
@@ -1662,8 +2320,51 @@
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L23" s="1">
+        <v>5</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" ref="N23:N29" si="1">J23/K23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>10</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14">
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L25" s="1">
+        <v>15</v>
+      </c>
+      <c r="N25" s="24">
+        <f t="shared" si="1"/>
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1679,8 +2380,21 @@
       <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>20</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -1694,11 +2408,24 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" ref="E27:E29" si="1">A27*(2^B27)*C27*D27</f>
+        <f t="shared" ref="E27:E29" si="2">A27*(2^B27)*C27*D27</f>
         <v>520</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="L27" s="1">
+        <v>25</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>20</v>
       </c>
@@ -1712,11 +2439,24 @@
         <v>2</v>
       </c>
       <c r="E28" s="3">
+        <f t="shared" si="2"/>
+        <v>9920</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>30</v>
+      </c>
+      <c r="N28" s="24">
         <f t="shared" si="1"/>
-        <v>9920</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>80</v>
       </c>
@@ -1730,14 +2470,40 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
+        <f t="shared" si="2"/>
+        <v>1126400</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="L29" s="1">
+        <v>35</v>
+      </c>
+      <c r="N29" s="24">
         <f t="shared" si="1"/>
-        <v>1126400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14">
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>40</v>
+      </c>
+      <c r="N30" s="24">
+        <f>J30/K30</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -1754,7 +2520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="3">
         <v>100</v>
       </c>
@@ -1772,36 +2538,189 @@
         <v>110592000</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="22">
+        <v>10</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="22">
+        <v>10</v>
+      </c>
+      <c r="E36" s="22">
+        <v>1</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="22">
+        <v>15</v>
+      </c>
+      <c r="E37" s="22">
+        <v>2</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="22">
+        <v>50</v>
+      </c>
+      <c r="B40" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="22">
+        <v>150</v>
+      </c>
+      <c r="B41" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="22">
+        <v>500</v>
+      </c>
+      <c r="B42" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="22">
+        <v>900</v>
+      </c>
+      <c r="B43" s="22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="22">
+        <v>1500</v>
+      </c>
+      <c r="B44" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="22">
+        <v>3000</v>
+      </c>
+      <c r="B45" s="22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="22">
+        <v>5000</v>
+      </c>
+      <c r="B46" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="22">
+        <v>8000</v>
+      </c>
+      <c r="B47" s="22">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>22</v>
@@ -1810,12 +2729,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1824,12 +2743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1838,12 +2757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1852,12 +2771,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1866,12 +2785,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1880,12 +2799,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -1894,12 +2813,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1908,12 +2827,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1922,12 +2841,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -1936,12 +2855,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1950,12 +2869,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1964,12 +2883,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -1978,12 +2897,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -1992,12 +2911,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -2006,12 +2925,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -2020,12 +2939,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -2034,12 +2953,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -2048,12 +2967,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -2062,12 +2981,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -2076,12 +2995,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -2090,12 +3009,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -2104,12 +3023,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -2118,12 +3037,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -2132,12 +3051,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -2146,12 +3065,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -2160,12 +3079,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
@@ -2174,12 +3093,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -2188,12 +3107,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -2202,12 +3121,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -2216,12 +3135,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -2230,38 +3149,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D32" s="3">
         <v>36</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2273,706 +3193,707 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>287</v>
+      <c r="B2" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>294</v>
+      <c r="B4" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>109</v>
+      <c r="B7" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>295</v>
+      <c r="B8" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>112</v>
+      <c r="B9" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D9" s="3">
         <v>200</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>115</v>
+      <c r="B10" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3">
         <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>118</v>
+      <c r="B11" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>121</v>
+      <c r="B12" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>123</v>
+      <c r="B13" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3">
         <v>500</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3">
         <v>1000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D15" s="3">
         <v>1000</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D16" s="3">
         <v>1000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D17" s="3">
         <v>1000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D18" s="3">
         <v>1000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D19" s="3">
         <v>2000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" s="13" customFormat="1" ht="15.75" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>144</v>
+      <c r="B20" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="13">
+        <v>169</v>
+      </c>
+      <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="E20" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>290</v>
+      <c r="B21" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E21" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>147</v>
+      <c r="B22" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="D23" s="3">
         <v>2000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D24" s="3">
         <v>2000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D26" s="3">
         <v>3000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="D27" s="3">
         <v>3000</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="D28" s="3">
         <v>3000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="D29" s="3">
         <v>6000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="D30" s="3">
         <v>6000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>174</v>
+      <c r="B31" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="D31" s="3">
         <v>10000</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" spans="1:4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1"/>
+    <row r="66" s="1" customFormat="1"/>
+    <row r="67" s="1" customFormat="1"/>
+    <row r="68" s="1" customFormat="1"/>
+    <row r="69" s="1" customFormat="1"/>
+    <row r="70" s="1" customFormat="1"/>
+    <row r="71" s="1" customFormat="1"/>
+    <row r="72" s="1" customFormat="1"/>
+    <row r="73" s="1" customFormat="1"/>
+    <row r="74" s="1" customFormat="1"/>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" s="1" customFormat="1"/>
+    <row r="77" s="1" customFormat="1"/>
+    <row r="78" s="1" customFormat="1"/>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" s="1" customFormat="1"/>
+    <row r="84" s="1" customFormat="1"/>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" s="1" customFormat="1"/>
+    <row r="87" s="1" customFormat="1"/>
+    <row r="89" s="1" customFormat="1"/>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
@@ -2982,1032 +3903,1033 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>178</v>
+      <c r="B2" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>187</v>
+      <c r="B5" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3">
         <v>5000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="D7" s="3">
         <v>5000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D8" s="3">
         <v>5000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>199</v>
+      <c r="B9" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D9" s="3">
         <v>5000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="D10" s="3">
         <v>5000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="D11" s="3">
         <v>5000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="D12" s="3">
         <v>5000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D13" s="3">
         <v>5000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="D14" s="3">
         <v>5000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D15" s="3">
         <v>5000</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D16" s="3">
         <v>5000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D17" s="3">
         <v>5000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="D18" s="3">
         <v>5000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="D19" s="3">
         <v>5000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="D20" s="3">
         <v>5000</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D21" s="3">
         <v>240000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="6">
         <v>5000</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E22" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>241</v>
+        <v>268</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="D23" s="3">
         <v>160000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>244</v>
+        <v>271</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="D24" s="3">
         <v>5000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>247</v>
+        <v>274</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="D25" s="3">
         <v>5000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>250</v>
+        <v>277</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="D26" s="3">
         <v>5000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+    </row>
+    <row r="128" spans="3:4">
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+    </row>
+    <row r="139" spans="3:4">
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+    </row>
+    <row r="148" spans="3:4">
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+    </row>
+    <row r="149" spans="3:4">
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="3:4">
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+    </row>
+    <row r="153" spans="3:4">
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+    </row>
+    <row r="154" spans="3:4">
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="3:4">
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="3:4">
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="3:4">
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+    </row>
+    <row r="162" spans="3:4">
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+    </row>
+    <row r="163" spans="3:4">
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+    </row>
+    <row r="164" spans="3:4">
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+    </row>
+    <row r="166" spans="3:4">
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+    </row>
+    <row r="168" spans="3:4">
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
@@ -4015,18 +4937,18 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4034,10 +4956,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4045,10 +4967,10 @@
         <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4056,10 +4978,10 @@
         <v>300</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4067,10 +4989,10 @@
         <v>600</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4078,10 +5000,10 @@
         <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4089,10 +5011,10 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4100,10 +5022,10 @@
         <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4111,10 +5033,10 @@
         <v>300</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4122,10 +5044,10 @@
         <v>600</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4133,10 +5055,10 @@
         <v>1000</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4144,10 +5066,10 @@
         <v>2000</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4155,10 +5077,10 @@
         <v>3000</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4166,10 +5088,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4177,10 +5099,10 @@
         <v>300</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4188,10 +5110,10 @@
         <v>600</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4199,10 +5121,10 @@
         <v>100</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4210,10 +5132,10 @@
         <v>300</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4221,10 +5143,10 @@
         <v>600</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4232,10 +5154,10 @@
         <v>500</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4243,10 +5165,10 @@
         <v>500</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4254,10 +5176,10 @@
         <v>500</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4265,10 +5187,10 @@
         <v>500</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4276,10 +5198,10 @@
         <v>500</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4287,10 +5209,10 @@
         <v>500</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4298,10 +5220,10 @@
         <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4309,10 +5231,10 @@
         <v>300</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4320,10 +5242,10 @@
         <v>600</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4331,10 +5253,10 @@
         <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4342,10 +5264,10 @@
         <v>600</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4353,10 +5275,10 @@
         <v>1000</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4364,10 +5286,10 @@
         <v>2000</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4375,11 +5297,11 @@
         <v>3000</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="322">
   <si>
     <t>规范术语</t>
   </si>
@@ -375,49 +375,58 @@
     <t>效果</t>
   </si>
   <si>
-    <t>增幅器-A型</t>
-  </si>
-  <si>
-    <t>Booster-A</t>
+    <t>果汁</t>
+  </si>
+  <si>
+    <t>Juice</t>
   </si>
   <si>
     <t>本局游戏基础分+3</t>
   </si>
   <si>
-    <t>增幅器-B型</t>
-  </si>
-  <si>
-    <t>Booster-B</t>
-  </si>
-  <si>
-    <t>本轮游戏基础分+8</t>
-  </si>
-  <si>
-    <t>降落伞-A型</t>
-  </si>
-  <si>
-    <t>Parachute-A</t>
-  </si>
-  <si>
-    <t>本局游戏方块下降速度-30%</t>
-  </si>
-  <si>
-    <t>降落伞-B型</t>
-  </si>
-  <si>
-    <t>Parachute-B</t>
-  </si>
-  <si>
-    <t>本轮游戏方块下降速度-80%</t>
-  </si>
-  <si>
-    <t>降落伞-C型</t>
-  </si>
-  <si>
-    <t>Parachute-C</t>
-  </si>
-  <si>
-    <t>使用后接下来8个方块的下降速度变为100%</t>
+    <t>功能饮料</t>
+  </si>
+  <si>
+    <t>Energy Drink</t>
+  </si>
+  <si>
+    <t>本轮游戏基础分+8，胡牌后移除效果</t>
+  </si>
+  <si>
+    <t>类固醇</t>
+  </si>
+  <si>
+    <t>Steroid</t>
+  </si>
+  <si>
+    <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
+  </si>
+  <si>
+    <t>气球</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>本局游戏方块下降速度-3</t>
+  </si>
+  <si>
+    <t>降落伞</t>
+  </si>
+  <si>
+    <t>Parachute</t>
+  </si>
+  <si>
+    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
+  </si>
+  <si>
+    <t>喷气背包</t>
+  </si>
+  <si>
+    <t>Jet Pack</t>
+  </si>
+  <si>
+    <t>接下来10个方块的下降速度-15（最低为1）</t>
   </si>
   <si>
     <t>炸弹</t>
@@ -426,16 +435,16 @@
     <t>Bomb</t>
   </si>
   <si>
-    <t>强行消除最底下1行</t>
+    <t>强行消除底下2行方块</t>
   </si>
   <si>
     <t>镜子</t>
   </si>
   <si>
-    <t>Duplicator</t>
-  </si>
-  <si>
-    <t>下一个形状会连续出现3次</t>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>下一个方块形状会连续出现3次</t>
   </si>
   <si>
     <t>沙漏</t>
@@ -453,16 +462,16 @@
     <t>Stopwatch</t>
   </si>
   <si>
-    <t>本轮游戏增加2次暂停时间</t>
-  </si>
-  <si>
-    <t>变形器</t>
-  </si>
-  <si>
-    <t>Deformer</t>
-  </si>
-  <si>
-    <t>将下一个块换成相同块数的其他形状</t>
+    <t>本轮游戏增加5次暂停时间，胡牌后恢复为2次</t>
+  </si>
+  <si>
+    <t>微波炉</t>
+  </si>
+  <si>
+    <t>Microwave Oven</t>
+  </si>
+  <si>
+    <t>将下一个方块换成相同小方块数量的其他形状</t>
   </si>
   <si>
     <t>橡皮擦</t>
@@ -489,34 +498,25 @@
     <t>Magnet</t>
   </si>
   <si>
-    <t>当有胡牌区有刻子时，且牌库中有这些刻子一样的牌，随机选择一个加入刻子形成杠牌</t>
-  </si>
-  <si>
-    <t>借条</t>
-  </si>
-  <si>
-    <t>Loan Doc</t>
-  </si>
-  <si>
-    <t>本轮游戏基础分加12，下轮游戏基础分减12（基础分最低为0）</t>
-  </si>
-  <si>
-    <t>碎纸机</t>
-  </si>
-  <si>
-    <t>Bin</t>
-  </si>
-  <si>
-    <t>下次消除的1行不会进行判定是会被直接移除，在下一轮游戏会恢复为正常牌库；</t>
+    <t>当有胡牌区有刻子时，且场上有这个刻子对应的牌，将该牌加入刻子形成杠牌（满足多个刻子牌时随机一个加入）</t>
+  </si>
+  <si>
+    <t>垃圾筒</t>
+  </si>
+  <si>
+    <t>Trash Bin</t>
+  </si>
+  <si>
+    <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
   </si>
   <si>
     <t>擎天柱</t>
   </si>
   <si>
-    <t>Pillar</t>
-  </si>
-  <si>
-    <t>下一个形状会是5格长条</t>
+    <t>Tall Pillar</t>
+  </si>
+  <si>
+    <t>下一个形状会是5格长条方块</t>
   </si>
   <si>
     <t>试用小样</t>
@@ -525,7 +525,7 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>下次胡牌免费获得一个随机Lv1方块</t>
+    <t>下次胡牌额外获得2个Dot方块</t>
   </si>
   <si>
     <t>快进按钮</t>
@@ -534,13 +534,13 @@
     <t>Skip Button</t>
   </si>
   <si>
-    <t>胡牌轮数+1</t>
-  </si>
-  <si>
-    <t>增幅器-Pro</t>
-  </si>
-  <si>
-    <t>Booster-Pro</t>
+    <t>胡牌轮数+2，方块下降速度+2</t>
+  </si>
+  <si>
+    <t>仙酒</t>
+  </si>
+  <si>
+    <t>Elixir Wine</t>
   </si>
   <si>
     <t>本局游戏基础分x2</t>
@@ -561,16 +561,16 @@
     <t>Super Bomb</t>
   </si>
   <si>
-    <t>强行消除最底下3行</t>
-  </si>
-  <si>
-    <t>复制器2型</t>
-  </si>
-  <si>
-    <t>Duplicator-Alt</t>
-  </si>
-  <si>
-    <t>效果变为上一个使用的道具</t>
+    <t>强行消除最底下4行</t>
+  </si>
+  <si>
+    <t>黄金镜</t>
+  </si>
+  <si>
+    <t>Gold Mirror</t>
+  </si>
+  <si>
+    <t>变为上一个使用的道具</t>
   </si>
   <si>
     <t>儿童餐</t>
@@ -579,16 +579,16 @@
     <t>Kids Meal</t>
   </si>
   <si>
-    <t>接下来60秒只会出现Lv1的方块</t>
-  </si>
-  <si>
-    <t>礼物盒</t>
-  </si>
-  <si>
-    <t>Gift Box</t>
-  </si>
-  <si>
-    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机一组牌加入胡牌区</t>
+    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
+  </si>
+  <si>
+    <t>圣诞礼物</t>
+  </si>
+  <si>
+    <t>Xmas Gift</t>
+  </si>
+  <si>
+    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
   </si>
   <si>
     <t>复活石</t>
@@ -597,16 +597,16 @@
     <t>Revive Stone</t>
   </si>
   <si>
-    <t>使用后本轮游戏如果触发失败条件则会将所有牌（场上和胡牌区）返回牌库，继续游戏</t>
-  </si>
-  <si>
-    <t>碎纸机-Pro</t>
-  </si>
-  <si>
-    <t>Big Bin</t>
-  </si>
-  <si>
-    <t>使用后3次消除的行不会进行判定是会被直接移除，在下一轮游戏会恢复为正常牌库；</t>
+    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
+  </si>
+  <si>
+    <t>大垃圾桶</t>
+  </si>
+  <si>
+    <t>Big Trash Bin</t>
+  </si>
+  <si>
+    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
   </si>
   <si>
     <t>悬赏令</t>
@@ -615,7 +615,7 @@
     <t>Wanted Poster</t>
   </si>
   <si>
-    <t>下次达成目标金币奖励x2</t>
+    <t>下次达成目标的金币奖励x3</t>
   </si>
   <si>
     <t>点金手</t>
@@ -624,16 +624,16 @@
     <t>Hand of Midas</t>
   </si>
   <si>
-    <t>使用后15秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
-  </si>
-  <si>
-    <t>计算器</t>
-  </si>
-  <si>
-    <t>Calculator</t>
-  </si>
-  <si>
-    <t>使用后15秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
+    <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
+  </si>
+  <si>
+    <t>计分板</t>
+  </si>
+  <si>
+    <t>Scoreboard</t>
+  </si>
+  <si>
+    <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
   </si>
   <si>
     <t>神之救济</t>
@@ -642,7 +642,7 @@
     <t>God's Salvation</t>
   </si>
   <si>
-    <t>基础分+16，方块下落速度-60%，倒计时+60秒，强行消除最底下2行；</t>
+    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
   </si>
   <si>
     <t>名称 CH</t>
@@ -657,7 +657,7 @@
     <t>Speed Star</t>
   </si>
   <si>
-    <t>方块下降速度增加100%，额外倍率x2</t>
+    <t>方块下降速度增加10，额外倍率x2</t>
   </si>
   <si>
     <t>断幺九</t>
@@ -666,7 +666,7 @@
     <t>Disjointed 1-9</t>
   </si>
   <si>
-    <t>移除所有的1和9的牌，目标分数x2</t>
+    <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
   </si>
   <si>
     <t>缺一门</t>
@@ -675,7 +675,7 @@
     <t>Lacking a Suit</t>
   </si>
   <si>
-    <t>随机移除一种花色所有的牌，目标分数x3</t>
+    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
   </si>
   <si>
     <t>备用口袋</t>
@@ -684,7 +684,7 @@
     <t>Spare Pocket</t>
   </si>
   <si>
-    <t>增加2个道具槽位，方块倍率-12</t>
+    <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
   </si>
   <si>
     <t>延迟满足</t>
@@ -693,16 +693,16 @@
     <t>Delay of Gratification</t>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分-10，每次消除4行时基础分+8，胡牌后重置效果</t>
-  </si>
-  <si>
-    <t>高端局</t>
-  </si>
-  <si>
-    <t>Expert Level</t>
-  </si>
-  <si>
-    <t>胡牌时如果是平胡，额外倍率x0，且没有奖励，其他牌型的计算番数倍率时底数从2变为3</t>
+    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
+  </si>
+  <si>
+    <t>麻将大师</t>
+  </si>
+  <si>
+    <t>Mahjong Master</t>
+  </si>
+  <si>
+    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
   </si>
   <si>
     <t>门外汉</t>
@@ -729,7 +729,7 @@
     <t>Blurred Vision</t>
   </si>
   <si>
-    <t>胡牌牌型仅2种花面时，视为清一色，方块倍率-18；</t>
+    <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
   </si>
   <si>
     <t>超算力</t>
@@ -747,7 +747,7 @@
     <t>Attack on Titan</t>
   </si>
   <si>
-    <t>每次新一轮游戏第一个块会变成巨人块，方块倍率+36</t>
+    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
   </si>
   <si>
     <t>深邃黑暗幻想</t>
@@ -756,7 +756,7 @@
     <t>Deep Dark Fantasy</t>
   </si>
   <si>
-    <t>方块下落后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
+    <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
   </si>
   <si>
     <t>时间就是金钱</t>
@@ -765,7 +765,7 @@
     <t>Time is Money</t>
   </si>
   <si>
-    <t>每次胡牌不奖励时间，目标金币奖励x2</t>
+    <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
   </si>
   <si>
     <t>台风天气</t>
@@ -783,7 +783,7 @@
     <t>Cheap Warehouse</t>
   </si>
   <si>
-    <t>当牌库中的牌低于36张时即游戏失败，额外倍率x2</t>
+    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
   </si>
   <si>
     <t>流星雨</t>
@@ -792,7 +792,7 @@
     <t>Meteor Shower</t>
   </si>
   <si>
-    <t>方块有10%的概率以300%的速度下落，额外倍率x2</t>
+    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
   </si>
   <si>
     <t>临期食品</t>
@@ -801,7 +801,7 @@
     <t>Advent Food</t>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分+100，然后每秒-1直到降为1；</t>
+    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1</t>
   </si>
   <si>
     <t>无重力</t>
@@ -810,7 +810,7 @@
     <t>No Gravity</t>
   </si>
   <si>
-    <t>方块中的麻将块上的贴图会随机旋转方向，额外倍率x2</t>
+    <t>方块中的麻将块上的图片会随机旋转方向，额外倍率x2</t>
   </si>
   <si>
     <t>戏法空间</t>
@@ -822,6 +822,51 @@
     <t>键盘上下、左右按键功能调换，额外倍率x3</t>
   </si>
   <si>
+    <t>朝九晚五</t>
+  </si>
+  <si>
+    <t>Routine Work</t>
+  </si>
+  <si>
+    <t>每轮游戏开始时的剩余时间变为固定90秒</t>
+  </si>
+  <si>
+    <t>子弹时间</t>
+  </si>
+  <si>
+    <t>Bullet Time</t>
+  </si>
+  <si>
+    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
+  </si>
+  <si>
+    <t>沼泽地</t>
+  </si>
+  <si>
+    <t>Marsh Land</t>
+  </si>
+  <si>
+    <t>每经过10秒即会自动消除最底下一行方块，额外倍率x2</t>
+  </si>
+  <si>
+    <t>独木桥</t>
+  </si>
+  <si>
+    <t>Log Bridge</t>
+  </si>
+  <si>
+    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x2</t>
+  </si>
+  <si>
+    <t>超超超贵宾</t>
+  </si>
+  <si>
+    <t>SSSVIP</t>
+  </si>
+  <si>
+    <t>胡牌时每种奖励可以选择2个</t>
+  </si>
+  <si>
     <t>奥义很爽</t>
   </si>
   <si>
@@ -837,45 +882,15 @@
     <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
   </si>
   <si>
-    <t>超超超贵宾</t>
-  </si>
-  <si>
-    <t>SSSVIP</t>
-  </si>
-  <si>
-    <t>每次胡牌每种奖励可以选择2个；</t>
-  </si>
-  <si>
-    <t>朝九晚五</t>
-  </si>
-  <si>
-    <t>Routine Work</t>
-  </si>
-  <si>
-    <t>每轮游戏开始时的剩余时间变为固定90秒；</t>
-  </si>
-  <si>
-    <t>子弹时间</t>
-  </si>
-  <si>
-    <t>Bullet Time</t>
-  </si>
-  <si>
-    <t>当场上有方块高度超过10时，方块下降速度变为50%，倒计时时间流逝速度变为20%；</t>
-  </si>
-  <si>
-    <t>独木桥</t>
-  </si>
-  <si>
-    <t>Log Bridge</t>
-  </si>
-  <si>
-    <t>所有类型的胡牌奖励变为1个，额外倍率x2</t>
+    <t>成就标题</t>
   </si>
   <si>
     <t>成就</t>
   </si>
   <si>
+    <t>胡啦</t>
+  </si>
+  <si>
     <t>完成一次胡牌</t>
   </si>
   <si>
@@ -912,22 +927,34 @@
     <t>完成一次清一色对对胡外加4组杠牌牌型</t>
   </si>
   <si>
-    <t>在方块下落速度在200%以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在方块下落速度在300%以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在方块下落速度在400%以上完成一局游戏</t>
+    <t>完成一次清老头牌型</t>
+  </si>
+  <si>
+    <t>完成一次九莲宝灯牌型</t>
+  </si>
+  <si>
+    <t>完成一次地胡牌型</t>
+  </si>
+  <si>
+    <t>完成一次天胡牌型</t>
+  </si>
+  <si>
+    <t>在方块下落速度在15以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在方块下落速度在20以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在方块下落速度在25以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于50秒时完成一局游戏</t>
   </si>
   <si>
     <t>在剩余时间大于100秒时完成一局游戏</t>
   </si>
   <si>
     <t>在剩余时间大于200秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于300秒时完成一局游戏</t>
   </si>
   <si>
     <t>解锁所有道具</t>
@@ -986,7 +1013,7 @@
     <numFmt numFmtId="178" formatCode="0.00000_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,18 +1029,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1185,6 +1200,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1300,12 +1321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,137 +1517,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,18 +1666,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1673,12 +1691,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1690,20 +1702,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2021,8 +2021,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2041,7 +2041,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3">
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="3">
@@ -2298,7 +2298,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3">
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3">
@@ -2329,8 +2329,8 @@
       <c r="L23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="24">
-        <f t="shared" ref="N23:N29" si="1">J23/K23</f>
+      <c r="N23" s="19">
+        <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       <c r="L24" s="1">
         <v>10</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="L25" s="1">
         <v>15</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="19">
         <f t="shared" si="1"/>
         <v>1.33333333333333</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="L26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="L27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="19">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="L28" s="1">
         <v>30</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="19">
         <f t="shared" si="1"/>
         <v>0.666666666666667</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="L29" s="1">
         <v>35</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="19">
         <f t="shared" si="1"/>
         <v>0.571428571428571</v>
       </c>
@@ -2498,8 +2498,8 @@
       <c r="L30" s="1">
         <v>40</v>
       </c>
-      <c r="N30" s="24">
-        <f>J30/K30</f>
+      <c r="N30" s="19">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2539,154 +2539,154 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="3">
         <v>10</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="3">
         <v>10</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="3">
         <v>15</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="3">
         <v>2</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="22">
+      <c r="A40" s="3">
         <v>50</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="22">
+      <c r="A41" s="3">
         <v>150</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="22">
+      <c r="A42" s="3">
         <v>500</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="22">
+      <c r="A43" s="3">
         <v>900</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="22">
+      <c r="A44" s="3">
         <v>1500</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="22">
+      <c r="A45" s="3">
         <v>3000</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="22">
+      <c r="A46" s="3">
         <v>5000</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="3">
         <v>1600</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="22">
+      <c r="A47" s="3">
         <v>8000</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="3">
         <v>3000</v>
       </c>
     </row>
@@ -3177,15 +3177,15 @@
   <sheetPr/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.425" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="76" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -3214,7 +3214,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3223,7 +3223,7 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
         <v>118</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>119</v>
@@ -3248,14 +3248,14 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>122</v>
@@ -3265,7 +3265,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3289,7 +3289,7 @@
         <v>127</v>
       </c>
       <c r="D6" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>128</v>
@@ -3299,16 +3299,16 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3316,16 +3316,16 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
-      </c>
-      <c r="E8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3333,14 +3333,14 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>137</v>
@@ -3350,14 +3350,14 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>140</v>
@@ -3367,7 +3367,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3384,7 +3384,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3393,7 +3393,7 @@
       <c r="D12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3401,14 +3401,14 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>149</v>
@@ -3418,14 +3418,14 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="15" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>151</v>
       </c>
       <c r="D14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>152</v>
@@ -3442,7 +3442,7 @@
         <v>154</v>
       </c>
       <c r="D15" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>155</v>
@@ -3459,7 +3459,7 @@
         <v>157</v>
       </c>
       <c r="D16" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>158</v>
@@ -3476,7 +3476,7 @@
         <v>160</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>161</v>
@@ -3493,7 +3493,7 @@
         <v>163</v>
       </c>
       <c r="D18" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>164</v>
@@ -3510,26 +3510,26 @@
         <v>166</v>
       </c>
       <c r="D19" s="3">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" s="13" customFormat="1" ht="15.75" spans="1:5">
+    <row r="20" s="14" customFormat="1" ht="15.75" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3546,7 +3546,7 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3629,7 +3629,7 @@
         <v>187</v>
       </c>
       <c r="D26" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>188</v>
@@ -3646,7 +3646,7 @@
         <v>190</v>
       </c>
       <c r="D27" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>191</v>
@@ -3680,7 +3680,7 @@
         <v>196</v>
       </c>
       <c r="D29" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>197</v>
@@ -3697,7 +3697,7 @@
         <v>199</v>
       </c>
       <c r="D30" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>200</v>
@@ -3707,16 +3707,16 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>201</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D31" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="15" t="s">
+        <v>120000</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3887,10 +3887,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4247,34 +4247,34 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>264</v>
       </c>
       <c r="D21" s="3">
-        <v>240000</v>
+        <v>5000</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>47</v>
+      <c r="B22" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="6">
+        <v>267</v>
+      </c>
+      <c r="D22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>267</v>
+      <c r="E22" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4282,16 +4282,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" s="9" t="s">
         <v>269</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>270</v>
+      </c>
       <c r="D23" s="3">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4299,599 +4299,608 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C24" s="9" t="s">
         <v>272</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="D24" s="3">
         <v>5000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="9" t="s">
         <v>275</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="D25" s="3">
-        <v>5000</v>
+        <v>160000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="9">
         <v>5000</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="3:4">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="3:4">
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="3:4">
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="3:4">
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" spans="3:4">
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="3:4">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="3:4">
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="3:4">
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="3:4">
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" spans="3:4">
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77" spans="3:4">
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="3:4">
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="3:4">
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="3:4">
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="3:4">
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="3:4">
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="3:4">
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84" spans="3:4">
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
     </row>
     <row r="85" spans="3:4">
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" spans="3:4">
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" spans="3:4">
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="3:4">
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="3:4">
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="3:4">
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
     </row>
     <row r="93" spans="3:4">
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
     </row>
     <row r="94" spans="3:4">
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" spans="3:4">
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
     </row>
     <row r="96" spans="3:4">
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="3:4">
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="3:4">
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" spans="3:4">
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" spans="3:4">
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="3:4">
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
     </row>
     <row r="102" spans="3:4">
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
     </row>
     <row r="104" spans="3:4">
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
     </row>
     <row r="105" spans="3:4">
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
     </row>
     <row r="106" spans="3:4">
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
     </row>
     <row r="108" spans="3:4">
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
     </row>
     <row r="109" spans="3:4">
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="3:4">
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
     </row>
     <row r="112" spans="3:4">
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
     </row>
     <row r="113" spans="3:4">
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114" spans="3:4">
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
     </row>
     <row r="115" spans="3:4">
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
     </row>
     <row r="116" spans="3:4">
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
     </row>
     <row r="117" spans="3:4">
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118" spans="3:4">
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="3:4">
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" spans="3:4">
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
     </row>
     <row r="121" spans="3:4">
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
     </row>
     <row r="122" spans="3:4">
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
     </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
     </row>
     <row r="124" spans="3:4">
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
     </row>
     <row r="125" spans="3:4">
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126" spans="3:4">
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
     </row>
     <row r="127" spans="3:4">
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
     </row>
     <row r="128" spans="3:4">
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
     </row>
     <row r="129" spans="3:4">
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
     </row>
     <row r="130" spans="3:4">
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="3:4">
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
     </row>
     <row r="132" spans="3:4">
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
     </row>
     <row r="133" spans="3:4">
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
     </row>
     <row r="134" spans="3:4">
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
     </row>
     <row r="135" spans="3:4">
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
     </row>
     <row r="136" spans="3:4">
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
     </row>
     <row r="137" spans="3:4">
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
     </row>
     <row r="138" spans="3:4">
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
     </row>
     <row r="139" spans="3:4">
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
     </row>
     <row r="140" spans="3:4">
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
     </row>
     <row r="141" spans="3:4">
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
     </row>
     <row r="142" spans="3:4">
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
     </row>
     <row r="143" spans="3:4">
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
     </row>
     <row r="144" spans="3:4">
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
     </row>
     <row r="145" spans="3:4">
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
     </row>
     <row r="146" spans="3:4">
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
     </row>
     <row r="147" spans="3:4">
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
     </row>
     <row r="148" spans="3:4">
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
     </row>
     <row r="149" spans="3:4">
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" spans="3:4">
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" spans="3:4">
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
     </row>
     <row r="152" spans="3:4">
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
     </row>
     <row r="153" spans="3:4">
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
     </row>
     <row r="154" spans="3:4">
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
     </row>
     <row r="155" spans="3:4">
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
     </row>
     <row r="156" spans="3:4">
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
     </row>
     <row r="157" spans="3:4">
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
     </row>
     <row r="158" spans="3:4">
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
     </row>
     <row r="159" spans="3:4">
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
     </row>
     <row r="160" spans="3:4">
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
     </row>
     <row r="161" spans="3:4">
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
     </row>
     <row r="162" spans="3:4">
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
     </row>
     <row r="163" spans="3:4">
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
     </row>
     <row r="164" spans="3:4">
       <c r="C164" s="11"/>
@@ -4910,8 +4919,28 @@
       <c r="D167" s="11"/>
     </row>
     <row r="168" spans="3:4">
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+    </row>
+    <row r="169" spans="3:4">
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+    </row>
+    <row r="170" spans="3:4">
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+    </row>
+    <row r="171" spans="3:4">
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+    </row>
+    <row r="172" spans="3:4">
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+    </row>
+    <row r="173" spans="3:4">
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4923,21 +4952,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="11.95" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -4945,359 +4975,444 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>283</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>300</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>600</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>200</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>200</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>100</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>300</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>600</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>1000</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>2000</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>3000</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>300</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>600</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>100</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>300</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>600</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>300</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>500</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>600</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>500</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>500</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>300</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>500</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>600</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>500</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>3000</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>500</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>3000</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>100</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>500</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>300</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>500</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>600</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>500</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>100</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>500</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>600</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>300</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>600</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>600</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
         <v>3000</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>312</v>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971A71E-4F15-4C46-857D-F345C4EAC303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -381,639 +387,647 @@
     <t>Juice</t>
   </si>
   <si>
+    <t>Energy Drink</t>
+  </si>
+  <si>
+    <t>类固醇</t>
+  </si>
+  <si>
+    <t>Steroid</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>降落伞</t>
+  </si>
+  <si>
+    <t>Parachute</t>
+  </si>
+  <si>
+    <t>喷气背包</t>
+  </si>
+  <si>
+    <t>Jet Pack</t>
+  </si>
+  <si>
+    <t>炸弹</t>
+  </si>
+  <si>
+    <t>Bomb</t>
+  </si>
+  <si>
+    <t>强行消除底下2行方块</t>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>下一个方块形状会连续出现3次</t>
+  </si>
+  <si>
+    <t>沙漏</t>
+  </si>
+  <si>
+    <t>Hourglass</t>
+  </si>
+  <si>
+    <t>倒计时+40秒</t>
+  </si>
+  <si>
+    <t>停表</t>
+  </si>
+  <si>
+    <t>Stopwatch</t>
+  </si>
+  <si>
+    <t>本轮游戏增加5次暂停时间，胡牌后恢复为2次</t>
+  </si>
+  <si>
+    <t>微波炉</t>
+  </si>
+  <si>
+    <t>Microwave Oven</t>
+  </si>
+  <si>
+    <t>将下一个方块换成相同小方块数量的其他形状</t>
+  </si>
+  <si>
+    <t>橡皮擦</t>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>将上一组加入胡牌区的牌放回牌库</t>
+  </si>
+  <si>
+    <t>代金券</t>
+  </si>
+  <si>
+    <t>Voucher</t>
+  </si>
+  <si>
+    <t>获得50金币</t>
+  </si>
+  <si>
+    <t>磁铁</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>当有胡牌区有刻子时，且场上有这个刻子对应的牌，将该牌加入刻子形成杠牌（满足多个刻子牌时随机一个加入）</t>
+  </si>
+  <si>
+    <t>垃圾筒</t>
+  </si>
+  <si>
+    <t>Trash Bin</t>
+  </si>
+  <si>
+    <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
+  </si>
+  <si>
+    <t>擎天柱</t>
+  </si>
+  <si>
+    <t>Tall Pillar</t>
+  </si>
+  <si>
+    <t>下一个形状会是5格长条方块</t>
+  </si>
+  <si>
+    <t>试用小样</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>下次胡牌额外获得2个Dot方块</t>
+  </si>
+  <si>
+    <t>快进按钮</t>
+  </si>
+  <si>
+    <t>Skip Button</t>
+  </si>
+  <si>
+    <t>胡牌轮数+2，方块下降速度+2</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>当前目标分数减50%</t>
+  </si>
+  <si>
+    <t>超级炸弹</t>
+  </si>
+  <si>
+    <t>Super Bomb</t>
+  </si>
+  <si>
+    <t>强行消除最底下4行</t>
+  </si>
+  <si>
+    <t>黄金镜</t>
+  </si>
+  <si>
+    <t>Gold Mirror</t>
+  </si>
+  <si>
+    <t>变为上一个使用的道具</t>
+  </si>
+  <si>
+    <t>儿童餐</t>
+  </si>
+  <si>
+    <t>Kids Meal</t>
+  </si>
+  <si>
+    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
+  </si>
+  <si>
+    <t>圣诞礼物</t>
+  </si>
+  <si>
+    <t>Xmas Gift</t>
+  </si>
+  <si>
+    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
+  </si>
+  <si>
+    <t>复活石</t>
+  </si>
+  <si>
+    <t>Revive Stone</t>
+  </si>
+  <si>
+    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
+  </si>
+  <si>
+    <t>大垃圾桶</t>
+  </si>
+  <si>
+    <t>Big Trash Bin</t>
+  </si>
+  <si>
+    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
+  </si>
+  <si>
+    <t>悬赏令</t>
+  </si>
+  <si>
+    <t>Wanted Poster</t>
+  </si>
+  <si>
+    <t>下次达成目标的金币奖励x3</t>
+  </si>
+  <si>
+    <t>点金手</t>
+  </si>
+  <si>
+    <t>Hand of Midas</t>
+  </si>
+  <si>
+    <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
+  </si>
+  <si>
+    <t>计分板</t>
+  </si>
+  <si>
+    <t>Scoreboard</t>
+  </si>
+  <si>
+    <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
+  </si>
+  <si>
+    <t>神之救济</t>
+  </si>
+  <si>
+    <t>God's Salvation</t>
+  </si>
+  <si>
+    <t>名称 CH</t>
+  </si>
+  <si>
+    <t>名称 EN</t>
+  </si>
+  <si>
+    <t>速度之星</t>
+  </si>
+  <si>
+    <t>Speed Star</t>
+  </si>
+  <si>
+    <t>方块下降速度增加10，额外倍率x2</t>
+  </si>
+  <si>
+    <t>断幺九</t>
+  </si>
+  <si>
+    <t>Disjointed 1-9</t>
+  </si>
+  <si>
+    <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
+  </si>
+  <si>
+    <t>缺一门</t>
+  </si>
+  <si>
+    <t>Lacking a Suit</t>
+  </si>
+  <si>
+    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
+  </si>
+  <si>
+    <t>备用口袋</t>
+  </si>
+  <si>
+    <t>Spare Pocket</t>
+  </si>
+  <si>
+    <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
+  </si>
+  <si>
+    <t>延迟满足</t>
+  </si>
+  <si>
+    <t>Delay of Gratification</t>
+  </si>
+  <si>
+    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
+  </si>
+  <si>
+    <t>麻将大师</t>
+  </si>
+  <si>
+    <t>Mahjong Master</t>
+  </si>
+  <si>
+    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
+  </si>
+  <si>
+    <t>门外汉</t>
+  </si>
+  <si>
+    <t>Layman</t>
+  </si>
+  <si>
+    <t>胡牌时所有牌型都视为平胡，消行分数调整为：1~5行分别为10/30/60/100/200</t>
+  </si>
+  <si>
+    <t>狂牌士</t>
+  </si>
+  <si>
+    <t>Mad Player</t>
+  </si>
+  <si>
+    <t>不可使用道具，额外倍率x3</t>
+  </si>
+  <si>
+    <t>混淆视听</t>
+  </si>
+  <si>
+    <t>Blurred Vision</t>
+  </si>
+  <si>
+    <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
+  </si>
+  <si>
+    <t>超算力</t>
+  </si>
+  <si>
+    <t>Hyper Hashrate</t>
+  </si>
+  <si>
+    <t>当有Level_3方块时，Level_3方块出现的权重提高200%，额外倍率x3</t>
+  </si>
+  <si>
+    <t>进击的巨人</t>
+  </si>
+  <si>
+    <t>Attack on Titan</t>
+  </si>
+  <si>
+    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
+  </si>
+  <si>
+    <t>深邃黑暗幻想</t>
+  </si>
+  <si>
+    <t>Deep Dark Fantasy</t>
+  </si>
+  <si>
+    <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
+  </si>
+  <si>
+    <t>时间就是金钱</t>
+  </si>
+  <si>
+    <t>Time is Money</t>
+  </si>
+  <si>
+    <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
+  </si>
+  <si>
+    <t>台风天气</t>
+  </si>
+  <si>
+    <t>Typhoon</t>
+  </si>
+  <si>
+    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
+  </si>
+  <si>
+    <t>便宜仓库</t>
+  </si>
+  <si>
+    <t>Cheap Warehouse</t>
+  </si>
+  <si>
+    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
+  </si>
+  <si>
+    <t>流星雨</t>
+  </si>
+  <si>
+    <t>Meteor Shower</t>
+  </si>
+  <si>
+    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
+  </si>
+  <si>
+    <t>临期食品</t>
+  </si>
+  <si>
+    <t>Advent Food</t>
+  </si>
+  <si>
+    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1</t>
+  </si>
+  <si>
+    <t>无重力</t>
+  </si>
+  <si>
+    <t>No Gravity</t>
+  </si>
+  <si>
+    <t>方块中的麻将块上的图片会随机旋转方向，额外倍率x2</t>
+  </si>
+  <si>
+    <t>戏法空间</t>
+  </si>
+  <si>
+    <t>Trick Room</t>
+  </si>
+  <si>
+    <t>键盘上下、左右按键功能调换，额外倍率x3</t>
+  </si>
+  <si>
+    <t>朝九晚五</t>
+  </si>
+  <si>
+    <t>Routine Work</t>
+  </si>
+  <si>
+    <t>每轮游戏开始时的剩余时间变为固定90秒</t>
+  </si>
+  <si>
+    <t>子弹时间</t>
+  </si>
+  <si>
+    <t>Bullet Time</t>
+  </si>
+  <si>
+    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
+  </si>
+  <si>
+    <t>沼泽地</t>
+  </si>
+  <si>
+    <t>Marsh Land</t>
+  </si>
+  <si>
+    <t>每经过10秒即会自动消除最底下一行方块，额外倍率x2</t>
+  </si>
+  <si>
+    <t>独木桥</t>
+  </si>
+  <si>
+    <t>Log Bridge</t>
+  </si>
+  <si>
+    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x2</t>
+  </si>
+  <si>
+    <t>超超超贵宾</t>
+  </si>
+  <si>
+    <t>SSSVIP</t>
+  </si>
+  <si>
+    <t>胡牌时每种奖励可以选择2个</t>
+  </si>
+  <si>
+    <t>奥义很爽</t>
+  </si>
+  <si>
+    <t>Ultimate Impact</t>
+  </si>
+  <si>
+    <t>额外倍率x16</t>
+  </si>
+  <si>
+    <t>Pair Age</t>
+  </si>
+  <si>
+    <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
+  </si>
+  <si>
+    <t>成就标题</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>胡啦</t>
+  </si>
+  <si>
+    <t>完成一次胡牌</t>
+  </si>
+  <si>
+    <t>完成简单难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成标准难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成困难难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成一次清一色牌型胡牌</t>
+  </si>
+  <si>
+    <t>完成一次对对胡牌型胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有1组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有2组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有3组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有4组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次清一色对对胡牌型</t>
+  </si>
+  <si>
+    <t>完成一次清一色对对胡外加4组杠牌牌型</t>
+  </si>
+  <si>
+    <t>完成一次清老头牌型</t>
+  </si>
+  <si>
+    <t>完成一次九莲宝灯牌型</t>
+  </si>
+  <si>
+    <t>完成一次地胡牌型</t>
+  </si>
+  <si>
+    <t>完成一次天胡牌型</t>
+  </si>
+  <si>
+    <t>在方块下落速度在15以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在方块下落速度在20以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在方块下落速度在25以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于50秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于100秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于200秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>解锁所有道具</t>
+  </si>
+  <si>
+    <t>解锁所有条约</t>
+  </si>
+  <si>
+    <t>完成一局游戏中同时拥有5个条约</t>
+  </si>
+  <si>
+    <t>完成一局游戏中累计使用20个道具</t>
+  </si>
+  <si>
+    <t>完成一局游戏中未使用任何道具</t>
+  </si>
+  <si>
+    <t>完成一局游戏中拥有20个以上的方块</t>
+  </si>
+  <si>
+    <t>完成2圈胡牌（8次）</t>
+  </si>
+  <si>
+    <t>完成3圈胡牌（12次）</t>
+  </si>
+  <si>
+    <t>完成4圈胡牌（16次）</t>
+  </si>
+  <si>
+    <t>游戏最高分达到8000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到32000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到128000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到512000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到1024000分</t>
+  </si>
+  <si>
+    <t>接下来10个方块的下降速度-15（最低为1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏方块下降速度-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙酒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elixir Wine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏基础分x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>本局游戏基础分+3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>功能饮料</t>
-  </si>
-  <si>
-    <t>Energy Drink</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>本轮游戏基础分+8，胡牌后移除效果</t>
-  </si>
-  <si>
-    <t>类固醇</t>
-  </si>
-  <si>
-    <t>Steroid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
-  </si>
-  <si>
-    <t>气球</t>
-  </si>
-  <si>
-    <t>Balloon</t>
-  </si>
-  <si>
-    <t>本局游戏方块下降速度-3</t>
-  </si>
-  <si>
-    <t>降落伞</t>
-  </si>
-  <si>
-    <t>Parachute</t>
-  </si>
-  <si>
-    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
-  </si>
-  <si>
-    <t>喷气背包</t>
-  </si>
-  <si>
-    <t>Jet Pack</t>
-  </si>
-  <si>
-    <t>接下来10个方块的下降速度-15（最低为1）</t>
-  </si>
-  <si>
-    <t>炸弹</t>
-  </si>
-  <si>
-    <t>Bomb</t>
-  </si>
-  <si>
-    <t>强行消除底下2行方块</t>
-  </si>
-  <si>
-    <t>镜子</t>
-  </si>
-  <si>
-    <t>Mirror</t>
-  </si>
-  <si>
-    <t>下一个方块形状会连续出现3次</t>
-  </si>
-  <si>
-    <t>沙漏</t>
-  </si>
-  <si>
-    <t>Hourglass</t>
-  </si>
-  <si>
-    <t>倒计时+40秒</t>
-  </si>
-  <si>
-    <t>停表</t>
-  </si>
-  <si>
-    <t>Stopwatch</t>
-  </si>
-  <si>
-    <t>本轮游戏增加5次暂停时间，胡牌后恢复为2次</t>
-  </si>
-  <si>
-    <t>微波炉</t>
-  </si>
-  <si>
-    <t>Microwave Oven</t>
-  </si>
-  <si>
-    <t>将下一个方块换成相同小方块数量的其他形状</t>
-  </si>
-  <si>
-    <t>橡皮擦</t>
-  </si>
-  <si>
-    <t>Eraser</t>
-  </si>
-  <si>
-    <t>将上一组加入胡牌区的牌放回牌库</t>
-  </si>
-  <si>
-    <t>代金券</t>
-  </si>
-  <si>
-    <t>Voucher</t>
-  </si>
-  <si>
-    <t>获得50金币</t>
-  </si>
-  <si>
-    <t>磁铁</t>
-  </si>
-  <si>
-    <t>Magnet</t>
-  </si>
-  <si>
-    <t>当有胡牌区有刻子时，且场上有这个刻子对应的牌，将该牌加入刻子形成杠牌（满足多个刻子牌时随机一个加入）</t>
-  </si>
-  <si>
-    <t>垃圾筒</t>
-  </si>
-  <si>
-    <t>Trash Bin</t>
-  </si>
-  <si>
-    <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-  </si>
-  <si>
-    <t>擎天柱</t>
-  </si>
-  <si>
-    <t>Tall Pillar</t>
-  </si>
-  <si>
-    <t>下一个形状会是5格长条方块</t>
-  </si>
-  <si>
-    <t>试用小样</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>下次胡牌额外获得2个Dot方块</t>
-  </si>
-  <si>
-    <t>快进按钮</t>
-  </si>
-  <si>
-    <t>Skip Button</t>
-  </si>
-  <si>
-    <t>胡牌轮数+2，方块下降速度+2</t>
-  </si>
-  <si>
-    <t>仙酒</t>
-  </si>
-  <si>
-    <t>Elixir Wine</t>
-  </si>
-  <si>
-    <t>本局游戏基础分x2</t>
-  </si>
-  <si>
-    <t>优惠券</t>
-  </si>
-  <si>
-    <t>Coupon</t>
-  </si>
-  <si>
-    <t>当前目标分数减50%</t>
-  </si>
-  <si>
-    <t>超级炸弹</t>
-  </si>
-  <si>
-    <t>Super Bomb</t>
-  </si>
-  <si>
-    <t>强行消除最底下4行</t>
-  </si>
-  <si>
-    <t>黄金镜</t>
-  </si>
-  <si>
-    <t>Gold Mirror</t>
-  </si>
-  <si>
-    <t>变为上一个使用的道具</t>
-  </si>
-  <si>
-    <t>儿童餐</t>
-  </si>
-  <si>
-    <t>Kids Meal</t>
-  </si>
-  <si>
-    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
-  </si>
-  <si>
-    <t>圣诞礼物</t>
-  </si>
-  <si>
-    <t>Xmas Gift</t>
-  </si>
-  <si>
-    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
-  </si>
-  <si>
-    <t>复活石</t>
-  </si>
-  <si>
-    <t>Revive Stone</t>
-  </si>
-  <si>
-    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
-  </si>
-  <si>
-    <t>大垃圾桶</t>
-  </si>
-  <si>
-    <t>Big Trash Bin</t>
-  </si>
-  <si>
-    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-  </si>
-  <si>
-    <t>悬赏令</t>
-  </si>
-  <si>
-    <t>Wanted Poster</t>
-  </si>
-  <si>
-    <t>下次达成目标的金币奖励x3</t>
-  </si>
-  <si>
-    <t>点金手</t>
-  </si>
-  <si>
-    <t>Hand of Midas</t>
-  </si>
-  <si>
-    <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
-  </si>
-  <si>
-    <t>计分板</t>
-  </si>
-  <si>
-    <t>Scoreboard</t>
-  </si>
-  <si>
-    <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
-  </si>
-  <si>
-    <t>神之救济</t>
-  </si>
-  <si>
-    <t>God's Salvation</t>
-  </si>
-  <si>
-    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
-  </si>
-  <si>
-    <t>名称 CH</t>
-  </si>
-  <si>
-    <t>名称 EN</t>
-  </si>
-  <si>
-    <t>速度之星</t>
-  </si>
-  <si>
-    <t>Speed Star</t>
-  </si>
-  <si>
-    <t>方块下降速度增加10，额外倍率x2</t>
-  </si>
-  <si>
-    <t>断幺九</t>
-  </si>
-  <si>
-    <t>Disjointed 1-9</t>
-  </si>
-  <si>
-    <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
-  </si>
-  <si>
-    <t>缺一门</t>
-  </si>
-  <si>
-    <t>Lacking a Suit</t>
-  </si>
-  <si>
-    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
-  </si>
-  <si>
-    <t>备用口袋</t>
-  </si>
-  <si>
-    <t>Spare Pocket</t>
-  </si>
-  <si>
-    <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
-  </si>
-  <si>
-    <t>延迟满足</t>
-  </si>
-  <si>
-    <t>Delay of Gratification</t>
-  </si>
-  <si>
-    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
-  </si>
-  <si>
-    <t>麻将大师</t>
-  </si>
-  <si>
-    <t>Mahjong Master</t>
-  </si>
-  <si>
-    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
-  </si>
-  <si>
-    <t>门外汉</t>
-  </si>
-  <si>
-    <t>Layman</t>
-  </si>
-  <si>
-    <t>胡牌时所有牌型都视为平胡，消行分数调整为：1~5行分别为10/30/60/100/200</t>
-  </si>
-  <si>
-    <t>狂牌士</t>
-  </si>
-  <si>
-    <t>Mad Player</t>
-  </si>
-  <si>
-    <t>不可使用道具，额外倍率x3</t>
-  </si>
-  <si>
-    <t>混淆视听</t>
-  </si>
-  <si>
-    <t>Blurred Vision</t>
-  </si>
-  <si>
-    <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
-  </si>
-  <si>
-    <t>超算力</t>
-  </si>
-  <si>
-    <t>Hyper Hashrate</t>
-  </si>
-  <si>
-    <t>当有Level_3方块时，Level_3方块出现的权重提高200%，额外倍率x3</t>
-  </si>
-  <si>
-    <t>进击的巨人</t>
-  </si>
-  <si>
-    <t>Attack on Titan</t>
-  </si>
-  <si>
-    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
-  </si>
-  <si>
-    <t>深邃黑暗幻想</t>
-  </si>
-  <si>
-    <t>Deep Dark Fantasy</t>
-  </si>
-  <si>
-    <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
-  </si>
-  <si>
-    <t>时间就是金钱</t>
-  </si>
-  <si>
-    <t>Time is Money</t>
-  </si>
-  <si>
-    <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
-  </si>
-  <si>
-    <t>台风天气</t>
-  </si>
-  <si>
-    <t>Typhoon</t>
-  </si>
-  <si>
-    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
-  </si>
-  <si>
-    <t>便宜仓库</t>
-  </si>
-  <si>
-    <t>Cheap Warehouse</t>
-  </si>
-  <si>
-    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
-  </si>
-  <si>
-    <t>流星雨</t>
-  </si>
-  <si>
-    <t>Meteor Shower</t>
-  </si>
-  <si>
-    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
-  </si>
-  <si>
-    <t>临期食品</t>
-  </si>
-  <si>
-    <t>Advent Food</t>
-  </si>
-  <si>
-    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1</t>
-  </si>
-  <si>
-    <t>无重力</t>
-  </si>
-  <si>
-    <t>No Gravity</t>
-  </si>
-  <si>
-    <t>方块中的麻将块上的图片会随机旋转方向，额外倍率x2</t>
-  </si>
-  <si>
-    <t>戏法空间</t>
-  </si>
-  <si>
-    <t>Trick Room</t>
-  </si>
-  <si>
-    <t>键盘上下、左右按键功能调换，额外倍率x3</t>
-  </si>
-  <si>
-    <t>朝九晚五</t>
-  </si>
-  <si>
-    <t>Routine Work</t>
-  </si>
-  <si>
-    <t>每轮游戏开始时的剩余时间变为固定90秒</t>
-  </si>
-  <si>
-    <t>子弹时间</t>
-  </si>
-  <si>
-    <t>Bullet Time</t>
-  </si>
-  <si>
-    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
-  </si>
-  <si>
-    <t>沼泽地</t>
-  </si>
-  <si>
-    <t>Marsh Land</t>
-  </si>
-  <si>
-    <t>每经过10秒即会自动消除最底下一行方块，额外倍率x2</t>
-  </si>
-  <si>
-    <t>独木桥</t>
-  </si>
-  <si>
-    <t>Log Bridge</t>
-  </si>
-  <si>
-    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x2</t>
-  </si>
-  <si>
-    <t>超超超贵宾</t>
-  </si>
-  <si>
-    <t>SSSVIP</t>
-  </si>
-  <si>
-    <t>胡牌时每种奖励可以选择2个</t>
-  </si>
-  <si>
-    <t>奥义很爽</t>
-  </si>
-  <si>
-    <t>Ultimate Impact</t>
-  </si>
-  <si>
-    <t>额外倍率x16</t>
-  </si>
-  <si>
-    <t>Pair Age</t>
-  </si>
-  <si>
-    <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
-  </si>
-  <si>
-    <t>成就标题</t>
-  </si>
-  <si>
-    <t>成就</t>
-  </si>
-  <si>
-    <t>胡啦</t>
-  </si>
-  <si>
-    <t>完成一次胡牌</t>
-  </si>
-  <si>
-    <t>完成简单难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成标准难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成困难难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成一次清一色牌型胡牌</t>
-  </si>
-  <si>
-    <t>完成一次对对胡牌型胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有1组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有2组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有3组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有4组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次清一色对对胡牌型</t>
-  </si>
-  <si>
-    <t>完成一次清一色对对胡外加4组杠牌牌型</t>
-  </si>
-  <si>
-    <t>完成一次清老头牌型</t>
-  </si>
-  <si>
-    <t>完成一次九莲宝灯牌型</t>
-  </si>
-  <si>
-    <t>完成一次地胡牌型</t>
-  </si>
-  <si>
-    <t>完成一次天胡牌型</t>
-  </si>
-  <si>
-    <t>在方块下落速度在15以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在方块下落速度在20以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在方块下落速度在25以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于50秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于100秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于200秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>解锁所有道具</t>
-  </si>
-  <si>
-    <t>解锁所有条约</t>
-  </si>
-  <si>
-    <t>完成一局游戏中同时拥有5个条约</t>
-  </si>
-  <si>
-    <t>完成一局游戏中累计使用20个道具</t>
-  </si>
-  <si>
-    <t>完成一局游戏中未使用任何道具</t>
-  </si>
-  <si>
-    <t>完成一局游戏中拥有20个以上的方块</t>
-  </si>
-  <si>
-    <t>完成2圈胡牌（8次）</t>
-  </si>
-  <si>
-    <t>完成3圈胡牌（12次）</t>
-  </si>
-  <si>
-    <t>完成4圈胡牌（16次）</t>
-  </si>
-  <si>
-    <t>游戏最高分达到8000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到32000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到128000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到512000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到1024000分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00000_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,151 +1055,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1200,7 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,186 +1103,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1399,255 +1116,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1666,7 +1141,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1681,23 +1156,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1705,65 +1174,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2013,25 +1459,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.2833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
@@ -2040,12 +1486,12 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2069,7 +1515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2077,7 +1523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2085,7 +1531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2096,7 +1542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +1553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2118,7 +1564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2132,7 +1578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,7 +1593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2165,7 +1611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2183,7 +1629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2201,7 +1647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2219,7 +1665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2237,7 +1683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2255,7 +1701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2273,7 +1719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
@@ -2285,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
@@ -2297,7 +1743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
@@ -2309,7 +1755,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
@@ -2329,12 +1775,12 @@
       <c r="L23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="17">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="10:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J24" s="1">
         <v>1</v>
       </c>
@@ -2344,12 +1790,12 @@
       <c r="L24" s="1">
         <v>10</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="10:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J25" s="1">
         <v>1</v>
       </c>
@@ -2359,12 +1805,12 @@
       <c r="L25" s="1">
         <v>15</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="17">
         <f t="shared" si="1"/>
-        <v>1.33333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1.3333333333333299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2389,12 +1835,12 @@
       <c r="L26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -2420,12 +1866,12 @@
       <c r="L27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="17">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>20</v>
       </c>
@@ -2451,12 +1897,12 @@
       <c r="L28" s="1">
         <v>30</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="17">
         <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>80</v>
       </c>
@@ -2482,12 +1928,12 @@
       <c r="L29" s="1">
         <v>35</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="17">
         <f t="shared" si="1"/>
-        <v>0.571428571428571</v>
-      </c>
-    </row>
-    <row r="30" spans="5:14">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E30" s="3"/>
       <c r="J30" s="1">
         <v>1</v>
@@ -2498,12 +1944,12 @@
       <c r="L30" s="1">
         <v>40</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="17">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -2520,7 +1966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>100</v>
       </c>
@@ -2538,7 +1984,7 @@
         <v>110592000</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -2558,7 +2004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -2578,7 +2024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -2598,7 +2044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -2618,7 +2064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2626,7 +2072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>50</v>
       </c>
@@ -2634,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>150</v>
       </c>
@@ -2642,7 +2088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>500</v>
       </c>
@@ -2650,7 +2096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>900</v>
       </c>
@@ -2658,7 +2104,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>1500</v>
       </c>
@@ -2666,7 +2112,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>3000</v>
       </c>
@@ -2674,7 +2120,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>5000</v>
       </c>
@@ -2682,7 +2128,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>8000</v>
       </c>
@@ -2691,28 +2137,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -2729,7 +2174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2743,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2757,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2771,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2785,7 +2230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2799,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2813,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2827,7 +2272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2841,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2855,7 +2300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2869,7 +2314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2883,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2897,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2911,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2925,7 +2370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2939,7 +2384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2953,7 +2398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2967,7 +2412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2981,7 +2426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2995,7 +2440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3009,7 +2454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3023,7 +2468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3037,7 +2482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3051,7 +2496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3065,7 +2510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3079,7 +2524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3093,7 +2538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3107,7 +2552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3121,7 +2566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3135,7 +2580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3149,7 +2594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3167,25 +2612,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.425" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="76" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -3193,7 +2637,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -3210,11 +2654,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3223,677 +2667,676 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>117</v>
+      <c r="B3" s="24" t="s">
+        <v>319</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3">
         <v>500</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3">
         <v>500</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>123</v>
+      <c r="B5" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>126</v>
+      <c r="B6" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3">
         <v>500</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>129</v>
+      <c r="B7" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>132</v>
+      <c r="B8" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>135</v>
+      <c r="B9" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3">
         <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>138</v>
+      <c r="B10" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>141</v>
+      <c r="B11" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>144</v>
+      <c r="B12" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>147</v>
+      <c r="B13" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>150</v>
+      <c r="B14" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D15" s="3">
         <v>500</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D16" s="3">
         <v>500</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D18" s="3">
         <v>500</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D19" s="3">
         <v>500</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" s="14" customFormat="1" ht="15.75" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="B20" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="15">
         <v>0</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:5">
+      <c r="E20" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>171</v>
+      <c r="B21" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>174</v>
+      <c r="B22" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>177</v>
+      <c r="B23" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D23" s="3">
         <v>2000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D24" s="3">
         <v>2000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D26" s="3">
         <v>2000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D27" s="3">
         <v>2000</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D28" s="3">
         <v>3000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D29" s="3">
         <v>3000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D30" s="3">
         <v>3000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>201</v>
+      <c r="B31" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D31" s="3">
         <v>120000</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" spans="1:4">
+      <c r="E31" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="1" customFormat="1"/>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1"/>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="1" customFormat="1"/>
-    <row r="80" s="1" customFormat="1"/>
-    <row r="81" s="1" customFormat="1"/>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1"/>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" s="1" customFormat="1"/>
-    <row r="86" s="1" customFormat="1"/>
-    <row r="87" s="1" customFormat="1"/>
-    <row r="89" s="1" customFormat="1"/>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
-    <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="1" customFormat="1"/>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="1" customFormat="1"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
@@ -3903,15 +3346,15 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>112</v>
@@ -3920,432 +3363,432 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3">
         <v>5000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D7" s="3">
         <v>5000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3">
         <v>5000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D9" s="3">
         <v>5000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D10" s="3">
         <v>5000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D11" s="3">
         <v>5000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D12" s="3">
         <v>5000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D13" s="3">
         <v>5000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D14" s="3">
         <v>5000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D15" s="3">
         <v>5000</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D16" s="3">
         <v>5000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D17" s="3">
         <v>5000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D18" s="3">
         <v>5000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D19" s="3">
         <v>5000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D20" s="3">
         <v>5000</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D21" s="3">
         <v>5000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D22" s="3">
         <v>5000</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D23" s="3">
         <v>5000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D24" s="3">
         <v>5000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D25" s="3">
         <v>160000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D26" s="3">
         <v>200000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -4353,621 +3796,620 @@
         <v>47</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D27" s="9">
         <v>5000</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="3:4">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="3:4">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="3:4">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="3:4">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="3:4">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
     </row>
-    <row r="168" spans="3:4">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
     </row>
-    <row r="169" spans="3:4">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
     </row>
-    <row r="170" spans="3:4">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C170" s="12"/>
       <c r="D170" s="12"/>
     </row>
-    <row r="171" spans="3:4">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
     </row>
-    <row r="172" spans="3:4">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
     </row>
-    <row r="173" spans="3:4">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.95" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -4975,13 +4417,13 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4989,13 +4431,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5004,10 +4446,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5016,10 +4458,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5028,10 +4470,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5040,10 +4482,10 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5052,10 +4494,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5064,10 +4506,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5076,10 +4518,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5088,10 +4530,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5100,10 +4542,10 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5112,10 +4554,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5124,10 +4566,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5136,10 +4578,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5148,10 +4590,10 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5160,10 +4602,10 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5172,10 +4614,10 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5184,10 +4626,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5196,10 +4638,10 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5208,10 +4650,10 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5220,10 +4662,10 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5232,10 +4674,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5244,10 +4686,10 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5256,10 +4698,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5268,10 +4710,10 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5280,10 +4722,10 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5292,10 +4734,10 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5304,10 +4746,10 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5316,10 +4758,10 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5328,10 +4770,10 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5340,10 +4782,10 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5352,10 +4794,10 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5364,10 +4806,10 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5376,10 +4818,10 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5388,10 +4830,10 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5400,10 +4842,10 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5412,11 +4854,11 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971A71E-4F15-4C46-857D-F345C4EAC303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B86A97-FCC3-4C8E-9135-8AE322D75A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="325">
   <si>
     <t>规范术语</t>
   </si>
@@ -483,537 +483,587 @@
     <t>当有胡牌区有刻子时，且场上有这个刻子对应的牌，将该牌加入刻子形成杠牌（满足多个刻子牌时随机一个加入）</t>
   </si>
   <si>
+    <t>Trash Bin</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Skip Button</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>当前目标分数减50%</t>
+  </si>
+  <si>
+    <t>超级炸弹</t>
+  </si>
+  <si>
+    <t>Super Bomb</t>
+  </si>
+  <si>
+    <t>强行消除最底下4行</t>
+  </si>
+  <si>
+    <t>黄金镜</t>
+  </si>
+  <si>
+    <t>Gold Mirror</t>
+  </si>
+  <si>
+    <t>变为上一个使用的道具</t>
+  </si>
+  <si>
+    <t>儿童餐</t>
+  </si>
+  <si>
+    <t>Kids Meal</t>
+  </si>
+  <si>
+    <t>Xmas Gift</t>
+  </si>
+  <si>
+    <t>复活石</t>
+  </si>
+  <si>
+    <t>Revive Stone</t>
+  </si>
+  <si>
+    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
+  </si>
+  <si>
+    <t>Big Trash Bin</t>
+  </si>
+  <si>
+    <t>悬赏令</t>
+  </si>
+  <si>
+    <t>Wanted Poster</t>
+  </si>
+  <si>
+    <t>下次达成目标的金币奖励x3</t>
+  </si>
+  <si>
+    <t>点金手</t>
+  </si>
+  <si>
+    <t>Hand of Midas</t>
+  </si>
+  <si>
+    <t>计分板</t>
+  </si>
+  <si>
+    <t>Scoreboard</t>
+  </si>
+  <si>
+    <t>神之救济</t>
+  </si>
+  <si>
+    <t>God's Salvation</t>
+  </si>
+  <si>
+    <t>名称 CH</t>
+  </si>
+  <si>
+    <t>名称 EN</t>
+  </si>
+  <si>
+    <t>速度之星</t>
+  </si>
+  <si>
+    <t>Speed Star</t>
+  </si>
+  <si>
+    <t>方块下降速度增加10，额外倍率x2</t>
+  </si>
+  <si>
+    <t>Disjointed 1-9</t>
+  </si>
+  <si>
+    <t>Lacking a Suit</t>
+  </si>
+  <si>
+    <t>备用口袋</t>
+  </si>
+  <si>
+    <t>Spare Pocket</t>
+  </si>
+  <si>
+    <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
+  </si>
+  <si>
+    <t>延迟满足</t>
+  </si>
+  <si>
+    <t>Delay of Gratification</t>
+  </si>
+  <si>
+    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
+  </si>
+  <si>
+    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
+  </si>
+  <si>
+    <t>门外汉</t>
+  </si>
+  <si>
+    <t>Layman</t>
+  </si>
+  <si>
+    <t>胡牌时所有牌型都视为平胡，消行分数调整为：1~5行分别为10/30/60/100/200</t>
+  </si>
+  <si>
+    <t>狂牌士</t>
+  </si>
+  <si>
+    <t>Mad Player</t>
+  </si>
+  <si>
+    <t>不可使用道具，额外倍率x3</t>
+  </si>
+  <si>
+    <t>Blurred Vision</t>
+  </si>
+  <si>
+    <t>Hyper Hashrate</t>
+  </si>
+  <si>
+    <t>进击的巨人</t>
+  </si>
+  <si>
+    <t>Attack on Titan</t>
+  </si>
+  <si>
+    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
+  </si>
+  <si>
+    <t>Deep Dark Fantasy</t>
+  </si>
+  <si>
+    <t>时间就是金钱</t>
+  </si>
+  <si>
+    <t>Time is Money</t>
+  </si>
+  <si>
+    <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
+  </si>
+  <si>
+    <t>Typhoon</t>
+  </si>
+  <si>
+    <t>便宜仓库</t>
+  </si>
+  <si>
+    <t>Cheap Warehouse</t>
+  </si>
+  <si>
+    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
+  </si>
+  <si>
+    <t>Meteor Shower</t>
+  </si>
+  <si>
+    <t>临期食品</t>
+  </si>
+  <si>
+    <t>Advent Food</t>
+  </si>
+  <si>
+    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1</t>
+  </si>
+  <si>
+    <t>No Gravity</t>
+  </si>
+  <si>
+    <t>Trick Room</t>
+  </si>
+  <si>
+    <t>朝九晚五</t>
+  </si>
+  <si>
+    <t>Routine Work</t>
+  </si>
+  <si>
+    <t>每轮游戏开始时的剩余时间变为固定90秒</t>
+  </si>
+  <si>
+    <t>子弹时间</t>
+  </si>
+  <si>
+    <t>Bullet Time</t>
+  </si>
+  <si>
+    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
+  </si>
+  <si>
+    <t>沼泽地</t>
+  </si>
+  <si>
+    <t>Marsh Land</t>
+  </si>
+  <si>
+    <t>每经过10秒即会自动消除最底下一行方块，额外倍率x2</t>
+  </si>
+  <si>
+    <t>独木桥</t>
+  </si>
+  <si>
+    <t>Log Bridge</t>
+  </si>
+  <si>
+    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x2</t>
+  </si>
+  <si>
+    <t>超超超贵宾</t>
+  </si>
+  <si>
+    <t>SSSVIP</t>
+  </si>
+  <si>
+    <t>胡牌时每种奖励可以选择2个</t>
+  </si>
+  <si>
+    <t>Ultimate Impact</t>
+  </si>
+  <si>
+    <t>Pair Age</t>
+  </si>
+  <si>
+    <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
+  </si>
+  <si>
+    <t>成就标题</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>胡啦</t>
+  </si>
+  <si>
+    <t>完成一次胡牌</t>
+  </si>
+  <si>
+    <t>完成简单难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成标准难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成困难难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成一次清一色牌型胡牌</t>
+  </si>
+  <si>
+    <t>完成一次对对胡牌型胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有1组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有2组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有3组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有4组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次清一色对对胡牌型</t>
+  </si>
+  <si>
+    <t>完成一次清一色对对胡外加4组杠牌牌型</t>
+  </si>
+  <si>
+    <t>完成一次清老头牌型</t>
+  </si>
+  <si>
+    <t>完成一次九莲宝灯牌型</t>
+  </si>
+  <si>
+    <t>完成一次地胡牌型</t>
+  </si>
+  <si>
+    <t>完成一次天胡牌型</t>
+  </si>
+  <si>
+    <t>在方块下落速度在15以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在方块下落速度在20以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在方块下落速度在25以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于50秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于100秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于200秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>解锁所有道具</t>
+  </si>
+  <si>
+    <t>解锁所有条约</t>
+  </si>
+  <si>
+    <t>完成一局游戏中同时拥有5个条约</t>
+  </si>
+  <si>
+    <t>完成一局游戏中累计使用20个道具</t>
+  </si>
+  <si>
+    <t>完成一局游戏中未使用任何道具</t>
+  </si>
+  <si>
+    <t>完成一局游戏中拥有20个以上的方块</t>
+  </si>
+  <si>
+    <t>完成2圈胡牌（8次）</t>
+  </si>
+  <si>
+    <t>完成3圈胡牌（12次）</t>
+  </si>
+  <si>
+    <t>完成4圈胡牌（16次）</t>
+  </si>
+  <si>
+    <t>游戏最高分达到8000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到32000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到128000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到512000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到1024000分</t>
+  </si>
+  <si>
+    <t>接下来10个方块的下降速度-15（最低为1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏方块下降速度-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙酒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elixir Wine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏基础分x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏基础分+3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能饮料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏基础分+8，胡牌后移除效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻将博士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Mahjong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定气流</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbulence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过6秒即增加或减少1~36基础分（最低为1），每轮游戏开始会先恢复原来的基础分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快进按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌轮数+2，方块下降速度+2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>垃圾筒</t>
-  </si>
-  <si>
-    <t>Trash Bin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-  </si>
-  <si>
-    <t>擎天柱</t>
-  </si>
-  <si>
-    <t>Tall Pillar</t>
-  </si>
-  <si>
-    <t>下一个形状会是5格长条方块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个形状会是7格长条方块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obelisk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方尖塔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>试用小样</t>
-  </si>
-  <si>
-    <t>Sample</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下次胡牌额外获得2个Dot方块</t>
-  </si>
-  <si>
-    <t>快进按钮</t>
-  </si>
-  <si>
-    <t>Skip Button</t>
-  </si>
-  <si>
-    <t>胡牌轮数+2，方块下降速度+2</t>
-  </si>
-  <si>
-    <t>优惠券</t>
-  </si>
-  <si>
-    <t>Coupon</t>
-  </si>
-  <si>
-    <t>当前目标分数减50%</t>
-  </si>
-  <si>
-    <t>超级炸弹</t>
-  </si>
-  <si>
-    <t>Super Bomb</t>
-  </si>
-  <si>
-    <t>强行消除最底下4行</t>
-  </si>
-  <si>
-    <t>黄金镜</t>
-  </si>
-  <si>
-    <t>Gold Mirror</t>
-  </si>
-  <si>
-    <t>变为上一个使用的道具</t>
-  </si>
-  <si>
-    <t>儿童餐</t>
-  </si>
-  <si>
-    <t>Kids Meal</t>
-  </si>
-  <si>
-    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大垃圾桶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>圣诞礼物</t>
-  </si>
-  <si>
-    <t>Xmas Gift</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
-  </si>
-  <si>
-    <t>复活石</t>
-  </si>
-  <si>
-    <t>Revive Stone</t>
-  </si>
-  <si>
-    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
-  </si>
-  <si>
-    <t>大垃圾桶</t>
-  </si>
-  <si>
-    <t>Big Trash Bin</t>
-  </si>
-  <si>
-    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-  </si>
-  <si>
-    <t>悬赏令</t>
-  </si>
-  <si>
-    <t>Wanted Poster</t>
-  </si>
-  <si>
-    <t>下次达成目标的金币奖励x3</t>
-  </si>
-  <si>
-    <t>点金手</t>
-  </si>
-  <si>
-    <t>Hand of Midas</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
-  </si>
-  <si>
-    <t>计分板</t>
-  </si>
-  <si>
-    <t>Scoreboard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
-  </si>
-  <si>
-    <t>神之救济</t>
-  </si>
-  <si>
-    <t>God's Salvation</t>
-  </si>
-  <si>
-    <t>名称 CH</t>
-  </si>
-  <si>
-    <t>名称 EN</t>
-  </si>
-  <si>
-    <t>速度之星</t>
-  </si>
-  <si>
-    <t>Speed Star</t>
-  </si>
-  <si>
-    <t>方块下降速度增加10，额外倍率x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>断幺九</t>
-  </si>
-  <si>
-    <t>Disjointed 1-9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>缺一门</t>
-  </si>
-  <si>
-    <t>Lacking a Suit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
-  </si>
-  <si>
-    <t>备用口袋</t>
-  </si>
-  <si>
-    <t>Spare Pocket</t>
-  </si>
-  <si>
-    <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
-  </si>
-  <si>
-    <t>延迟满足</t>
-  </si>
-  <si>
-    <t>Delay of Gratification</t>
-  </si>
-  <si>
-    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
-  </si>
-  <si>
-    <t>麻将大师</t>
-  </si>
-  <si>
-    <t>Mahjong Master</t>
-  </si>
-  <si>
-    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
-  </si>
-  <si>
-    <t>门外汉</t>
-  </si>
-  <si>
-    <t>Layman</t>
-  </si>
-  <si>
-    <t>胡牌时所有牌型都视为平胡，消行分数调整为：1~5行分别为10/30/60/100/200</t>
-  </si>
-  <si>
-    <t>狂牌士</t>
-  </si>
-  <si>
-    <t>Mad Player</t>
-  </si>
-  <si>
-    <t>不可使用道具，额外倍率x3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>混淆视听</t>
-  </si>
-  <si>
-    <t>Blurred Vision</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有Level_3方块时生效，Level_3方块出现的权重提高200%，额外倍率x3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>超算力</t>
-  </si>
-  <si>
-    <t>Hyper Hashrate</t>
-  </si>
-  <si>
-    <t>当有Level_3方块时，Level_3方块出现的权重提高200%，额外倍率x3</t>
-  </si>
-  <si>
-    <t>进击的巨人</t>
-  </si>
-  <si>
-    <t>Attack on Titan</t>
-  </si>
-  <si>
-    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>深邃黑暗幻想</t>
-  </si>
-  <si>
-    <t>Deep Dark Fantasy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
-  </si>
-  <si>
-    <t>时间就是金钱</t>
-  </si>
-  <si>
-    <t>Time is Money</t>
-  </si>
-  <si>
-    <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>台风天气</t>
-  </si>
-  <si>
-    <t>Typhoon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
-  </si>
-  <si>
-    <t>便宜仓库</t>
-  </si>
-  <si>
-    <t>Cheap Warehouse</t>
-  </si>
-  <si>
-    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>流星雨</t>
-  </si>
-  <si>
-    <t>Meteor Shower</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
-  </si>
-  <si>
-    <t>临期食品</t>
-  </si>
-  <si>
-    <t>Advent Food</t>
-  </si>
-  <si>
-    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无重力</t>
-  </si>
-  <si>
-    <t>No Gravity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方块中的麻将块上的图片会随机旋转方向，额外倍率x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥义很爽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外倍率x16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>戏法空间</t>
-  </si>
-  <si>
-    <t>Trick Room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>键盘上下、左右按键功能调换，额外倍率x3</t>
-  </si>
-  <si>
-    <t>朝九晚五</t>
-  </si>
-  <si>
-    <t>Routine Work</t>
-  </si>
-  <si>
-    <t>每轮游戏开始时的剩余时间变为固定90秒</t>
-  </si>
-  <si>
-    <t>子弹时间</t>
-  </si>
-  <si>
-    <t>Bullet Time</t>
-  </si>
-  <si>
-    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
-  </si>
-  <si>
-    <t>沼泽地</t>
-  </si>
-  <si>
-    <t>Marsh Land</t>
-  </si>
-  <si>
-    <t>每经过10秒即会自动消除最底下一行方块，额外倍率x2</t>
-  </si>
-  <si>
-    <t>独木桥</t>
-  </si>
-  <si>
-    <t>Log Bridge</t>
-  </si>
-  <si>
-    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x2</t>
-  </si>
-  <si>
-    <t>超超超贵宾</t>
-  </si>
-  <si>
-    <t>SSSVIP</t>
-  </si>
-  <si>
-    <t>胡牌时每种奖励可以选择2个</t>
-  </si>
-  <si>
-    <t>奥义很爽</t>
-  </si>
-  <si>
-    <t>Ultimate Impact</t>
-  </si>
-  <si>
-    <t>额外倍率x16</t>
-  </si>
-  <si>
-    <t>Pair Age</t>
-  </si>
-  <si>
-    <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
-  </si>
-  <si>
-    <t>成就标题</t>
-  </si>
-  <si>
-    <t>成就</t>
-  </si>
-  <si>
-    <t>胡啦</t>
-  </si>
-  <si>
-    <t>完成一次胡牌</t>
-  </si>
-  <si>
-    <t>完成简单难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成标准难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成困难难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成一次清一色牌型胡牌</t>
-  </si>
-  <si>
-    <t>完成一次对对胡牌型胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有1组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有2组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有3组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有4组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次清一色对对胡牌型</t>
-  </si>
-  <si>
-    <t>完成一次清一色对对胡外加4组杠牌牌型</t>
-  </si>
-  <si>
-    <t>完成一次清老头牌型</t>
-  </si>
-  <si>
-    <t>完成一次九莲宝灯牌型</t>
-  </si>
-  <si>
-    <t>完成一次地胡牌型</t>
-  </si>
-  <si>
-    <t>完成一次天胡牌型</t>
-  </si>
-  <si>
-    <t>在方块下落速度在15以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在方块下落速度在20以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在方块下落速度在25以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于50秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于100秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于200秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>解锁所有道具</t>
-  </si>
-  <si>
-    <t>解锁所有条约</t>
-  </si>
-  <si>
-    <t>完成一局游戏中同时拥有5个条约</t>
-  </si>
-  <si>
-    <t>完成一局游戏中累计使用20个道具</t>
-  </si>
-  <si>
-    <t>完成一局游戏中未使用任何道具</t>
-  </si>
-  <si>
-    <t>完成一局游戏中拥有20个以上的方块</t>
-  </si>
-  <si>
-    <t>完成2圈胡牌（8次）</t>
-  </si>
-  <si>
-    <t>完成3圈胡牌（12次）</t>
-  </si>
-  <si>
-    <t>完成4圈胡牌（16次）</t>
-  </si>
-  <si>
-    <t>游戏最高分达到8000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到32000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到128000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到512000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到1024000分</t>
-  </si>
-  <si>
-    <t>接下来10个方块的下降速度-15（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>气球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏方块下降速度-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙酒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elixir Wine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分+3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能饮料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏基础分+8，胡牌后移除效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1022,10 +1072,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1076,7 +1126,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,6 +1157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1122,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,7 +1197,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1156,13 +1212,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1174,7 +1230,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1197,6 +1253,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2621,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2668,15 +2733,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>319</v>
+      <c r="B3" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>116</v>
@@ -2685,14 +2750,14 @@
         <v>500</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2702,7 +2767,7 @@
         <v>500</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2710,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>119</v>
@@ -2719,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2736,7 +2801,7 @@
         <v>500</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2753,7 +2818,7 @@
         <v>500</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2896,68 +2961,68 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D16" s="3">
         <v>500</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>150</v>
+      <c r="E16" s="18" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>152</v>
+      <c r="B17" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>153</v>
+      <c r="E17" s="18" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>154</v>
+      <c r="B18" s="25" t="s">
+        <v>297</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>156</v>
+      <c r="E18" s="18" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>157</v>
+      <c r="B19" s="25" t="s">
+        <v>290</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D19" s="3">
         <v>500</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>159</v>
+      <c r="E19" s="18" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -2965,16 +3030,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="D20" s="15">
         <v>0</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
@@ -2982,16 +3047,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -2999,16 +3064,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -3016,16 +3081,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D23" s="3">
         <v>2000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -3033,33 +3098,33 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>171</v>
+      <c r="E24" s="18" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>172</v>
+      <c r="B25" s="25" t="s">
+        <v>301</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>174</v>
+      <c r="E25" s="18" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -3067,33 +3132,33 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D26" s="3">
         <v>2000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>178</v>
+      <c r="B27" s="25" t="s">
+        <v>299</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>180</v>
+      <c r="E27" s="18" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -3101,16 +3166,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D28" s="3">
         <v>3000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -3118,16 +3183,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D29" s="3">
         <v>3000</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>186</v>
+      <c r="E29" s="18" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -3135,16 +3200,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D30" s="3">
         <v>3000</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>189</v>
+      <c r="E30" s="18" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -3152,16 +3217,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D31" s="3">
         <v>120000</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3332,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3351,10 +3416,10 @@
         <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>112</v>
@@ -3368,50 +3433,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>197</v>
+      <c r="B3" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>199</v>
+      <c r="E3" s="18" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>200</v>
+      <c r="B4" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>202</v>
+      <c r="E4" s="18" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3419,16 +3484,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3436,33 +3501,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D6" s="3">
         <v>5000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>210</v>
+      <c r="B7" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="D7" s="3">
         <v>5000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -3470,16 +3535,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D8" s="3">
         <v>5000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3487,50 +3552,50 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D9" s="3">
         <v>5000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>218</v>
+      <c r="B10" s="27" t="s">
+        <v>309</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>220</v>
+      <c r="E10" s="18" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>221</v>
+      <c r="B11" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D11" s="3">
         <v>5000</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>223</v>
+      <c r="E11" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3538,33 +3603,33 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="D12" s="3">
         <v>5000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>227</v>
+      <c r="B13" s="27" t="s">
+        <v>313</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D13" s="3">
         <v>5000</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>229</v>
+      <c r="E13" s="18" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3572,33 +3637,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D14" s="3">
         <v>5000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>233</v>
+      <c r="B15" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D15" s="3">
         <v>5000</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>235</v>
+      <c r="E15" s="18" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3606,33 +3671,33 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D16" s="3">
         <v>5000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>239</v>
+      <c r="B17" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>241</v>
+      <c r="E17" s="18" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -3640,50 +3705,50 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D18" s="3">
         <v>5000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>245</v>
+      <c r="B19" s="27" t="s">
+        <v>319</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="D19" s="3">
         <v>5000</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>247</v>
+      <c r="E19" s="18" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>248</v>
+      <c r="B20" s="27" t="s">
+        <v>323</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="D20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>250</v>
+      <c r="E20" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -3691,16 +3756,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="D21" s="3">
         <v>5000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -3708,16 +3773,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="D22" s="3">
         <v>5000</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -3725,16 +3790,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3">
         <v>5000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -3742,16 +3807,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="D24" s="3">
         <v>5000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -3759,33 +3824,33 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="D25" s="3">
         <v>160000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>266</v>
+      <c r="B26" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="D26" s="3">
         <v>200000</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>268</v>
+      <c r="E26" s="18" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -3796,17 +3861,31 @@
         <v>47</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="D27" s="9">
         <v>5000</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -4417,10 +4496,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4431,10 +4510,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4446,7 +4525,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -4458,7 +4537,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -4470,7 +4549,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4482,7 +4561,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -4494,7 +4573,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -4506,7 +4585,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4518,7 +4597,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -4530,7 +4609,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -4542,7 +4621,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -4554,7 +4633,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -4566,7 +4645,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -4578,7 +4657,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4590,7 +4669,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -4602,7 +4681,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -4614,7 +4693,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -4626,7 +4705,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -4638,7 +4717,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -4650,7 +4729,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -4662,7 +4741,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -4674,7 +4753,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -4686,7 +4765,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -4698,7 +4777,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -4710,7 +4789,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -4722,7 +4801,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -4734,7 +4813,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -4746,7 +4825,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -4758,7 +4837,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -4770,7 +4849,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -4782,7 +4861,7 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -4794,7 +4873,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -4806,7 +4885,7 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -4818,7 +4897,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -4830,7 +4909,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -4842,7 +4921,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -4854,7 +4933,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B86A97-FCC3-4C8E-9135-8AE322D75A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B517E8AE-CCDF-4A08-AA4A-9A0DD264EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -525,545 +525,549 @@
     <t>Kids Meal</t>
   </si>
   <si>
+    <t>复活石</t>
+  </si>
+  <si>
+    <t>Revive Stone</t>
+  </si>
+  <si>
+    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
+  </si>
+  <si>
+    <t>Big Trash Bin</t>
+  </si>
+  <si>
+    <t>悬赏令</t>
+  </si>
+  <si>
+    <t>Wanted Poster</t>
+  </si>
+  <si>
+    <t>下次达成目标的金币奖励x3</t>
+  </si>
+  <si>
+    <t>Hand of Midas</t>
+  </si>
+  <si>
+    <t>Scoreboard</t>
+  </si>
+  <si>
+    <t>神之救济</t>
+  </si>
+  <si>
+    <t>God's Salvation</t>
+  </si>
+  <si>
+    <t>名称 CH</t>
+  </si>
+  <si>
+    <t>名称 EN</t>
+  </si>
+  <si>
+    <t>速度之星</t>
+  </si>
+  <si>
+    <t>Speed Star</t>
+  </si>
+  <si>
+    <t>方块下降速度增加10，额外倍率x2</t>
+  </si>
+  <si>
+    <t>Disjointed 1-9</t>
+  </si>
+  <si>
+    <t>Lacking a Suit</t>
+  </si>
+  <si>
+    <t>备用口袋</t>
+  </si>
+  <si>
+    <t>Spare Pocket</t>
+  </si>
+  <si>
+    <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
+  </si>
+  <si>
+    <t>延迟满足</t>
+  </si>
+  <si>
+    <t>Delay of Gratification</t>
+  </si>
+  <si>
+    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
+  </si>
+  <si>
+    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
+  </si>
+  <si>
+    <t>门外汉</t>
+  </si>
+  <si>
+    <t>Layman</t>
+  </si>
+  <si>
+    <t>胡牌时所有牌型都视为平胡，消行分数调整为：1~5行分别为10/30/60/100/200</t>
+  </si>
+  <si>
+    <t>狂牌士</t>
+  </si>
+  <si>
+    <t>Mad Player</t>
+  </si>
+  <si>
+    <t>不可使用道具，额外倍率x3</t>
+  </si>
+  <si>
+    <t>Blurred Vision</t>
+  </si>
+  <si>
+    <t>Hyper Hashrate</t>
+  </si>
+  <si>
+    <t>进击的巨人</t>
+  </si>
+  <si>
+    <t>Attack on Titan</t>
+  </si>
+  <si>
+    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
+  </si>
+  <si>
+    <t>Deep Dark Fantasy</t>
+  </si>
+  <si>
+    <t>时间就是金钱</t>
+  </si>
+  <si>
+    <t>Time is Money</t>
+  </si>
+  <si>
+    <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
+  </si>
+  <si>
+    <t>Typhoon</t>
+  </si>
+  <si>
+    <t>便宜仓库</t>
+  </si>
+  <si>
+    <t>Cheap Warehouse</t>
+  </si>
+  <si>
+    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
+  </si>
+  <si>
+    <t>Meteor Shower</t>
+  </si>
+  <si>
+    <t>临期食品</t>
+  </si>
+  <si>
+    <t>Advent Food</t>
+  </si>
+  <si>
+    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1</t>
+  </si>
+  <si>
+    <t>Trick Room</t>
+  </si>
+  <si>
+    <t>朝九晚五</t>
+  </si>
+  <si>
+    <t>Routine Work</t>
+  </si>
+  <si>
+    <t>每轮游戏开始时的剩余时间变为固定90秒</t>
+  </si>
+  <si>
+    <t>子弹时间</t>
+  </si>
+  <si>
+    <t>Bullet Time</t>
+  </si>
+  <si>
+    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
+  </si>
+  <si>
+    <t>沼泽地</t>
+  </si>
+  <si>
+    <t>Marsh Land</t>
+  </si>
+  <si>
+    <t>每经过10秒即会自动消除最底下一行方块，额外倍率x2</t>
+  </si>
+  <si>
+    <t>独木桥</t>
+  </si>
+  <si>
+    <t>Log Bridge</t>
+  </si>
+  <si>
+    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x2</t>
+  </si>
+  <si>
+    <t>超超超贵宾</t>
+  </si>
+  <si>
+    <t>SSSVIP</t>
+  </si>
+  <si>
+    <t>胡牌时每种奖励可以选择2个</t>
+  </si>
+  <si>
+    <t>Ultimate Impact</t>
+  </si>
+  <si>
+    <t>Pair Age</t>
+  </si>
+  <si>
+    <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
+  </si>
+  <si>
+    <t>成就标题</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>胡啦</t>
+  </si>
+  <si>
+    <t>完成一次胡牌</t>
+  </si>
+  <si>
+    <t>完成简单难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成标准难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成困难难度一局游戏</t>
+  </si>
+  <si>
+    <t>完成一次清一色牌型胡牌</t>
+  </si>
+  <si>
+    <t>完成一次对对胡牌型胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有1组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有2组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有3组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次带有4组杠牌的胡牌</t>
+  </si>
+  <si>
+    <t>完成一次清一色对对胡牌型</t>
+  </si>
+  <si>
+    <t>完成一次清一色对对胡外加4组杠牌牌型</t>
+  </si>
+  <si>
+    <t>完成一次清老头牌型</t>
+  </si>
+  <si>
+    <t>完成一次九莲宝灯牌型</t>
+  </si>
+  <si>
+    <t>完成一次地胡牌型</t>
+  </si>
+  <si>
+    <t>完成一次天胡牌型</t>
+  </si>
+  <si>
+    <t>在方块下落速度在15以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在方块下落速度在20以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在方块下落速度在25以上完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于50秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于100秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>在剩余时间大于200秒时完成一局游戏</t>
+  </si>
+  <si>
+    <t>解锁所有道具</t>
+  </si>
+  <si>
+    <t>解锁所有条约</t>
+  </si>
+  <si>
+    <t>完成一局游戏中同时拥有5个条约</t>
+  </si>
+  <si>
+    <t>完成一局游戏中累计使用20个道具</t>
+  </si>
+  <si>
+    <t>完成一局游戏中未使用任何道具</t>
+  </si>
+  <si>
+    <t>完成一局游戏中拥有20个以上的方块</t>
+  </si>
+  <si>
+    <t>完成2圈胡牌（8次）</t>
+  </si>
+  <si>
+    <t>完成3圈胡牌（12次）</t>
+  </si>
+  <si>
+    <t>完成4圈胡牌（16次）</t>
+  </si>
+  <si>
+    <t>游戏最高分达到8000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到32000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到128000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到512000分</t>
+  </si>
+  <si>
+    <t>游戏最高分达到1024000分</t>
+  </si>
+  <si>
+    <t>接下来10个方块的下降速度-15（最低为1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏方块下降速度-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙酒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elixir Wine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏基础分x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局游戏基础分+3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能饮料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏基础分+8，胡牌后移除效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻将博士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Mahjong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbulence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过6秒即增加或减少1~36基础分（最低为1），每轮游戏开始会先恢复原来的基础分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快进按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌轮数+2，方块下降速度+2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾筒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个形状会是7格长条方块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obelisk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方尖塔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用小样</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次胡牌额外获得2个Dot方块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大垃圾桶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞礼物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断幺九</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>混淆视听</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有Level_3方块时生效，Level_3方块出现的权重提高200%，额外倍率x3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超算力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深邃黑暗幻想</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风天气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星雨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无重力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块中的麻将块上的图片会随机旋转方向，额外倍率x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥义很爽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外倍率x16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏法空间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘上下、左右按键功能调换，额外倍率x3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Xmas Gift</t>
-  </si>
-  <si>
-    <t>复活石</t>
-  </si>
-  <si>
-    <t>Revive Stone</t>
-  </si>
-  <si>
-    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
-  </si>
-  <si>
-    <t>Big Trash Bin</t>
-  </si>
-  <si>
-    <t>悬赏令</t>
-  </si>
-  <si>
-    <t>Wanted Poster</t>
-  </si>
-  <si>
-    <t>下次达成目标的金币奖励x3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点金手</t>
-  </si>
-  <si>
-    <t>Hand of Midas</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计分板</t>
-  </si>
-  <si>
-    <t>Scoreboard</t>
-  </si>
-  <si>
-    <t>神之救济</t>
-  </si>
-  <si>
-    <t>God's Salvation</t>
-  </si>
-  <si>
-    <t>名称 CH</t>
-  </si>
-  <si>
-    <t>名称 EN</t>
-  </si>
-  <si>
-    <t>速度之星</t>
-  </si>
-  <si>
-    <t>Speed Star</t>
-  </si>
-  <si>
-    <t>方块下降速度增加10，额外倍率x2</t>
-  </si>
-  <si>
-    <t>Disjointed 1-9</t>
-  </si>
-  <si>
-    <t>Lacking a Suit</t>
-  </si>
-  <si>
-    <t>备用口袋</t>
-  </si>
-  <si>
-    <t>Spare Pocket</t>
-  </si>
-  <si>
-    <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
-  </si>
-  <si>
-    <t>延迟满足</t>
-  </si>
-  <si>
-    <t>Delay of Gratification</t>
-  </si>
-  <si>
-    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
-  </si>
-  <si>
-    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
-  </si>
-  <si>
-    <t>门外汉</t>
-  </si>
-  <si>
-    <t>Layman</t>
-  </si>
-  <si>
-    <t>胡牌时所有牌型都视为平胡，消行分数调整为：1~5行分别为10/30/60/100/200</t>
-  </si>
-  <si>
-    <t>狂牌士</t>
-  </si>
-  <si>
-    <t>Mad Player</t>
-  </si>
-  <si>
-    <t>不可使用道具，额外倍率x3</t>
-  </si>
-  <si>
-    <t>Blurred Vision</t>
-  </si>
-  <si>
-    <t>Hyper Hashrate</t>
-  </si>
-  <si>
-    <t>进击的巨人</t>
-  </si>
-  <si>
-    <t>Attack on Titan</t>
-  </si>
-  <si>
-    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
-  </si>
-  <si>
-    <t>Deep Dark Fantasy</t>
-  </si>
-  <si>
-    <t>时间就是金钱</t>
-  </si>
-  <si>
-    <t>Time is Money</t>
-  </si>
-  <si>
-    <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
-  </si>
-  <si>
-    <t>Typhoon</t>
-  </si>
-  <si>
-    <t>便宜仓库</t>
-  </si>
-  <si>
-    <t>Cheap Warehouse</t>
-  </si>
-  <si>
-    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
-  </si>
-  <si>
-    <t>Meteor Shower</t>
-  </si>
-  <si>
-    <t>临期食品</t>
-  </si>
-  <si>
-    <t>Advent Food</t>
-  </si>
-  <si>
-    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>No Gravity</t>
-  </si>
-  <si>
-    <t>Trick Room</t>
-  </si>
-  <si>
-    <t>朝九晚五</t>
-  </si>
-  <si>
-    <t>Routine Work</t>
-  </si>
-  <si>
-    <t>每轮游戏开始时的剩余时间变为固定90秒</t>
-  </si>
-  <si>
-    <t>子弹时间</t>
-  </si>
-  <si>
-    <t>Bullet Time</t>
-  </si>
-  <si>
-    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
-  </si>
-  <si>
-    <t>沼泽地</t>
-  </si>
-  <si>
-    <t>Marsh Land</t>
-  </si>
-  <si>
-    <t>每经过10秒即会自动消除最底下一行方块，额外倍率x2</t>
-  </si>
-  <si>
-    <t>独木桥</t>
-  </si>
-  <si>
-    <t>Log Bridge</t>
-  </si>
-  <si>
-    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x2</t>
-  </si>
-  <si>
-    <t>超超超贵宾</t>
-  </si>
-  <si>
-    <t>SSSVIP</t>
-  </si>
-  <si>
-    <t>胡牌时每种奖励可以选择2个</t>
-  </si>
-  <si>
-    <t>Ultimate Impact</t>
-  </si>
-  <si>
-    <t>Pair Age</t>
-  </si>
-  <si>
-    <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
-  </si>
-  <si>
-    <t>成就标题</t>
-  </si>
-  <si>
-    <t>成就</t>
-  </si>
-  <si>
-    <t>胡啦</t>
-  </si>
-  <si>
-    <t>完成一次胡牌</t>
-  </si>
-  <si>
-    <t>完成简单难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成标准难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成困难难度一局游戏</t>
-  </si>
-  <si>
-    <t>完成一次清一色牌型胡牌</t>
-  </si>
-  <si>
-    <t>完成一次对对胡牌型胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有1组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有2组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有3组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次带有4组杠牌的胡牌</t>
-  </si>
-  <si>
-    <t>完成一次清一色对对胡牌型</t>
-  </si>
-  <si>
-    <t>完成一次清一色对对胡外加4组杠牌牌型</t>
-  </si>
-  <si>
-    <t>完成一次清老头牌型</t>
-  </si>
-  <si>
-    <t>完成一次九莲宝灯牌型</t>
-  </si>
-  <si>
-    <t>完成一次地胡牌型</t>
-  </si>
-  <si>
-    <t>完成一次天胡牌型</t>
-  </si>
-  <si>
-    <t>在方块下落速度在15以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在方块下落速度在20以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在方块下落速度在25以上完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于50秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于100秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>在剩余时间大于200秒时完成一局游戏</t>
-  </si>
-  <si>
-    <t>解锁所有道具</t>
-  </si>
-  <si>
-    <t>解锁所有条约</t>
-  </si>
-  <si>
-    <t>完成一局游戏中同时拥有5个条约</t>
-  </si>
-  <si>
-    <t>完成一局游戏中累计使用20个道具</t>
-  </si>
-  <si>
-    <t>完成一局游戏中未使用任何道具</t>
-  </si>
-  <si>
-    <t>完成一局游戏中拥有20个以上的方块</t>
-  </si>
-  <si>
-    <t>完成2圈胡牌（8次）</t>
-  </si>
-  <si>
-    <t>完成3圈胡牌（12次）</t>
-  </si>
-  <si>
-    <t>完成4圈胡牌（16次）</t>
-  </si>
-  <si>
-    <t>游戏最高分达到8000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到32000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到128000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到512000分</t>
-  </si>
-  <si>
-    <t>游戏最高分达到1024000分</t>
-  </si>
-  <si>
-    <t>接下来10个方块的下降速度-15（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>气球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏方块下降速度-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙酒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elixir Wine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分+3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能饮料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏基础分+8，胡牌后移除效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻将博士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dr. Mahjong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不稳定气流</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turbulence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每经过6秒即增加或减少1~36基础分（最低为1），每轮游戏开始会先恢复原来的基础分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>快进按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡牌轮数+2，方块下降速度+2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾筒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个形状会是7格长条方块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obelisk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方尖塔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用小样</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次胡牌额外获得2个Dot方块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大垃圾桶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣诞礼物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断幺九</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>混淆视听</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有Level_3方块时生效，Level_3方块出现的权重提高200%，额外倍率x3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>超算力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>深邃黑暗幻想</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>台风天气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流星雨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无重力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块中的麻将块上的图片会随机旋转方向，额外倍率x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥义很爽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外倍率x16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>戏法空间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘上下、左右按键功能调换，额外倍率x3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定电流</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2687,7 +2691,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2733,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2741,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>116</v>
@@ -2750,7 +2754,7 @@
         <v>500</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2767,7 +2771,7 @@
         <v>500</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2775,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>119</v>
@@ -2784,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2801,7 +2805,7 @@
         <v>500</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2818,7 +2822,7 @@
         <v>500</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2962,7 +2966,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>148</v>
@@ -2971,7 +2975,7 @@
         <v>500</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2979,16 +2983,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -2996,7 +3000,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>149</v>
@@ -3005,7 +3009,7 @@
         <v>500</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -3013,7 +3017,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>150</v>
@@ -3022,7 +3026,7 @@
         <v>500</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -3030,16 +3034,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D20" s="15">
         <v>0</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
@@ -3107,7 +3111,7 @@
         <v>2000</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -3115,16 +3119,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>162</v>
+        <v>296</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -3132,16 +3136,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D26" s="3">
         <v>2000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -3149,16 +3153,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="3">
         <v>2000</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -3166,50 +3170,50 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D28" s="3">
         <v>3000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>170</v>
+      <c r="B29" s="25" t="s">
+        <v>321</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29" s="3">
         <v>3000</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>172</v>
+      <c r="B30" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D30" s="3">
         <v>3000</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -3217,16 +3221,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D31" s="3">
         <v>120000</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3398,7 +3402,7 @@
   <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3416,10 +3420,10 @@
         <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>112</v>
@@ -3433,16 +3437,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3450,16 +3454,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3467,16 +3471,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3484,16 +3488,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3501,16 +3505,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D6" s="3">
         <v>5000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3518,16 +3522,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D7" s="3">
         <v>5000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -3535,16 +3539,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D8" s="3">
         <v>5000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3552,16 +3556,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" s="3">
         <v>5000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -3569,16 +3573,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3">
         <v>5000</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -3586,16 +3590,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D11" s="3">
         <v>5000</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3603,16 +3607,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D12" s="3">
         <v>5000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3620,16 +3624,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" s="3">
         <v>5000</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3637,16 +3641,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D14" s="3">
         <v>5000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3654,16 +3658,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D15" s="3">
         <v>5000</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3671,16 +3675,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D16" s="3">
         <v>5000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -3688,16 +3692,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D17" s="3">
         <v>5000</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -3705,16 +3709,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D18" s="3">
         <v>5000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -3722,16 +3726,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>213</v>
+        <v>314</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>323</v>
       </c>
       <c r="D19" s="3">
         <v>5000</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -3739,16 +3743,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D20" s="3">
         <v>5000</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -3756,16 +3760,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D21" s="3">
         <v>5000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -3773,16 +3777,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D22" s="3">
         <v>5000</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -3790,16 +3794,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D23" s="3">
         <v>5000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -3807,16 +3811,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D24" s="3">
         <v>5000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -3824,16 +3828,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3">
         <v>160000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -3841,16 +3845,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D26" s="3">
         <v>200000</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -3861,13 +3865,13 @@
         <v>47</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D27" s="9">
         <v>5000</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -3875,16 +3879,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D28" s="3">
         <v>5000</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -4496,10 +4500,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4510,10 +4514,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4525,7 +4529,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -4537,7 +4541,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -4549,7 +4553,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4561,7 +4565,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -4573,7 +4577,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -4585,7 +4589,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4597,7 +4601,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -4609,7 +4613,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -4621,7 +4625,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -4633,7 +4637,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -4645,7 +4649,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -4657,7 +4661,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4669,7 +4673,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -4681,7 +4685,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -4693,7 +4697,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -4705,7 +4709,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -4717,7 +4721,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -4729,7 +4733,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -4741,7 +4745,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -4753,7 +4757,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -4765,7 +4769,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -4777,7 +4781,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -4789,7 +4793,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -4801,7 +4805,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -4813,7 +4817,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -4825,7 +4829,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -4837,7 +4841,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -4849,7 +4853,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -4861,7 +4865,7 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -4873,7 +4877,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -4885,7 +4889,7 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -4897,7 +4901,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -4909,7 +4913,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -4921,7 +4925,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -4933,7 +4937,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B517E8AE-CCDF-4A08-AA4A-9A0DD264EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAACFA-08CD-4F61-A27B-61E32AFF8ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19395" yWindow="2580" windowWidth="17355" windowHeight="17250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="328">
   <si>
     <t>规范术语</t>
   </si>
@@ -1068,6 +1068,18 @@
   </si>
   <si>
     <t>不稳定电流</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去月球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>To the Moon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次胡牌的时间奖励加20秒</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1130,18 +1142,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1182,7 +1188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,22 +1204,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1240,13 +1243,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1258,13 +1261,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1556,7 +1565,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1789,7 +1798,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3">
@@ -1801,7 +1810,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="3">
@@ -1813,7 +1822,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3">
@@ -1825,7 +1834,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3">
@@ -1844,7 +1853,7 @@
       <c r="L23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="16">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
@@ -1859,7 +1868,7 @@
       <c r="L24" s="1">
         <v>10</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1874,7 +1883,7 @@
       <c r="L25" s="1">
         <v>15</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="16">
         <f t="shared" si="1"/>
         <v>1.3333333333333299</v>
       </c>
@@ -1904,7 +1913,7 @@
       <c r="L26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1935,7 +1944,7 @@
       <c r="L27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="16">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -1966,7 +1975,7 @@
       <c r="L28" s="1">
         <v>30</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="16">
         <f t="shared" si="1"/>
         <v>0.66666666666666696</v>
       </c>
@@ -1997,7 +2006,7 @@
       <c r="L29" s="1">
         <v>35</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="16">
         <f t="shared" si="1"/>
         <v>0.57142857142857095</v>
       </c>
@@ -2013,7 +2022,7 @@
       <c r="L30" s="1">
         <v>40</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="16">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2690,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2727,7 +2736,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2736,7 +2745,7 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2744,7 +2753,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>277</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2753,7 +2762,7 @@
       <c r="D3" s="3">
         <v>500</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2761,7 +2770,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2770,7 +2779,7 @@
       <c r="D4" s="3">
         <v>500</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2778,7 +2787,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>269</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2787,7 +2796,7 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2795,7 +2804,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2804,7 +2813,7 @@
       <c r="D6" s="3">
         <v>500</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2812,7 +2821,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2821,7 +2830,7 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2829,7 +2838,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2846,7 +2855,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2863,7 +2872,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2880,7 +2889,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2897,7 +2906,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2914,7 +2923,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2931,7 +2940,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2965,7 +2974,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>287</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2974,7 +2983,7 @@
       <c r="D16" s="3">
         <v>500</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>288</v>
       </c>
     </row>
@@ -2982,16 +2991,16 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>290</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2999,7 +3008,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="19" t="s">
         <v>292</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3008,7 +3017,7 @@
       <c r="D18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3016,7 +3025,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>285</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3025,24 +3034,24 @@
       <c r="D19" s="3">
         <v>500</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>0</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3050,7 +3059,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3059,7 +3068,7 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3067,7 +3076,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3084,7 +3093,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>157</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3110,7 +3119,7 @@
       <c r="D24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3118,16 +3127,16 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>320</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3152,7 +3161,7 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>294</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3161,7 +3170,7 @@
       <c r="D27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3186,7 +3195,7 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>321</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3195,7 +3204,7 @@
       <c r="D29" s="3">
         <v>3000</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3203,7 +3212,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>322</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3212,7 +3221,7 @@
       <c r="D30" s="3">
         <v>3000</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3220,7 +3229,7 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3229,7 +3238,7 @@
       <c r="D31" s="3">
         <v>120000</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3401,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3436,7 +3445,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3453,7 +3462,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3462,7 +3471,7 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3470,7 +3479,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>302</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3479,7 +3488,7 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3487,7 +3496,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="28" t="s">
         <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3521,10 +3530,10 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>281</v>
       </c>
       <c r="D7" s="3">
@@ -3555,7 +3564,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="28" t="s">
         <v>190</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3581,7 +3590,7 @@
       <c r="D10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3598,7 +3607,7 @@
       <c r="D11" s="3">
         <v>5000</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3632,7 +3641,7 @@
       <c r="D13" s="3">
         <v>5000</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3666,7 +3675,7 @@
       <c r="D15" s="3">
         <v>5000</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3691,7 +3700,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>312</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3700,7 +3709,7 @@
       <c r="D17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3728,13 +3737,13 @@
       <c r="B19" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>323</v>
       </c>
       <c r="D19" s="3">
         <v>5000</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3751,7 +3760,7 @@
       <c r="D20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3762,7 +3771,7 @@
       <c r="B21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>212</v>
       </c>
       <c r="D21" s="3">
@@ -3779,7 +3788,7 @@
       <c r="B22" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>215</v>
       </c>
       <c r="D22" s="3">
@@ -3796,7 +3805,7 @@
       <c r="B23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>218</v>
       </c>
       <c r="D23" s="3">
@@ -3813,7 +3822,7 @@
       <c r="B24" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>221</v>
       </c>
       <c r="D24" s="3">
@@ -3830,7 +3839,7 @@
       <c r="B25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>224</v>
       </c>
       <c r="D25" s="3">
@@ -3853,24 +3862,24 @@
       <c r="D26" s="3">
         <v>200000</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>5000</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3878,21 +3887,35 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>283</v>
       </c>
       <c r="D28" s="3">
         <v>5000</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -3901,572 +3924,572 @@
       <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAACFA-08CD-4F61-A27B-61E32AFF8ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19395" yWindow="2580" windowWidth="17355" windowHeight="17250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="343">
   <si>
     <t>规范术语</t>
   </si>
@@ -387,30 +381,54 @@
     <t>Juice</t>
   </si>
   <si>
+    <t>本局游戏基础分+3</t>
+  </si>
+  <si>
+    <t>功能饮料</t>
+  </si>
+  <si>
     <t>Energy Drink</t>
   </si>
   <si>
+    <t>本轮游戏基础分+8，胡牌后移除效果</t>
+  </si>
+  <si>
     <t>类固醇</t>
   </si>
   <si>
     <t>Steroid</t>
   </si>
   <si>
+    <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
+  </si>
+  <si>
+    <t>气球</t>
+  </si>
+  <si>
     <t>Balloon</t>
   </si>
   <si>
+    <t>本局游戏方块下降速度-3</t>
+  </si>
+  <si>
     <t>降落伞</t>
   </si>
   <si>
     <t>Parachute</t>
   </si>
   <si>
+    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
+  </si>
+  <si>
     <t>喷气背包</t>
   </si>
   <si>
     <t>Jet Pack</t>
   </si>
   <si>
+    <t>接下来10个方块的下降速度-15（最低为1）</t>
+  </si>
+  <si>
     <t>炸弹</t>
   </si>
   <si>
@@ -483,15 +501,51 @@
     <t>当有胡牌区有刻子时，且场上有这个刻子对应的牌，将该牌加入刻子形成杠牌（满足多个刻子牌时随机一个加入）</t>
   </si>
   <si>
+    <t>垃圾筒</t>
+  </si>
+  <si>
     <t>Trash Bin</t>
   </si>
   <si>
+    <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
+  </si>
+  <si>
+    <t>方尖塔</t>
+  </si>
+  <si>
+    <t>Obelisk</t>
+  </si>
+  <si>
+    <t>下一个形状会是7格长条方块</t>
+  </si>
+  <si>
+    <t>试用小样</t>
+  </si>
+  <si>
     <t>Sample</t>
   </si>
   <si>
+    <t>下次胡牌额外获得2个Dot方块</t>
+  </si>
+  <si>
+    <t>快进按钮</t>
+  </si>
+  <si>
     <t>Skip Button</t>
   </si>
   <si>
+    <t>胡牌轮数+2，方块下降速度+2</t>
+  </si>
+  <si>
+    <t>仙酒</t>
+  </si>
+  <si>
+    <t>Elixir Wine</t>
+  </si>
+  <si>
+    <t>本局游戏基础分x2</t>
+  </si>
+  <si>
     <t>优惠券</t>
   </si>
   <si>
@@ -525,6 +579,18 @@
     <t>Kids Meal</t>
   </si>
   <si>
+    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
+  </si>
+  <si>
+    <t>圣诞礼物</t>
+  </si>
+  <si>
+    <t>Xmas Gift</t>
+  </si>
+  <si>
+    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
+  </si>
+  <si>
     <t>复活石</t>
   </si>
   <si>
@@ -534,9 +600,15 @@
     <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
   </si>
   <si>
+    <t>大垃圾桶</t>
+  </si>
+  <si>
     <t>Big Trash Bin</t>
   </si>
   <si>
+    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
+  </si>
+  <si>
     <t>悬赏令</t>
   </si>
   <si>
@@ -546,18 +618,33 @@
     <t>下次达成目标的金币奖励x3</t>
   </si>
   <si>
+    <t>点金手</t>
+  </si>
+  <si>
     <t>Hand of Midas</t>
   </si>
   <si>
+    <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
+  </si>
+  <si>
+    <t>计分板</t>
+  </si>
+  <si>
     <t>Scoreboard</t>
   </si>
   <si>
+    <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
+  </si>
+  <si>
     <t>神之救济</t>
   </si>
   <si>
     <t>God's Salvation</t>
   </si>
   <si>
+    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
+  </si>
+  <si>
     <t>名称 CH</t>
   </si>
   <si>
@@ -573,12 +660,27 @@
     <t>方块下降速度增加10，额外倍率x2</t>
   </si>
   <si>
+    <t>每次胡牌方块下降速度额外+1，额外倍率x2</t>
+  </si>
+  <si>
+    <t>断幺九</t>
+  </si>
+  <si>
     <t>Disjointed 1-9</t>
   </si>
   <si>
+    <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
+  </si>
+  <si>
+    <t>缺一门</t>
+  </si>
+  <si>
     <t>Lacking a Suit</t>
   </si>
   <si>
+    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
+  </si>
+  <si>
     <t>备用口袋</t>
   </si>
   <si>
@@ -597,6 +699,12 @@
     <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
   </si>
   <si>
+    <t>麻将博士</t>
+  </si>
+  <si>
+    <t>Dr. Mahjong</t>
+  </si>
+  <si>
     <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
   </si>
   <si>
@@ -618,12 +726,24 @@
     <t>不可使用道具，额外倍率x3</t>
   </si>
   <si>
+    <t>混淆视听</t>
+  </si>
+  <si>
     <t>Blurred Vision</t>
   </si>
   <si>
+    <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
+  </si>
+  <si>
+    <t>超算力</t>
+  </si>
+  <si>
     <t>Hyper Hashrate</t>
   </si>
   <si>
+    <t>当有Level_3方块时生效，Level_3方块出现的权重提高200%，额外倍率x3</t>
+  </si>
+  <si>
     <t>进击的巨人</t>
   </si>
   <si>
@@ -633,9 +753,18 @@
     <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
   </si>
   <si>
+    <t>深邃黑暗幻想</t>
+  </si>
+  <si>
     <t>Deep Dark Fantasy</t>
   </si>
   <si>
+    <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
+  </si>
+  <si>
+    <t>方块落地后会在10秒内逐渐变暗直到看不见牌面，额外倍率x4</t>
+  </si>
+  <si>
     <t>时间就是金钱</t>
   </si>
   <si>
@@ -645,9 +774,18 @@
     <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
   </si>
   <si>
+    <t>台风天气</t>
+  </si>
+  <si>
     <t>Typhoon</t>
   </si>
   <si>
+    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
+  </si>
+  <si>
+    <t>一格一格移动</t>
+  </si>
+  <si>
     <t>便宜仓库</t>
   </si>
   <si>
@@ -657,28 +795,49 @@
     <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
   </si>
   <si>
+    <t>流星雨</t>
+  </si>
+  <si>
     <t>Meteor Shower</t>
   </si>
   <si>
+    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
+  </si>
+  <si>
     <t>临期食品</t>
   </si>
   <si>
     <t>Advent Food</t>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1</t>
+    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1，下回合恢复原来的基础分</t>
+  </si>
+  <si>
+    <t>无重力</t>
+  </si>
+  <si>
+    <t>No Gravity</t>
+  </si>
+  <si>
+    <t>方块中的麻将随机旋转方向，额外倍率x2</t>
+  </si>
+  <si>
+    <t>戏法空间</t>
   </si>
   <si>
     <t>Trick Room</t>
   </si>
   <si>
+    <t>键盘上下、左右按键功能调换，额外倍率x3</t>
+  </si>
+  <si>
     <t>朝九晚五</t>
   </si>
   <si>
     <t>Routine Work</t>
   </si>
   <si>
-    <t>每轮游戏开始时的剩余时间变为固定90秒</t>
+    <t>每轮游戏开始时的剩余时间变为固定95秒</t>
   </si>
   <si>
     <t>子弹时间</t>
@@ -696,7 +855,7 @@
     <t>Marsh Land</t>
   </si>
   <si>
-    <t>每经过10秒即会自动消除最底下一行方块，额外倍率x2</t>
+    <t>每经过10秒即会自动强行消除最底下一行方块，额外倍率x2</t>
   </si>
   <si>
     <t>独木桥</t>
@@ -705,7 +864,7 @@
     <t>Log Bridge</t>
   </si>
   <si>
-    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x2</t>
+    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x3</t>
   </si>
   <si>
     <t>超超超贵宾</t>
@@ -717,15 +876,75 @@
     <t>胡牌时每种奖励可以选择2个</t>
   </si>
   <si>
+    <t>奥义很爽</t>
+  </si>
+  <si>
     <t>Ultimate Impact</t>
   </si>
   <si>
+    <t>额外倍率x16</t>
+  </si>
+  <si>
     <t>Pair Age</t>
   </si>
   <si>
     <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
   </si>
   <si>
+    <t>不稳定电流</t>
+  </si>
+  <si>
+    <t>Unstable Current</t>
+  </si>
+  <si>
+    <t>每经过6秒即增加或减少1~36基础分（最低为1），每轮游戏开始会先恢复原来的基础分</t>
+  </si>
+  <si>
+    <t>新能源</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>每次胡牌的时间奖励加20秒</t>
+  </si>
+  <si>
+    <t>人人平等</t>
+  </si>
+  <si>
+    <t>All men are equal</t>
+  </si>
+  <si>
+    <t>所有形状的方块所提供的方块倍率变为3</t>
+  </si>
+  <si>
+    <t>大革命</t>
+  </si>
+  <si>
+    <t>Great Revolution</t>
+  </si>
+  <si>
+    <t>每次胡牌后都会随机相同数量的方块，额外倍率x5</t>
+  </si>
+  <si>
+    <t>三位一体</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>每次“碰”都会增加本局游戏基础分+5，方块倍率-15（最低为1）</t>
+  </si>
+  <si>
+    <t>社交网络</t>
+  </si>
+  <si>
+    <t>Social Network</t>
+  </si>
+  <si>
+    <t>每次消除多行时会视为一行来进行麻将牌型判断</t>
+  </si>
+  <si>
     <t>成就标题</t>
   </si>
   <si>
@@ -841,259 +1060,23 @@
   </si>
   <si>
     <t>游戏最高分达到1024000分</t>
-  </si>
-  <si>
-    <t>接下来10个方块的下降速度-15（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>气球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏方块下降速度-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙酒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elixir Wine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局游戏基础分+3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能饮料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏基础分+8，胡牌后移除效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻将博士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dr. Mahjong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turbulence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每经过6秒即增加或减少1~36基础分（最低为1），每轮游戏开始会先恢复原来的基础分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>快进按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡牌轮数+2，方块下降速度+2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾筒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个形状会是7格长条方块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obelisk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方尖塔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用小样</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次胡牌额外获得2个Dot方块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大垃圾桶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣诞礼物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断幺九</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>混淆视听</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有Level_3方块时生效，Level_3方块出现的权重提高200%，额外倍率x3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>超算力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>深邃黑暗幻想</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>台风天气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流星雨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无重力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块中的麻将块上的图片会随机旋转方向，额外倍率x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥义很爽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外倍率x16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>戏法空间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘上下、左右按键功能调换，额外倍率x3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xmas Gift</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点金手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>计分板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Gravity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不稳定电流</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>去月球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>To the Moon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次胡牌的时间奖励加20秒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00000_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,28 +1104,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1151,7 +1257,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,18 +1287,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1182,13 +1480,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1204,90 +1744,131 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1537,19 +2118,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -1564,12 +2145,12 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +2158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +2174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1601,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +2212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1642,7 +2223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +2237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1671,11 +2252,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="26">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -1689,11 +2270,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="26">
         <v>4</v>
       </c>
       <c r="C14" s="3">
@@ -1707,7 +2288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1725,7 +2306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1743,7 +2324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1761,7 +2342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1779,7 +2360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1797,8 +2378,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3">
@@ -1809,8 +2390,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="3">
@@ -1821,8 +2402,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3">
@@ -1833,8 +2414,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3">
@@ -1853,12 +2434,12 @@
       <c r="L23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="27">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="J24" s="1">
         <v>1</v>
       </c>
@@ -1868,12 +2449,12 @@
       <c r="L24" s="1">
         <v>10</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="J25" s="1">
         <v>1</v>
       </c>
@@ -1883,12 +2464,12 @@
       <c r="L25" s="1">
         <v>15</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="27">
         <f t="shared" si="1"/>
-        <v>1.3333333333333299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1913,12 +2494,12 @@
       <c r="L26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -1944,12 +2525,12 @@
       <c r="L27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="27">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>20</v>
       </c>
@@ -1975,12 +2556,12 @@
       <c r="L28" s="1">
         <v>30</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N28" s="27">
         <f t="shared" si="1"/>
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>80</v>
       </c>
@@ -2006,12 +2587,12 @@
       <c r="L29" s="1">
         <v>35</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="27">
         <f t="shared" si="1"/>
-        <v>0.57142857142857095</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="E30" s="3"/>
       <c r="J30" s="1">
         <v>1</v>
@@ -2022,12 +2603,12 @@
       <c r="L30" s="1">
         <v>40</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -2044,7 +2625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="3">
         <v>100</v>
       </c>
@@ -2062,7 +2643,7 @@
         <v>110592000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -2082,7 +2663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -2102,7 +2683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -2122,7 +2703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -2142,7 +2723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2150,7 +2731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
         <v>50</v>
       </c>
@@ -2158,7 +2739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
         <v>150</v>
       </c>
@@ -2166,7 +2747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
         <v>500</v>
       </c>
@@ -2174,7 +2755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
         <v>900</v>
       </c>
@@ -2182,7 +2763,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
         <v>1500</v>
       </c>
@@ -2190,7 +2771,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
         <v>3000</v>
       </c>
@@ -2198,7 +2779,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
         <v>5000</v>
       </c>
@@ -2206,7 +2787,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
         <v>8000</v>
       </c>
@@ -2215,27 +2796,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -2252,7 +2834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2266,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2280,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2294,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2308,7 +2890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2322,7 +2904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2336,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2350,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2364,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2378,7 +2960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2392,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2406,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2420,7 +3002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2434,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2448,7 +3030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2462,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2476,7 +3058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2490,7 +3072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2504,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2518,7 +3100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2532,7 +3114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2546,7 +3128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2560,7 +3142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2574,7 +3156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2588,7 +3170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2602,7 +3184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2616,7 +3198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2630,7 +3212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2644,7 +3226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2658,7 +3240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2672,7 +3254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2690,20 +3272,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2715,7 +3298,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -2732,11 +3315,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2745,676 +3328,677 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>277</v>
+      <c r="B3" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3">
         <v>500</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>117</v>
+      <c r="B4" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3">
         <v>500</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>269</v>
+      <c r="B5" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>120</v>
+      <c r="B6" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3">
         <v>500</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E6" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>122</v>
+      <c r="B7" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>124</v>
+      <c r="B8" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>127</v>
+      <c r="B9" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D9" s="3">
         <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>130</v>
+      <c r="B10" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>133</v>
+      <c r="B11" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D11" s="3">
         <v>500</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>136</v>
+      <c r="B12" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>139</v>
+      <c r="B13" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>142</v>
+      <c r="B14" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D15" s="3">
         <v>500</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>287</v>
+      <c r="B16" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D16" s="3">
         <v>500</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>290</v>
+      <c r="B17" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E17" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>292</v>
+      <c r="B18" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>285</v>
+      <c r="B19" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D19" s="3">
         <v>500</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="E19" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" s="20" customFormat="1" ht="15.75" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="B20" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="24">
         <v>0</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="E20" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>151</v>
+      <c r="B21" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E21" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>154</v>
+      <c r="B22" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>157</v>
+      <c r="B23" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D23" s="3">
         <v>2000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E24" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>320</v>
+      <c r="B25" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E25" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D26" s="3">
         <v>2000</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>294</v>
+      <c r="B27" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D28" s="3">
         <v>3000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>321</v>
+      <c r="B29" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="D29" s="3">
         <v>3000</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E29" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>322</v>
+      <c r="B30" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="D30" s="3">
         <v>3000</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E30" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>171</v>
+      <c r="B31" s="21" t="s">
+        <v>201</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="D31" s="3">
         <v>120000</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1"/>
+    <row r="66" s="1" customFormat="1"/>
+    <row r="67" s="1" customFormat="1"/>
+    <row r="68" s="1" customFormat="1"/>
+    <row r="69" s="1" customFormat="1"/>
+    <row r="70" s="1" customFormat="1"/>
+    <row r="71" s="1" customFormat="1"/>
+    <row r="72" s="1" customFormat="1"/>
+    <row r="73" s="1" customFormat="1"/>
+    <row r="74" s="1" customFormat="1"/>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" s="1" customFormat="1"/>
+    <row r="77" s="1" customFormat="1"/>
+    <row r="78" s="1" customFormat="1"/>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" s="1" customFormat="1"/>
+    <row r="84" s="1" customFormat="1"/>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" s="1" customFormat="1"/>
+    <row r="87" s="1" customFormat="1"/>
+    <row r="89" s="1" customFormat="1"/>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
@@ -3424,15 +4008,15 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>112</v>
@@ -3441,1072 +4025,1137 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>175</v>
+      <c r="B2" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>300</v>
+      <c r="B3" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>302</v>
+      <c r="B4" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>180</v>
+      <c r="B5" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3">
         <v>5000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>281</v>
+      <c r="B7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D7" s="3">
         <v>5000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="D8" s="3">
         <v>5000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>190</v>
+      <c r="B9" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="D9" s="3">
         <v>5000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>304</v>
+      <c r="B10" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="D10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>307</v>
+      <c r="B11" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="D11" s="3">
         <v>5000</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E11" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="D12" s="3">
         <v>5000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>308</v>
+      <c r="B13" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="D13" s="3">
         <v>5000</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E13" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="D14" s="3">
         <v>5000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>310</v>
+      <c r="B15" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="D15" s="3">
         <v>5000</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="D16" s="3">
         <v>5000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>312</v>
+      <c r="B17" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="D17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="D18" s="3">
         <v>5000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>323</v>
+      <c r="B19" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D19" s="3">
         <v>5000</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>318</v>
+      <c r="B20" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="D20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E20" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>212</v>
+        <v>266</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="D21" s="3">
         <v>5000</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>215</v>
+        <v>269</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="D22" s="3">
         <v>5000</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="D23" s="3">
         <v>5000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>221</v>
+        <v>275</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="D24" s="3">
         <v>5000</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>224</v>
+        <v>278</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="D25" s="3">
         <v>160000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>316</v>
+      <c r="B26" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="D26" s="3">
         <v>200000</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="E26" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="12">
         <v>5000</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E27" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>283</v>
+      <c r="B28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D28" s="3">
         <v>5000</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E28" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>326</v>
+      <c r="B29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="D29" s="3">
         <v>5000</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
+      <c r="E29" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="15">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="15">
+        <v>5000</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" s="15">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33" s="15">
+        <v>120000</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+    </row>
+    <row r="128" spans="3:4">
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+    </row>
+    <row r="139" spans="3:4">
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+    </row>
+    <row r="148" spans="3:4">
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+    </row>
+    <row r="149" spans="3:4">
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+    </row>
+    <row r="151" spans="3:4">
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+    </row>
+    <row r="153" spans="3:4">
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+    </row>
+    <row r="154" spans="3:4">
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+    </row>
+    <row r="158" spans="3:4">
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+    </row>
+    <row r="159" spans="3:4">
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+    </row>
+    <row r="161" spans="3:4">
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+    </row>
+    <row r="162" spans="3:4">
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+    </row>
+    <row r="163" spans="3:4">
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+    </row>
+    <row r="164" spans="3:4">
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+    </row>
+    <row r="166" spans="3:4">
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+    </row>
+    <row r="168" spans="3:4">
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+    </row>
+    <row r="169" spans="3:4">
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+    </row>
+    <row r="170" spans="3:4">
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+    </row>
+    <row r="171" spans="3:4">
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+    </row>
+    <row r="172" spans="3:4">
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+    </row>
+    <row r="173" spans="3:4">
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
@@ -4515,7 +5164,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -4523,13 +5172,13 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4537,13 +5186,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4552,10 +5201,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4564,10 +5213,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4576,10 +5225,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4588,10 +5237,10 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4600,10 +5249,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4612,10 +5261,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4624,10 +5273,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4636,10 +5285,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4648,10 +5297,10 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4660,10 +5309,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4672,10 +5321,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4684,10 +5333,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4696,10 +5345,10 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4708,10 +5357,10 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4720,10 +5369,10 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4732,10 +5381,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4744,10 +5393,10 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4756,10 +5405,10 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4768,10 +5417,10 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4780,10 +5429,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4792,10 +5441,10 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4804,10 +5453,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4816,10 +5465,10 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4828,10 +5477,10 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4840,10 +5489,10 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4852,10 +5501,10 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4864,10 +5513,10 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4876,10 +5525,10 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4888,10 +5537,10 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4900,10 +5549,10 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4912,10 +5561,10 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4924,10 +5573,10 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4936,10 +5585,10 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4948,10 +5597,10 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4960,11 +5609,11 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AAB774-A858-4843-936A-DC398AF2BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="346">
   <si>
     <t>规范术语</t>
   </si>
@@ -1060,23 +1066,31 @@
   </si>
   <si>
     <t>游戏最高分达到1024000分</t>
+  </si>
+  <si>
+    <t>强者世界</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong World</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次胡牌后随机加入一个Level 3方块，方块倍率x5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00000_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,151 +1118,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,7 +1165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,194 +1175,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1480,255 +1184,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1756,13 +1218,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1774,19 +1233,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1810,65 +1263,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2118,19 +1533,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -2145,12 +1560,12 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2158,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2166,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +1589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2182,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2190,7 +1605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2201,7 +1616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2212,7 +1627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2223,7 +1638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2237,7 +1652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2252,11 +1667,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="23">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -2270,11 +1685,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="23">
         <v>4</v>
       </c>
       <c r="C14" s="3">
@@ -2288,7 +1703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2306,7 +1721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2324,7 +1739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2342,7 +1757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2360,7 +1775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2378,8 +1793,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3">
@@ -2390,8 +1805,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="3">
@@ -2402,8 +1817,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3">
@@ -2414,8 +1829,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3">
@@ -2434,12 +1849,12 @@
       <c r="L23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="24">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J24" s="1">
         <v>1</v>
       </c>
@@ -2449,12 +1864,12 @@
       <c r="L24" s="1">
         <v>10</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J25" s="1">
         <v>1</v>
       </c>
@@ -2464,12 +1879,12 @@
       <c r="L25" s="1">
         <v>15</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>1.33333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1.3333333333333299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2494,12 +1909,12 @@
       <c r="L26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -2525,12 +1940,12 @@
       <c r="L27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="24">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>20</v>
       </c>
@@ -2556,12 +1971,12 @@
       <c r="L28" s="1">
         <v>30</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="24">
         <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>80</v>
       </c>
@@ -2587,12 +2002,12 @@
       <c r="L29" s="1">
         <v>35</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="24">
         <f t="shared" si="1"/>
-        <v>0.571428571428571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E30" s="3"/>
       <c r="J30" s="1">
         <v>1</v>
@@ -2603,12 +2018,12 @@
       <c r="L30" s="1">
         <v>40</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="24">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -2625,7 +2040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>100</v>
       </c>
@@ -2643,7 +2058,7 @@
         <v>110592000</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -2663,7 +2078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -2683,7 +2098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -2703,7 +2118,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -2723,7 +2138,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2731,7 +2146,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>50</v>
       </c>
@@ -2739,7 +2154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>150</v>
       </c>
@@ -2747,7 +2162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>500</v>
       </c>
@@ -2755,7 +2170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>900</v>
       </c>
@@ -2763,7 +2178,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>1500</v>
       </c>
@@ -2771,7 +2186,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>3000</v>
       </c>
@@ -2779,7 +2194,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>5000</v>
       </c>
@@ -2787,7 +2202,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>8000</v>
       </c>
@@ -2796,28 +2211,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -2834,7 +2248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2848,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2862,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2876,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2890,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2904,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2918,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2932,7 +2346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2946,7 +2360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2960,7 +2374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2974,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2988,7 +2402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3002,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3016,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3030,7 +2444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3044,7 +2458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3058,7 +2472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3072,7 +2486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3086,7 +2500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3100,7 +2514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3114,7 +2528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3128,7 +2542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3142,7 +2556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3156,7 +2570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3170,7 +2584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3184,7 +2598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3198,7 +2612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3212,7 +2626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3226,7 +2640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3240,7 +2654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3254,7 +2668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3272,21 +2686,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -3298,7 +2711,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -3315,11 +2728,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3332,11 +2745,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3349,11 +2762,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3366,11 +2779,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3383,11 +2796,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3400,11 +2813,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3417,11 +2830,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3434,11 +2847,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3451,11 +2864,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3468,11 +2881,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3485,11 +2898,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3502,11 +2915,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3519,11 +2932,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3536,7 +2949,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3553,11 +2966,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3570,11 +2983,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3587,11 +3000,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>162</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3604,11 +3017,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3621,28 +3034,28 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="1" ht="15.75" spans="1:5">
+    <row r="20" spans="1:5" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>0</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:5">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3651,15 +3064,15 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>174</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3672,11 +3085,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3689,7 +3102,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3706,11 +3119,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -3723,7 +3136,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3740,11 +3153,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>189</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3757,7 +3170,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3774,11 +3187,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="19" t="s">
         <v>195</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3791,11 +3204,11 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="19" t="s">
         <v>198</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3808,11 +3221,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3825,180 +3238,179 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" spans="1:5">
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="1" customFormat="1"/>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1"/>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="1" customFormat="1"/>
-    <row r="80" s="1" customFormat="1"/>
-    <row r="81" s="1" customFormat="1"/>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1"/>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" s="1" customFormat="1"/>
-    <row r="86" s="1" customFormat="1"/>
-    <row r="87" s="1" customFormat="1"/>
-    <row r="89" s="1" customFormat="1"/>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
-    <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="1" customFormat="1"/>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="1" customFormat="1"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
@@ -4008,7 +3420,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -4025,7 +3437,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4045,7 +3457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4062,7 +3474,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4079,7 +3491,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4092,12 +3504,11 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4114,7 +3525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4131,7 +3542,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4148,7 +3559,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4165,7 +3576,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4182,7 +3593,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4199,7 +3610,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4216,7 +3627,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4229,14 +3640,14 @@
       <c r="D13" s="3">
         <v>5000</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>242</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4253,7 +3664,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4269,11 +3680,11 @@
       <c r="E15" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4290,7 +3701,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4307,7 +3718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4324,7 +3735,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4341,7 +3752,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4358,14 +3769,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D21" s="3">
@@ -4375,14 +3786,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>270</v>
       </c>
       <c r="D22" s="3">
@@ -4392,14 +3803,14 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>273</v>
       </c>
       <c r="D23" s="3">
@@ -4409,14 +3820,14 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>276</v>
       </c>
       <c r="D24" s="3">
@@ -4426,14 +3837,14 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>279</v>
       </c>
       <c r="D25" s="3">
@@ -4443,7 +3854,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4460,24 +3871,24 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>5000</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4494,7 +3905,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4511,651 +3922,663 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="3">
         <v>5000</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="3">
         <v>5000</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="3">
         <v>5000</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="3">
         <v>120000</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-    </row>
-    <row r="75" spans="3:4">
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="3:4">
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-    </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-    </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="3:4">
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-    </row>
-    <row r="95" spans="3:4">
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-    </row>
-    <row r="96" spans="3:4">
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-    </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-    </row>
-    <row r="99" spans="3:4">
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-    </row>
-    <row r="103" spans="3:4">
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-    </row>
-    <row r="105" spans="3:4">
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-    </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-    </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-    </row>
-    <row r="117" spans="3:4">
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-    </row>
-    <row r="118" spans="3:4">
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-    </row>
-    <row r="119" spans="3:4">
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-    </row>
-    <row r="120" spans="3:4">
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-    </row>
-    <row r="121" spans="3:4">
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-    </row>
-    <row r="122" spans="3:4">
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-    </row>
-    <row r="123" spans="3:4">
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-    </row>
-    <row r="124" spans="3:4">
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-    </row>
-    <row r="125" spans="3:4">
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-    </row>
-    <row r="126" spans="3:4">
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-    </row>
-    <row r="127" spans="3:4">
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-    </row>
-    <row r="128" spans="3:4">
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-    </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-    </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-    </row>
-    <row r="131" spans="3:4">
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-    </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-    </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-    </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-    </row>
-    <row r="135" spans="3:4">
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-    </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-    </row>
-    <row r="137" spans="3:4">
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-    </row>
-    <row r="138" spans="3:4">
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-    </row>
-    <row r="139" spans="3:4">
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-    </row>
-    <row r="140" spans="3:4">
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-    </row>
-    <row r="141" spans="3:4">
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-    </row>
-    <row r="142" spans="3:4">
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-    </row>
-    <row r="143" spans="3:4">
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-    </row>
-    <row r="144" spans="3:4">
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-    </row>
-    <row r="145" spans="3:4">
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-    </row>
-    <row r="146" spans="3:4">
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-    </row>
-    <row r="147" spans="3:4">
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-    </row>
-    <row r="148" spans="3:4">
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-    </row>
-    <row r="149" spans="3:4">
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-    </row>
-    <row r="150" spans="3:4">
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-    </row>
-    <row r="151" spans="3:4">
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-    </row>
-    <row r="152" spans="3:4">
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-    </row>
-    <row r="153" spans="3:4">
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-    </row>
-    <row r="154" spans="3:4">
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-    </row>
-    <row r="155" spans="3:4">
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-    </row>
-    <row r="156" spans="3:4">
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-    </row>
-    <row r="157" spans="3:4">
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-    </row>
-    <row r="158" spans="3:4">
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-    </row>
-    <row r="159" spans="3:4">
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-    </row>
-    <row r="160" spans="3:4">
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-    </row>
-    <row r="161" spans="3:4">
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-    </row>
-    <row r="162" spans="3:4">
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-    </row>
-    <row r="163" spans="3:4">
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-    </row>
-    <row r="164" spans="3:4">
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-    </row>
-    <row r="165" spans="3:4">
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-    </row>
-    <row r="166" spans="3:4">
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-    </row>
-    <row r="167" spans="3:4">
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-    </row>
-    <row r="168" spans="3:4">
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-    </row>
-    <row r="169" spans="3:4">
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-    </row>
-    <row r="170" spans="3:4">
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-    </row>
-    <row r="171" spans="3:4">
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-    </row>
-    <row r="172" spans="3:4">
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-    </row>
-    <row r="173" spans="3:4">
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
@@ -5164,7 +4587,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -5178,7 +4601,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5192,7 +4615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5204,7 +4627,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5216,7 +4639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5228,7 +4651,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5240,7 +4663,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5252,7 +4675,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5264,7 +4687,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5276,7 +4699,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5288,7 +4711,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5300,7 +4723,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5312,7 +4735,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5324,7 +4747,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5336,7 +4759,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5348,7 +4771,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5360,7 +4783,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5372,7 +4795,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5384,7 +4807,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5396,7 +4819,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5408,7 +4831,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5420,7 +4843,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5432,7 +4855,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5444,7 +4867,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5456,7 +4879,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5468,7 +4891,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5480,7 +4903,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5492,7 +4915,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5504,7 +4927,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5516,7 +4939,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5528,7 +4951,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5540,7 +4963,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5552,7 +4975,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5564,7 +4987,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5576,7 +4999,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5588,7 +5011,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5600,7 +5023,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5613,7 +5036,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AAB774-A858-4843-936A-DC398AF2BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -18,6 +12,7 @@
     <sheet name="道具" sheetId="2" r:id="rId3"/>
     <sheet name="条约" sheetId="3" r:id="rId4"/>
     <sheet name="成就" sheetId="6" r:id="rId5"/>
+    <sheet name="开发" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="368">
   <si>
     <t>规范术语</t>
   </si>
@@ -951,6 +946,15 @@
     <t>每次消除多行时会视为一行来进行麻将牌型判断</t>
   </si>
   <si>
+    <t>强者世界</t>
+  </si>
+  <si>
+    <t>Strong World</t>
+  </si>
+  <si>
+    <t>每次胡牌后随机加入一个Level 3方块，方块倍率x5</t>
+  </si>
+  <si>
     <t>成就标题</t>
   </si>
   <si>
@@ -1068,30 +1072,108 @@
     <t>游戏最高分达到1024000分</t>
   </si>
   <si>
-    <t>强者世界</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strong World</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次胡牌后随机加入一个Level 3方块，方块倍率x5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>道具使用音效</t>
+  </si>
+  <si>
+    <t>每次使用道具时会播放音效，大部分道具音效为通用音效，个别道具可以配置特定的音效；
+当道具不满足使用条件时点击需要播放错误音效；</t>
+  </si>
+  <si>
+    <t>胡牌牌型预览</t>
+  </si>
+  <si>
+    <t>在游戏场景有特定的按钮，点击会打开牌型预览窗口，窗口中不需要任何逻辑，仅有打开和关闭弹窗功能即可；
+暂停状态中也可以打开或关闭窗口；
+弹窗打开时有DOTween Move的效果；</t>
+  </si>
+  <si>
+    <t>麻将牌库列表</t>
+  </si>
+  <si>
+    <t>在游戏场景有特定的按钮，点击会打开麻将牌库列表，列表中显示当前还没有掉落的麻将牌；
+麻将牌会根据花色分成3行，数字从小到大排列；
+暂停状态中也可以打开或关闭窗口；
+弹窗打开时有DOTween Move的效果；</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>消行特效</t>
+  </si>
+  <si>
+    <t>当要进行消行时会先等待0.6秒再消除，期间麻将牌会进行闪烁效果；
+同时消除多行所有的行都会有这样的效果；
+如果消除行中存在可以凑成顺字牌、刻字牌、或杠牌时，这些麻将牌上会播放指定的粒子特效；</t>
+  </si>
+  <si>
+    <t>胡牌特效</t>
+  </si>
+  <si>
+    <t>当达成胡牌条件时，不会立刻弹出胡牌弹窗，而是先将最后的牌加入胡牌区，同时在指定位置播放粒子特效和音效，2秒之后再弹出胡牌弹窗；
+等待期间游戏也处于暂停状态；</t>
+  </si>
+  <si>
+    <t>倒计时变色</t>
+  </si>
+  <si>
+    <t>当每局游戏的剩余时间小于等于30秒，倒计时文本会变成红色且开始闪烁；</t>
+  </si>
+  <si>
+    <t>胡牌窗口拆分</t>
+  </si>
+  <si>
+    <t>胡牌窗口拆分成2个，一个窗口上显示胡牌的牌型和得分情况，另一个窗口上显示奖励；
+实际表现为先弹出牌型得分窗口，点击窗口上的“继续”按钮则弹出奖励窗口，玩家可以在该窗口上选择奖励，奖励窗口上也有一个继续按钮，点击即开始下一轮游戏；</t>
+  </si>
+  <si>
+    <t>优化道具、条约信息浮窗</t>
+  </si>
+  <si>
+    <t>道具、条约的信息浮窗上添加道具和条约的图标；
+鼠标移动到方块奖励时不需要弹出信息浮窗，仅道具和条约即可；
+信息浮窗的位置会在目标对象的固定位置显示，如正上方，不会跟着鼠标位置移动；</t>
+  </si>
+  <si>
+    <t>暂停文本</t>
+  </si>
+  <si>
+    <t>暂停面板改为暂停文本提示，提示需要循环改变透明度以达成缓慢闪烁的效果；</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1112,33 +1194,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1165,7 +1377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,8 +1387,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1184,106 +1582,404 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1533,3510 +2229,3668 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="12.625" style="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="13.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="18.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11" style="5" customWidth="1"/>
+    <col min="10" max="13" width="9" style="5"/>
+    <col min="14" max="14" width="12.625" style="5"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <f t="shared" ref="C12:C23" si="0">2^B12</f>
         <v>2</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="29">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="29">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>8</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>12</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>8</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="7">
         <v>8</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="7">
         <v>12</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="5">
         <v>1</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="5">
         <v>0.25</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="5">
         <v>5</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="30">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="J24" s="1">
+    <row r="24" spans="1:14">
+      <c r="J24" s="5">
         <v>1</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="5">
         <v>0.5</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="5">
         <v>10</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="J25" s="1">
+    <row r="25" spans="1:14">
+      <c r="J25" s="5">
         <v>1</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="5">
         <v>0.75</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="5">
         <v>15</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="30">
         <f t="shared" si="1"/>
-        <v>1.3333333333333299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="5">
         <v>1</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="5">
         <v>1</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="5">
         <v>20</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+    <row r="27" spans="1:14">
+      <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>26</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="7">
         <f t="shared" ref="E27:E29" si="2">A27*(2^B27)*C27*D27</f>
         <v>520</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="5">
         <v>1</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="5">
         <v>1.25</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="5">
         <v>25</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="30">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:14">
+      <c r="A28" s="7">
         <v>20</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="7">
         <v>2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>62</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="7">
         <f t="shared" si="2"/>
         <v>9920</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="5">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="5">
         <v>1.5</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="5">
         <v>30</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="30">
         <f t="shared" si="1"/>
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7">
         <v>80</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="7">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>110</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="7">
         <f t="shared" si="2"/>
         <v>1126400</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="5">
         <v>1</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <v>1.75</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="5">
         <v>35</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="30">
         <f t="shared" si="1"/>
-        <v>0.57142857142857095</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E30" s="3"/>
-      <c r="J30" s="1">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="E30" s="7"/>
+      <c r="J30" s="5">
         <v>1</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="5">
         <v>2</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="5">
         <v>40</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="30">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+    <row r="32" spans="1:14">
+      <c r="A32" s="7">
         <v>100</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="7">
         <v>256</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>120</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>36</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="7">
         <f>A32*B32*C32*D32</f>
         <v>110592000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="7">
         <v>10</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="7">
         <v>0</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="7">
         <v>10</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="7">
         <v>1</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="7">
         <v>15</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="7">
         <v>2</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+    <row r="40" spans="1:6">
+      <c r="A40" s="7">
         <v>50</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+    <row r="41" spans="1:6">
+      <c r="A41" s="7">
         <v>150</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+    <row r="42" spans="1:6">
+      <c r="A42" s="7">
         <v>500</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+    <row r="43" spans="1:6">
+      <c r="A43" s="7">
         <v>900</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+    <row r="44" spans="1:6">
+      <c r="A44" s="7">
         <v>1500</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+    <row r="45" spans="1:6">
+      <c r="A45" s="7">
         <v>3000</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+    <row r="46" spans="1:6">
+      <c r="A46" s="7">
         <v>5000</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="7">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+    <row r="47" spans="1:6">
+      <c r="A47" s="7">
         <v>8000</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="7">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row r="20" spans="1:5">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+    <row r="27" spans="1:5">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>3</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>3</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+    <row r="30" spans="1:5">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="7">
         <v>3</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+    <row r="31" spans="1:5">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>3</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+    <row r="32" spans="1:5">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>36</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="8" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="76" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="11" width="9.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="14" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="76" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="11" width="9.875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>500</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>500</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>500</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>500</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>500</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>500</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>500</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>500</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>500</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>500</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>500</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row r="20" s="23" customFormat="1" ht="15.75" spans="1:5">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="27">
         <v>0</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>2000</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>2000</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>2000</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>2000</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+    <row r="27" spans="1:5">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>2000</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>3000</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>3000</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+    <row r="30" spans="1:5">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>3000</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+    <row r="31" spans="1:5">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>120000</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="5" customFormat="1"/>
+    <row r="34" s="5" customFormat="1"/>
+    <row r="35" s="5" customFormat="1"/>
+    <row r="36" s="5" customFormat="1"/>
+    <row r="37" s="5" customFormat="1"/>
+    <row r="38" s="5" customFormat="1"/>
+    <row r="39" s="5" customFormat="1"/>
+    <row r="40" s="5" customFormat="1"/>
+    <row r="41" s="5" customFormat="1"/>
+    <row r="42" s="5" customFormat="1"/>
+    <row r="43" s="5" customFormat="1"/>
+    <row r="44" s="5" customFormat="1"/>
+    <row r="45" s="5" customFormat="1"/>
+    <row r="46" s="5" customFormat="1"/>
+    <row r="47" s="5" customFormat="1"/>
+    <row r="48" s="5" customFormat="1"/>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" s="5" customFormat="1"/>
+    <row r="66" s="5" customFormat="1"/>
+    <row r="67" s="5" customFormat="1"/>
+    <row r="68" s="5" customFormat="1"/>
+    <row r="69" s="5" customFormat="1"/>
+    <row r="70" s="5" customFormat="1"/>
+    <row r="71" s="5" customFormat="1"/>
+    <row r="72" s="5" customFormat="1"/>
+    <row r="73" s="5" customFormat="1"/>
+    <row r="74" s="5" customFormat="1"/>
+    <row r="75" s="5" customFormat="1"/>
+    <row r="76" s="5" customFormat="1"/>
+    <row r="77" s="5" customFormat="1"/>
+    <row r="78" s="5" customFormat="1"/>
+    <row r="79" s="5" customFormat="1"/>
+    <row r="80" s="5" customFormat="1"/>
+    <row r="81" s="5" customFormat="1"/>
+    <row r="82" s="5" customFormat="1"/>
+    <row r="83" s="5" customFormat="1"/>
+    <row r="84" s="5" customFormat="1"/>
+    <row r="85" s="5" customFormat="1"/>
+    <row r="86" s="5" customFormat="1"/>
+    <row r="87" s="5" customFormat="1"/>
+    <row r="89" s="5" customFormat="1"/>
+    <row r="90" s="5" customFormat="1"/>
+    <row r="91" s="5" customFormat="1"/>
+    <row r="92" s="5" customFormat="1"/>
+    <row r="93" s="5" customFormat="1"/>
+    <row r="94" s="5" customFormat="1"/>
+    <row r="95" s="5" customFormat="1"/>
+    <row r="96" s="5" customFormat="1"/>
+    <row r="97" s="5" customFormat="1"/>
+    <row r="98" s="5" customFormat="1"/>
+    <row r="99" s="5" customFormat="1"/>
+    <row r="100" s="5" customFormat="1"/>
+    <row r="101" s="5" customFormat="1"/>
+    <row r="102" s="5" customFormat="1"/>
+    <row r="103" s="5" customFormat="1"/>
+    <row r="104" s="5" customFormat="1"/>
+    <row r="105" s="5" customFormat="1"/>
+    <row r="106" s="5" customFormat="1"/>
+    <row r="107" s="5" customFormat="1"/>
+    <row r="108" s="5" customFormat="1"/>
+    <row r="109" s="5" customFormat="1"/>
+    <row r="110" s="5" customFormat="1"/>
+    <row r="111" s="5" customFormat="1"/>
+    <row r="112" s="5" customFormat="1"/>
+    <row r="113" s="5" customFormat="1"/>
+    <row r="114" s="5" customFormat="1"/>
+    <row r="115" s="5" customFormat="1"/>
+    <row r="116" s="5" customFormat="1"/>
+    <row r="117" s="5" customFormat="1"/>
+    <row r="118" s="5" customFormat="1"/>
+    <row r="119" s="5" customFormat="1"/>
+    <row r="120" s="5" customFormat="1"/>
+    <row r="121" s="5" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1"/>
-    <col min="5" max="5" width="91.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="14.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16" style="5"/>
+    <col min="5" max="5" width="91.875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>5000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>5000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>5000</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>5000</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>5000</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>5000</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>5000</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>5000</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>5000</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>5000</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>5000</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>5000</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>5000</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>5000</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row r="20" spans="1:5">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>5000</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>5000</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>5000</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>5000</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>5000</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5">
+      <c r="A25" s="7">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>160000</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>200000</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
+    <row r="27" spans="1:5">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="15">
         <v>5000</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>5000</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>5000</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+    <row r="30" spans="1:5">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>5000</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+    <row r="31" spans="1:5">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>5000</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+    <row r="32" spans="1:5">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>5000</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+    <row r="33" spans="1:5">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="7">
         <v>120000</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+    <row r="34" spans="1:5">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D34" s="7">
         <v>5000</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
+      <c r="E34" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+    </row>
+    <row r="128" spans="3:4">
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+    </row>
+    <row r="139" spans="3:4">
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+    </row>
+    <row r="148" spans="3:4">
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+    </row>
+    <row r="149" spans="3:4">
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+    </row>
+    <row r="151" spans="3:4">
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+    </row>
+    <row r="153" spans="3:4">
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+    </row>
+    <row r="154" spans="3:4">
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+    </row>
+    <row r="158" spans="3:4">
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+    </row>
+    <row r="159" spans="3:4">
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+    </row>
+    <row r="161" spans="3:4">
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+    </row>
+    <row r="162" spans="3:4">
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+    </row>
+    <row r="163" spans="3:4">
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+    </row>
+    <row r="164" spans="3:4">
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+    </row>
+    <row r="166" spans="3:4">
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+    </row>
+    <row r="168" spans="3:4">
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+    </row>
+    <row r="169" spans="3:4">
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+    </row>
+    <row r="170" spans="3:4">
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+    </row>
+    <row r="171" spans="3:4">
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+    </row>
+    <row r="172" spans="3:4">
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+    </row>
+    <row r="173" spans="3:4">
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="C1" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="C2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>100</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>300</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>600</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>200</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>300</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>600</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>300</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>600</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>300</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>600</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <v>500</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>500</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>500</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>500</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>100</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7">
+        <v>300</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7">
+        <v>600</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7">
+        <v>100</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>600</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="91" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.6083333333333" customWidth="1"/>
+    <col min="3" max="3" width="62.0583333333333" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>300</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>600</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>200</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="C6" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>200</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>100</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>300</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>600</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>100</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>300</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>600</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>300</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>600</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>500</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>500</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>500</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>500</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>100</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3">
-        <v>300</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>600</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>100</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>600</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
-        <v>342</v>
+      <c r="B12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="378">
   <si>
     <t>规范术语</t>
   </si>
@@ -490,7 +490,7 @@
     <t>Voucher</t>
   </si>
   <si>
-    <t>获得50金币</t>
+    <t>获得100金币</t>
   </si>
   <si>
     <t>磁铁</t>
@@ -553,7 +553,7 @@
     <t>Coupon</t>
   </si>
   <si>
-    <t>当前目标分数减50%</t>
+    <t>当前目标分数减20%</t>
   </si>
   <si>
     <t>超级炸弹</t>
@@ -562,7 +562,7 @@
     <t>Super Bomb</t>
   </si>
   <si>
-    <t>强行消除最底下4行</t>
+    <t>强行消除最底下5行</t>
   </si>
   <si>
     <t>黄金镜</t>
@@ -667,7 +667,7 @@
     <t>断幺九</t>
   </si>
   <si>
-    <t>Disjointed 1-9</t>
+    <t>1/9 Remover</t>
   </si>
   <si>
     <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
@@ -676,7 +676,7 @@
     <t>缺一门</t>
   </si>
   <si>
-    <t>Lacking a Suit</t>
+    <t>Suit Remover</t>
   </si>
   <si>
     <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
@@ -697,7 +697,7 @@
     <t>Delay of Gratification</t>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行时基础分+8，胡牌后重置效果</t>
+    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行及以上时基础分+8，胡牌后重置效果</t>
   </si>
   <si>
     <t>麻将博士</t>
@@ -709,22 +709,22 @@
     <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
   </si>
   <si>
-    <t>门外汉</t>
-  </si>
-  <si>
-    <t>Layman</t>
-  </si>
-  <si>
-    <t>胡牌时所有牌型都视为平胡，消行分数调整为：1~5行分别为10/30/60/100/200</t>
-  </si>
-  <si>
-    <t>狂牌士</t>
-  </si>
-  <si>
-    <t>Mad Player</t>
-  </si>
-  <si>
-    <t>不可使用道具，额外倍率x3</t>
+    <t>老派玩家</t>
+  </si>
+  <si>
+    <t>Old School Style</t>
+  </si>
+  <si>
+    <t>胡牌时所有牌型都视为平胡，消行分数调整为：基础分x2^（连续消行数量）</t>
+  </si>
+  <si>
+    <t>狂战士</t>
+  </si>
+  <si>
+    <t>Berserker</t>
+  </si>
+  <si>
+    <t>每次胡牌会随机选择奖励，并在每轮游戏开始时使用所有可用道具，额外倍率x4</t>
   </si>
   <si>
     <t>混淆视听</t>
@@ -745,10 +745,10 @@
     <t>当有Level_3方块时生效，Level_3方块出现的权重提高200%，额外倍率x3</t>
   </si>
   <si>
-    <t>进击的巨人</t>
-  </si>
-  <si>
-    <t>Attack on Titan</t>
+    <t>攻击的巨人</t>
+  </si>
+  <si>
+    <t>Attack on Giant</t>
   </si>
   <si>
     <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
@@ -811,7 +811,10 @@
     <t>Advent Food</t>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1，下回合恢复原来的基础分</t>
+    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1，下开始先恢复原来的基础分</t>
+  </si>
+  <si>
+    <t>增加的分数视为临时基础分，其他道具效果仅作用与常规基础分</t>
   </si>
   <si>
     <t>无重力</t>
@@ -913,7 +916,7 @@
     <t>人人平等</t>
   </si>
   <si>
-    <t>All men are equal</t>
+    <t>All Men are Equal</t>
   </si>
   <si>
     <t>所有形状的方块所提供的方块倍率变为3</t>
@@ -937,10 +940,10 @@
     <t>每次“碰”都会增加本局游戏基础分+5，方块倍率-15（最低为1）</t>
   </si>
   <si>
-    <t>社交网络</t>
-  </si>
-  <si>
-    <t>Social Network</t>
+    <t>合纵连横</t>
+  </si>
+  <si>
+    <t>Realpolitik</t>
   </si>
   <si>
     <t>每次消除多行时会视为一行来进行麻将牌型判断</t>
@@ -953,6 +956,15 @@
   </si>
   <si>
     <t>每次胡牌后随机加入一个Level 3方块，方块倍率x5</t>
+  </si>
+  <si>
+    <t>空手道大师</t>
+  </si>
+  <si>
+    <t>Karate Master</t>
+  </si>
+  <si>
+    <t>不可使用道具，额外倍率x4</t>
   </si>
   <si>
     <t>成就标题</t>
@@ -1148,6 +1160,26 @@
   </si>
   <si>
     <t>暂停面板改为暂停文本提示，提示需要循环改变透明度以达成缓慢闪烁的效果；</t>
+  </si>
+  <si>
+    <t>胡牌区杠牌位置</t>
+  </si>
+  <si>
+    <t>调整杠牌在胡牌区的摆放位置</t>
+  </si>
+  <si>
+    <t>分数文本表现</t>
+  </si>
+  <si>
+    <t>得分增加时以数字滚动的形式表现</t>
+  </si>
+  <si>
+    <t>难度选择</t>
+  </si>
+  <si>
+    <t>普通和困难难度在游戏初始状态会随机给与1/2个条约；
+游戏开始时只能选择简单模式，普通和困难模式不可选择，通关简单模式后可以选择普通模式，通关普通模式后可以选择困难模式；
+选择游戏难度后的状态要记录，下次开启游戏时依然保留之前的模式；</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1196,7 @@
     <numFmt numFmtId="178" formatCode="0.00000_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,22 +1205,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1200,7 +1224,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1383,6 +1408,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1438,12 +1469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,228 +1725,231 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2237,672 +2265,672 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="13.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="18.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11" style="5" customWidth="1"/>
-    <col min="10" max="13" width="9" style="5"/>
-    <col min="14" max="14" width="12.625" style="5"/>
-    <col min="15" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="16.625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="13.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="18.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6" customWidth="1"/>
+    <col min="10" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="12.625" style="6"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <f t="shared" ref="C12:C23" si="0">2^B12</f>
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="30">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="30">
         <v>4</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>8</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>4</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>8</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>4</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>8</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>12</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="6">
         <v>0.25</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="31">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="J24" s="5">
+      <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <v>0.5</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="6">
         <v>10</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="31">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="J25" s="5">
+      <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="6">
         <v>0.75</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="6">
         <v>15</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="31">
         <f t="shared" si="1"/>
         <v>1.33333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <v>1</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="6">
         <v>20</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>10</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>26</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <f t="shared" ref="E27:E29" si="2">A27*(2^B27)*C27*D27</f>
         <v>520</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <v>1.25</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="6">
         <v>25</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="31">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>62</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>2</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <f t="shared" si="2"/>
         <v>9920</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="6">
         <v>1.5</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="6">
         <v>30</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="31">
         <f t="shared" si="1"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>80</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>4</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>110</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>8</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <f t="shared" si="2"/>
         <v>1126400</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <v>1.75</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="6">
         <v>35</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="31">
         <f t="shared" si="1"/>
         <v>0.571428571428571</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="E30" s="7"/>
-      <c r="J30" s="5">
+      <c r="E30" s="8"/>
+      <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>2</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>40</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="31">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>100</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>256</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>120</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>36</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <f>A32*B32*C32*D32</f>
         <v>110592000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <v>10</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <v>0</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <v>10</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <v>1</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <v>15</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <v>2</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>50</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>150</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>500</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>900</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>1500</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>3000</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="7">
+      <c r="A46" s="8">
         <v>5000</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="8">
         <v>1600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>8000</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>3000</v>
       </c>
     </row>
@@ -2918,467 +2946,467 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="D13" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="9" style="8"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>3</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>3</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>3</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>36</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3394,705 +3422,705 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="14" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="76" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="11" width="9.875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="14" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="76" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+    <col min="7" max="11" width="9.875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="8">
         <v>500</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="E4" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="8">
         <v>500</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="E7" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="E8" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="8">
         <v>500</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="E9" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="8">
         <v>500</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="E11" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="8">
+        <v>500</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="E13" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="8">
         <v>500</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="E15" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="8">
+        <v>500</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="8">
+        <v>500</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="8">
+        <v>500</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="8">
+        <v>500</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15.75" spans="1:5">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="7">
-        <v>500</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="7">
-        <v>500</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="E20" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="E21" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="7">
-        <v>500</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="7">
-        <v>500</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="E22" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="7">
-        <v>500</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="7">
-        <v>500</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" s="23" customFormat="1" ht="15.75" spans="1:5">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:5">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="E28" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="8">
         <v>3000</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="E29" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="8">
         <v>3000</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="7">
-        <v>3000</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>120000</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1"/>
-    <row r="34" s="5" customFormat="1"/>
-    <row r="35" s="5" customFormat="1"/>
-    <row r="36" s="5" customFormat="1"/>
-    <row r="37" s="5" customFormat="1"/>
-    <row r="38" s="5" customFormat="1"/>
-    <row r="39" s="5" customFormat="1"/>
-    <row r="40" s="5" customFormat="1"/>
-    <row r="41" s="5" customFormat="1"/>
-    <row r="42" s="5" customFormat="1"/>
-    <row r="43" s="5" customFormat="1"/>
-    <row r="44" s="5" customFormat="1"/>
-    <row r="45" s="5" customFormat="1"/>
-    <row r="46" s="5" customFormat="1"/>
-    <row r="47" s="5" customFormat="1"/>
-    <row r="48" s="5" customFormat="1"/>
+    <row r="33" s="6" customFormat="1"/>
+    <row r="34" s="6" customFormat="1"/>
+    <row r="35" s="6" customFormat="1"/>
+    <row r="36" s="6" customFormat="1"/>
+    <row r="37" s="6" customFormat="1"/>
+    <row r="38" s="6" customFormat="1"/>
+    <row r="39" s="6" customFormat="1"/>
+    <row r="40" s="6" customFormat="1"/>
+    <row r="41" s="6" customFormat="1"/>
+    <row r="42" s="6" customFormat="1"/>
+    <row r="43" s="6" customFormat="1"/>
+    <row r="44" s="6" customFormat="1"/>
+    <row r="45" s="6" customFormat="1"/>
+    <row r="46" s="6" customFormat="1"/>
+    <row r="47" s="6" customFormat="1"/>
+    <row r="48" s="6" customFormat="1"/>
     <row r="49" spans="1:5">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" s="5" customFormat="1"/>
-    <row r="66" s="5" customFormat="1"/>
-    <row r="67" s="5" customFormat="1"/>
-    <row r="68" s="5" customFormat="1"/>
-    <row r="69" s="5" customFormat="1"/>
-    <row r="70" s="5" customFormat="1"/>
-    <row r="71" s="5" customFormat="1"/>
-    <row r="72" s="5" customFormat="1"/>
-    <row r="73" s="5" customFormat="1"/>
-    <row r="74" s="5" customFormat="1"/>
-    <row r="75" s="5" customFormat="1"/>
-    <row r="76" s="5" customFormat="1"/>
-    <row r="77" s="5" customFormat="1"/>
-    <row r="78" s="5" customFormat="1"/>
-    <row r="79" s="5" customFormat="1"/>
-    <row r="80" s="5" customFormat="1"/>
-    <row r="81" s="5" customFormat="1"/>
-    <row r="82" s="5" customFormat="1"/>
-    <row r="83" s="5" customFormat="1"/>
-    <row r="84" s="5" customFormat="1"/>
-    <row r="85" s="5" customFormat="1"/>
-    <row r="86" s="5" customFormat="1"/>
-    <row r="87" s="5" customFormat="1"/>
-    <row r="89" s="5" customFormat="1"/>
-    <row r="90" s="5" customFormat="1"/>
-    <row r="91" s="5" customFormat="1"/>
-    <row r="92" s="5" customFormat="1"/>
-    <row r="93" s="5" customFormat="1"/>
-    <row r="94" s="5" customFormat="1"/>
-    <row r="95" s="5" customFormat="1"/>
-    <row r="96" s="5" customFormat="1"/>
-    <row r="97" s="5" customFormat="1"/>
-    <row r="98" s="5" customFormat="1"/>
-    <row r="99" s="5" customFormat="1"/>
-    <row r="100" s="5" customFormat="1"/>
-    <row r="101" s="5" customFormat="1"/>
-    <row r="102" s="5" customFormat="1"/>
-    <row r="103" s="5" customFormat="1"/>
-    <row r="104" s="5" customFormat="1"/>
-    <row r="105" s="5" customFormat="1"/>
-    <row r="106" s="5" customFormat="1"/>
-    <row r="107" s="5" customFormat="1"/>
-    <row r="108" s="5" customFormat="1"/>
-    <row r="109" s="5" customFormat="1"/>
-    <row r="110" s="5" customFormat="1"/>
-    <row r="111" s="5" customFormat="1"/>
-    <row r="112" s="5" customFormat="1"/>
-    <row r="113" s="5" customFormat="1"/>
-    <row r="114" s="5" customFormat="1"/>
-    <row r="115" s="5" customFormat="1"/>
-    <row r="116" s="5" customFormat="1"/>
-    <row r="117" s="5" customFormat="1"/>
-    <row r="118" s="5" customFormat="1"/>
-    <row r="119" s="5" customFormat="1"/>
-    <row r="120" s="5" customFormat="1"/>
-    <row r="121" s="5" customFormat="1"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" s="6" customFormat="1"/>
+    <row r="66" s="6" customFormat="1"/>
+    <row r="67" s="6" customFormat="1"/>
+    <row r="68" s="6" customFormat="1"/>
+    <row r="69" s="6" customFormat="1"/>
+    <row r="70" s="6" customFormat="1"/>
+    <row r="71" s="6" customFormat="1"/>
+    <row r="72" s="6" customFormat="1"/>
+    <row r="73" s="6" customFormat="1"/>
+    <row r="74" s="6" customFormat="1"/>
+    <row r="75" s="6" customFormat="1"/>
+    <row r="76" s="6" customFormat="1"/>
+    <row r="77" s="6" customFormat="1"/>
+    <row r="78" s="6" customFormat="1"/>
+    <row r="79" s="6" customFormat="1"/>
+    <row r="80" s="6" customFormat="1"/>
+    <row r="81" s="6" customFormat="1"/>
+    <row r="82" s="6" customFormat="1"/>
+    <row r="83" s="6" customFormat="1"/>
+    <row r="84" s="6" customFormat="1"/>
+    <row r="85" s="6" customFormat="1"/>
+    <row r="86" s="6" customFormat="1"/>
+    <row r="87" s="6" customFormat="1"/>
+    <row r="89" s="6" customFormat="1"/>
+    <row r="90" s="6" customFormat="1"/>
+    <row r="91" s="6" customFormat="1"/>
+    <row r="92" s="6" customFormat="1"/>
+    <row r="93" s="6" customFormat="1"/>
+    <row r="94" s="6" customFormat="1"/>
+    <row r="95" s="6" customFormat="1"/>
+    <row r="96" s="6" customFormat="1"/>
+    <row r="97" s="6" customFormat="1"/>
+    <row r="98" s="6" customFormat="1"/>
+    <row r="99" s="6" customFormat="1"/>
+    <row r="100" s="6" customFormat="1"/>
+    <row r="101" s="6" customFormat="1"/>
+    <row r="102" s="6" customFormat="1"/>
+    <row r="103" s="6" customFormat="1"/>
+    <row r="104" s="6" customFormat="1"/>
+    <row r="105" s="6" customFormat="1"/>
+    <row r="106" s="6" customFormat="1"/>
+    <row r="107" s="6" customFormat="1"/>
+    <row r="108" s="6" customFormat="1"/>
+    <row r="109" s="6" customFormat="1"/>
+    <row r="110" s="6" customFormat="1"/>
+    <row r="111" s="6" customFormat="1"/>
+    <row r="112" s="6" customFormat="1"/>
+    <row r="113" s="6" customFormat="1"/>
+    <row r="114" s="6" customFormat="1"/>
+    <row r="115" s="6" customFormat="1"/>
+    <row r="116" s="6" customFormat="1"/>
+    <row r="117" s="6" customFormat="1"/>
+    <row r="118" s="6" customFormat="1"/>
+    <row r="119" s="6" customFormat="1"/>
+    <row r="120" s="6" customFormat="1"/>
+    <row r="121" s="6" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4105,1162 +4133,1178 @@
   <sheetPr/>
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="14.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16" style="5"/>
-    <col min="5" max="5" width="91.875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="14.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6"/>
+    <col min="5" max="5" width="91.875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="E5" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="E7" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="8">
         <v>5000</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="E9" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="8">
         <v>5000</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="E10" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="8">
         <v>5000</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="E12" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="8">
         <v>5000</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="E13" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="8">
         <v>5000</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="E15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="8">
         <v>5000</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="E16" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="8">
         <v>5000</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="E17" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="8">
         <v>5000</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="E19" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="8">
         <v>5000</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="E20" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="8">
         <v>5000</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="E21" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="8">
         <v>5000</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="E23" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="8">
         <v>5000</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="E24" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="8">
+        <v>120000</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="8">
+        <v>200000</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="18">
         <v>5000</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="E27" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="8">
         <v>5000</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="E28" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" s="8">
         <v>5000</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="E29" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" s="8">
         <v>5000</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="E30" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" s="8">
         <v>5000</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="E31" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="8">
         <v>5000</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="E32" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="8">
+        <v>120000</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="21">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="8">
         <v>5000</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7">
-        <v>20</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D25" s="7">
-        <v>160000</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15">
-        <v>25</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D27" s="15">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D30" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D31" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D32" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D33" s="7">
-        <v>120000</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7">
-        <v>32</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="D34" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>306</v>
+      <c r="E34" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="8">
+        <v>33</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="3:4">
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="3:4">
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="3:4">
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="3:4">
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="3:4">
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
     </row>
     <row r="70" spans="3:4">
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="3:4">
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
     </row>
     <row r="74" spans="3:4">
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="3:4">
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="3:4">
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="3:4">
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="3:4">
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
     </row>
     <row r="79" spans="3:4">
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
     </row>
     <row r="80" spans="3:4">
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
     </row>
     <row r="81" spans="3:4">
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
     </row>
     <row r="82" spans="3:4">
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="3:4">
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
     </row>
     <row r="84" spans="3:4">
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="3:4">
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
     </row>
     <row r="86" spans="3:4">
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
     </row>
     <row r="88" spans="3:4">
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
     </row>
     <row r="90" spans="3:4">
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
     </row>
     <row r="91" spans="3:4">
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
     </row>
     <row r="92" spans="3:4">
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
     </row>
     <row r="93" spans="3:4">
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
     </row>
     <row r="94" spans="3:4">
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
     </row>
     <row r="95" spans="3:4">
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
     </row>
     <row r="96" spans="3:4">
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
     </row>
     <row r="97" spans="3:4">
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
     </row>
     <row r="98" spans="3:4">
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
     </row>
     <row r="99" spans="3:4">
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
     </row>
     <row r="100" spans="3:4">
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
     </row>
     <row r="101" spans="3:4">
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
     </row>
     <row r="102" spans="3:4">
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
     </row>
     <row r="104" spans="3:4">
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
     </row>
     <row r="105" spans="3:4">
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
     </row>
     <row r="106" spans="3:4">
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
     </row>
     <row r="108" spans="3:4">
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
     </row>
     <row r="109" spans="3:4">
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
     </row>
     <row r="110" spans="3:4">
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
     </row>
     <row r="112" spans="3:4">
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
     </row>
     <row r="113" spans="3:4">
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
     </row>
     <row r="114" spans="3:4">
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
     </row>
     <row r="115" spans="3:4">
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
     </row>
     <row r="116" spans="3:4">
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
     </row>
     <row r="117" spans="3:4">
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
     </row>
     <row r="118" spans="3:4">
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
     </row>
     <row r="119" spans="3:4">
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
     </row>
     <row r="120" spans="3:4">
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
     </row>
     <row r="121" spans="3:4">
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
     </row>
     <row r="122" spans="3:4">
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
     </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
     </row>
     <row r="124" spans="3:4">
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
     </row>
     <row r="125" spans="3:4">
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
     </row>
     <row r="126" spans="3:4">
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
     </row>
     <row r="127" spans="3:4">
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
     </row>
     <row r="128" spans="3:4">
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
     </row>
     <row r="129" spans="3:4">
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
     </row>
     <row r="130" spans="3:4">
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
     </row>
     <row r="131" spans="3:4">
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
     </row>
     <row r="132" spans="3:4">
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
     </row>
     <row r="133" spans="3:4">
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
     </row>
     <row r="134" spans="3:4">
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
     </row>
     <row r="135" spans="3:4">
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
     </row>
     <row r="136" spans="3:4">
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
     </row>
     <row r="137" spans="3:4">
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
     </row>
     <row r="138" spans="3:4">
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
     </row>
     <row r="139" spans="3:4">
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
     </row>
     <row r="140" spans="3:4">
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
     </row>
     <row r="141" spans="3:4">
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
     </row>
     <row r="142" spans="3:4">
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
     </row>
     <row r="143" spans="3:4">
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
     </row>
     <row r="144" spans="3:4">
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
     </row>
     <row r="145" spans="3:4">
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
     </row>
     <row r="146" spans="3:4">
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
     </row>
     <row r="147" spans="3:4">
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
     </row>
     <row r="148" spans="3:4">
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
     </row>
     <row r="149" spans="3:4">
-      <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
     </row>
     <row r="150" spans="3:4">
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
     </row>
     <row r="151" spans="3:4">
-      <c r="C151" s="20"/>
-      <c r="D151" s="20"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
     </row>
     <row r="152" spans="3:4">
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
     </row>
     <row r="153" spans="3:4">
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
     </row>
     <row r="154" spans="3:4">
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
     </row>
     <row r="155" spans="3:4">
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
     </row>
     <row r="156" spans="3:4">
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
     </row>
     <row r="157" spans="3:4">
-      <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
     </row>
     <row r="158" spans="3:4">
-      <c r="C158" s="20"/>
-      <c r="D158" s="20"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
     </row>
     <row r="159" spans="3:4">
-      <c r="C159" s="20"/>
-      <c r="D159" s="20"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
     </row>
     <row r="160" spans="3:4">
-      <c r="C160" s="20"/>
-      <c r="D160" s="20"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
     </row>
     <row r="161" spans="3:4">
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
     </row>
     <row r="162" spans="3:4">
-      <c r="C162" s="20"/>
-      <c r="D162" s="20"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
     </row>
     <row r="163" spans="3:4">
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
     </row>
     <row r="164" spans="3:4">
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
     </row>
     <row r="165" spans="3:4">
-      <c r="C165" s="20"/>
-      <c r="D165" s="20"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
     </row>
     <row r="166" spans="3:4">
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
     </row>
     <row r="167" spans="3:4">
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
     </row>
     <row r="168" spans="3:4">
-      <c r="C168" s="20"/>
-      <c r="D168" s="20"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
     </row>
     <row r="169" spans="3:4">
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
     </row>
     <row r="170" spans="3:4">
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
     </row>
     <row r="171" spans="3:4">
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
     </row>
     <row r="172" spans="3:4">
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
     </row>
     <row r="173" spans="3:4">
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5274,465 +5318,465 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="6.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12" style="6" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>308</v>
+      <c r="C1" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>310</v>
+      <c r="C2" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>311</v>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>300</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
-        <v>312</v>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>600</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
-        <v>313</v>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>200</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>314</v>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>200</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
-        <v>315</v>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>100</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>316</v>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>300</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>317</v>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>600</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>318</v>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>1000</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>319</v>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>2000</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
-        <v>320</v>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>3000</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
-        <v>321</v>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>1000</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
-        <v>322</v>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>3000</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
-        <v>323</v>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>1000</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>324</v>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>2000</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>325</v>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>100</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>326</v>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>300</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
-        <v>327</v>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>600</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
-        <v>328</v>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>100</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
-        <v>329</v>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>300</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
-        <v>330</v>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>600</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
-        <v>331</v>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>3000</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
-        <v>332</v>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>3000</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
-        <v>333</v>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>500</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
-        <v>334</v>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>500</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="s">
-        <v>335</v>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>500</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
-        <v>336</v>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>500</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>337</v>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>100</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
-        <v>338</v>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>300</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
-        <v>339</v>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>600</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
-        <v>340</v>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>100</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8" t="s">
-        <v>341</v>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <v>600</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
-        <v>342</v>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>1000</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
-        <v>343</v>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>2000</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
-        <v>344</v>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>3000</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
-        <v>345</v>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5744,149 +5788,183 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="91" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.6083333333333" customWidth="1"/>
-    <col min="3" max="3" width="62.0583333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.6083333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.8833333333333" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>347</v>
+      <c r="B1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>349</v>
+      <c r="B2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>351</v>
+      <c r="B3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>353</v>
+      <c r="B4" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>355</v>
+      <c r="B5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>355</v>
+      <c r="B6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>357</v>
+      <c r="B7" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>359</v>
+      <c r="B8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>361</v>
+      <c r="B9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>363</v>
+      <c r="B10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>365</v>
+      <c r="B11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>367</v>
+      <c r="B12" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="385">
   <si>
     <t>规范术语</t>
   </si>
@@ -256,6 +256,9 @@
     <t>金币奖励</t>
   </si>
   <si>
+    <t>消行得分</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -268,9 +271,15 @@
     <t>T1-Dot</t>
   </si>
   <si>
+    <t>P1-Dot</t>
+  </si>
+  <si>
     <t>T2-I</t>
   </si>
   <si>
+    <t>P2-I Shape</t>
+  </si>
+  <si>
     <t>T3-I</t>
   </si>
   <si>
@@ -712,7 +721,7 @@
     <t>老派玩家</t>
   </si>
   <si>
-    <t>Old School Style</t>
+    <t>Old School</t>
   </si>
   <si>
     <t>胡牌时所有牌型都视为平胡，消行分数调整为：基础分x2^（连续消行数量）</t>
@@ -1180,6 +1189,18 @@
     <t>普通和困难难度在游戏初始状态会随机给与1/2个条约；
 游戏开始时只能选择简单模式，普通和困难模式不可选择，通关简单模式后可以选择普通模式，通关普通模式后可以选择困难模式；
 选择游戏难度后的状态要记录，下次开启游戏时依然保留之前的模式；</t>
+  </si>
+  <si>
+    <t>多语言功能</t>
+  </si>
+  <si>
+    <t>增加多语言切换功能</t>
+  </si>
+  <si>
+    <t>音效控制</t>
+  </si>
+  <si>
+    <t>增加音效控制功能</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1951,6 +1972,12 @@
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2263,10 +2290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2934,6 +2961,131 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="33">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="33">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="33">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="33">
+        <v>4</v>
+      </c>
+      <c r="B53" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="33">
+        <v>5</v>
+      </c>
+      <c r="B54" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="33">
+        <v>6</v>
+      </c>
+      <c r="B55" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="33">
+        <v>7</v>
+      </c>
+      <c r="B56" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="33">
+        <v>8</v>
+      </c>
+      <c r="B57" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="33">
+        <v>9</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="33">
+        <v>10</v>
+      </c>
+      <c r="B59" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="33">
+        <v>11</v>
+      </c>
+      <c r="B60" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="33">
+        <v>12</v>
+      </c>
+      <c r="B61" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="33">
+        <v>13</v>
+      </c>
+      <c r="B62" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="33">
+        <v>14</v>
+      </c>
+      <c r="B63" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="33">
+        <v>15</v>
+      </c>
+      <c r="B64" s="6">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2945,26 +3097,26 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D2:D13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="9" style="8"/>
+    <col min="5" max="5" width="12.9666666666667" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>22</v>
@@ -2978,13 +3130,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2992,13 +3147,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3006,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
@@ -3020,7 +3178,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -3034,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -3048,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8">
         <v>2</v>
@@ -3062,7 +3220,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
@@ -3076,7 +3234,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
@@ -3090,7 +3248,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8">
         <v>2</v>
@@ -3104,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
@@ -3118,7 +3276,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
@@ -3132,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -3146,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C14" s="8">
         <v>3</v>
@@ -3160,7 +3318,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15" s="8">
         <v>3</v>
@@ -3174,7 +3332,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C16" s="8">
         <v>3</v>
@@ -3188,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C17" s="8">
         <v>3</v>
@@ -3202,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C18" s="8">
         <v>3</v>
@@ -3216,7 +3374,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C19" s="8">
         <v>3</v>
@@ -3230,7 +3388,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" s="8">
         <v>3</v>
@@ -3244,7 +3402,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="8">
         <v>3</v>
@@ -3258,7 +3416,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C22" s="8">
         <v>3</v>
@@ -3272,7 +3430,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C23" s="8">
         <v>3</v>
@@ -3286,7 +3444,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C24" s="8">
         <v>3</v>
@@ -3300,7 +3458,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C25" s="8">
         <v>3</v>
@@ -3314,7 +3472,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C26" s="8">
         <v>3</v>
@@ -3328,7 +3486,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C27" s="8">
         <v>3</v>
@@ -3342,7 +3500,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C28" s="8">
         <v>3</v>
@@ -3356,7 +3514,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C29" s="8">
         <v>3</v>
@@ -3370,7 +3528,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C30" s="8">
         <v>3</v>
@@ -3384,7 +3542,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C31" s="8">
         <v>3</v>
@@ -3398,16 +3556,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D32" s="8">
         <v>36</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3422,7 +3580,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3439,19 +3597,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3459,16 +3617,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3476,16 +3634,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3493,16 +3651,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D4" s="8">
         <v>500</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3510,16 +3668,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3527,16 +3685,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3544,16 +3702,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D7" s="8">
         <v>500</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3561,16 +3719,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3578,16 +3736,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D9" s="8">
         <v>500</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3595,16 +3753,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3612,16 +3770,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D11" s="8">
         <v>500</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3629,16 +3787,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D12" s="8">
         <v>500</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3646,16 +3804,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3663,16 +3821,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3680,16 +3838,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D15" s="8">
         <v>500</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3697,16 +3855,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D16" s="8">
         <v>500</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3714,16 +3872,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D17" s="8">
         <v>500</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3731,16 +3889,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D18" s="8">
         <v>500</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3748,16 +3906,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D19" s="8">
         <v>500</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="15.75" spans="1:5">
@@ -3765,16 +3923,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:5">
@@ -3782,16 +3940,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3799,16 +3957,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3816,16 +3974,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D23" s="8">
         <v>2000</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3833,16 +3991,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D24" s="8">
         <v>2000</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3850,16 +4008,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D25" s="8">
         <v>2000</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3867,16 +4025,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D26" s="8">
         <v>2000</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3884,16 +4042,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3901,16 +4059,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3918,16 +4076,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D29" s="8">
         <v>3000</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3935,16 +4093,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D30" s="8">
         <v>3000</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3952,16 +4110,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D31" s="8">
         <v>120000</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" s="6" customFormat="1"/>
@@ -4133,8 +4291,8 @@
   <sheetPr/>
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -4149,19 +4307,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4169,19 +4327,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4189,16 +4347,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4206,16 +4364,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D4" s="8">
         <v>5000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4223,16 +4381,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4240,16 +4398,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D6" s="8">
         <v>5000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4257,16 +4415,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4274,16 +4432,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4291,16 +4449,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D9" s="8">
         <v>5000</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4308,16 +4466,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D10" s="8">
         <v>5000</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4325,16 +4483,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4342,16 +4500,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D12" s="8">
         <v>5000</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4359,19 +4517,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D13" s="8">
         <v>5000</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4379,16 +4537,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4396,19 +4554,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D15" s="8">
         <v>5000</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4416,16 +4574,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D16" s="8">
         <v>5000</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4433,16 +4591,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D17" s="8">
         <v>5000</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4450,19 +4608,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4470,16 +4628,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D19" s="8">
         <v>5000</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4487,16 +4645,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D20" s="8">
         <v>5000</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4504,16 +4662,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D21" s="8">
         <v>5000</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4521,16 +4679,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4538,16 +4696,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D23" s="8">
         <v>5000</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4555,16 +4713,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D24" s="8">
         <v>5000</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4572,16 +4730,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D25" s="8">
         <v>120000</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4589,16 +4747,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D26" s="8">
         <v>200000</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4609,13 +4767,13 @@
         <v>47</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D27" s="18">
         <v>5000</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4623,16 +4781,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D28" s="8">
         <v>5000</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4640,16 +4798,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D29" s="8">
         <v>5000</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4657,16 +4815,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D30" s="8">
         <v>5000</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4674,16 +4832,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D31" s="8">
         <v>5000</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4691,16 +4849,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D32" s="8">
         <v>5000</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4708,16 +4866,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D33" s="8">
         <v>120000</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4725,16 +4883,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D34" s="8">
         <v>5000</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4742,16 +4900,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5333,16 +5491,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5353,10 +5511,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5368,7 +5526,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5380,7 +5538,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5392,7 +5550,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5404,7 +5562,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5416,7 +5574,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5428,7 +5586,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5440,7 +5598,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5452,7 +5610,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5464,7 +5622,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5476,7 +5634,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5488,7 +5646,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5500,7 +5658,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5512,7 +5670,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5524,7 +5682,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5536,7 +5694,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5548,7 +5706,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5560,7 +5718,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5572,7 +5730,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5584,7 +5742,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5596,7 +5754,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5608,7 +5766,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5620,7 +5778,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5632,7 +5790,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5644,7 +5802,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5656,7 +5814,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5668,7 +5826,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5680,7 +5838,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5692,7 +5850,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5704,7 +5862,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5716,7 +5874,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5728,7 +5886,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5740,7 +5898,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5752,7 +5910,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5764,7 +5922,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5776,7 +5934,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5788,10 +5946,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="91" customHeight="1" outlineLevelCol="2"/>
@@ -5804,13 +5962,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -5818,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -5829,10 +5987,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -5840,10 +5998,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -5851,10 +6009,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -5862,10 +6020,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -5873,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -5884,10 +6042,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -5895,10 +6053,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -5906,10 +6064,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -5917,10 +6075,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -5928,10 +6086,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -5939,10 +6097,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -5950,10 +6108,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -5961,10 +6119,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46075363-5D8A-4589-AC25-445A608CE0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -1206,18 +1212,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00000_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,151 +1254,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1417,13 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,188 +1304,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1628,255 +1313,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1913,52 +1356,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1970,71 +1398,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2284,19 +1665,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" style="6" customWidth="1"/>
     <col min="2" max="3" width="9" style="6"/>
@@ -2311,12 +1692,12 @@
     <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2324,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2332,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2348,7 +1729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -2367,7 +1748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +1759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2389,7 +1770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2403,7 +1784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -2418,11 +1799,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="25">
         <v>2</v>
       </c>
       <c r="C13" s="8">
@@ -2436,11 +1817,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="25">
         <v>4</v>
       </c>
       <c r="C14" s="8">
@@ -2454,7 +1835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -2472,7 +1853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -2490,7 +1871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -2508,7 +1889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -2526,7 +1907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
@@ -2544,8 +1925,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="8">
@@ -2556,8 +1937,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="8">
@@ -2568,8 +1949,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="8">
@@ -2580,8 +1961,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="8">
@@ -2600,12 +1981,12 @@
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="26">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J24" s="6">
         <v>1</v>
       </c>
@@ -2615,12 +1996,12 @@
       <c r="L24" s="6">
         <v>10</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J25" s="6">
         <v>1</v>
       </c>
@@ -2630,12 +2011,12 @@
       <c r="L25" s="6">
         <v>15</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="26">
         <f t="shared" si="1"/>
-        <v>1.33333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1.3333333333333299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
@@ -2660,12 +2041,12 @@
       <c r="L26" s="6">
         <v>20</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -2691,12 +2072,12 @@
       <c r="L27" s="6">
         <v>25</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="26">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>20</v>
       </c>
@@ -2722,12 +2103,12 @@
       <c r="L28" s="6">
         <v>30</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="26">
         <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>80</v>
       </c>
@@ -2753,12 +2134,12 @@
       <c r="L29" s="6">
         <v>35</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N29" s="26">
         <f t="shared" si="1"/>
-        <v>0.571428571428571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E30" s="8"/>
       <c r="J30" s="6">
         <v>1</v>
@@ -2769,12 +2150,12 @@
       <c r="L30" s="6">
         <v>40</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="26">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
@@ -2791,7 +2172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>100</v>
       </c>
@@ -2809,7 +2190,7 @@
         <v>110592000</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
@@ -2829,7 +2210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>63</v>
       </c>
@@ -2849,7 +2230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>66</v>
       </c>
@@ -2869,7 +2250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>69</v>
       </c>
@@ -2889,7 +2270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>72</v>
       </c>
@@ -2897,7 +2278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>50</v>
       </c>
@@ -2905,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>150</v>
       </c>
@@ -2913,7 +2294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>500</v>
       </c>
@@ -2921,7 +2302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>900</v>
       </c>
@@ -2929,7 +2310,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <v>1500</v>
       </c>
@@ -2937,7 +2318,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>3000</v>
       </c>
@@ -2945,7 +2326,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <v>5000</v>
       </c>
@@ -2953,7 +2334,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>8000</v>
       </c>
@@ -2961,125 +2342,125 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="32" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="33">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
         <v>1</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="33">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
         <v>2</v>
       </c>
       <c r="B51" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="33">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
         <v>3</v>
       </c>
       <c r="B52" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="33">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
         <v>4</v>
       </c>
       <c r="B53" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="33">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
         <v>5</v>
       </c>
       <c r="B54" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="33">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
         <v>6</v>
       </c>
       <c r="B55" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="33">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
         <v>7</v>
       </c>
       <c r="B56" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="33">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
         <v>8</v>
       </c>
       <c r="B57" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="33">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
         <v>9</v>
       </c>
       <c r="B58" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="33">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
         <v>10</v>
       </c>
       <c r="B59" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="33">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
         <v>11</v>
       </c>
       <c r="B60" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="33">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
         <v>12</v>
       </c>
       <c r="B61" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="33">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
         <v>13</v>
       </c>
       <c r="B62" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="33">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
         <v>14</v>
       </c>
       <c r="B63" s="6">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="33">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
         <v>15</v>
       </c>
       <c r="B64" s="6">
@@ -3087,28 +2468,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="12.9666666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
@@ -3125,7 +2505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3142,7 +2522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3159,7 +2539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3173,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3187,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3201,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3215,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3229,7 +2609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3243,7 +2623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3257,7 +2637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3271,7 +2651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -3285,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -3299,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -3313,7 +2693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -3327,7 +2707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -3341,7 +2721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3355,7 +2735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -3369,7 +2749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -3383,7 +2763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -3397,7 +2777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -3411,7 +2791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -3425,7 +2805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -3439,7 +2819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -3453,7 +2833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -3467,7 +2847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -3481,7 +2861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -3495,7 +2875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -3509,7 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -3523,7 +2903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -3537,7 +2917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -3551,7 +2931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -3569,21 +2949,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="14" style="8" customWidth="1"/>
@@ -3595,7 +2974,7 @@
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
@@ -3612,11 +2991,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3629,11 +3008,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3646,11 +3025,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3663,11 +3042,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>126</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3680,11 +3059,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3697,11 +3076,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3714,11 +3093,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3731,11 +3110,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3748,11 +3127,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3765,11 +3144,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3782,11 +3161,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -3799,11 +3178,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3816,11 +3195,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3833,7 +3212,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -3850,11 +3229,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="22" t="s">
         <v>159</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -3867,11 +3246,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>162</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -3884,11 +3263,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3901,11 +3280,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="22" t="s">
         <v>168</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -3918,11 +3297,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15.75" spans="1:5">
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -3935,11 +3314,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:5">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>174</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -3952,11 +3331,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="22" t="s">
         <v>177</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -3969,11 +3348,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22" t="s">
         <v>180</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -3986,11 +3365,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="25" t="s">
         <v>183</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -4003,11 +3382,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="22" t="s">
         <v>186</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -4020,11 +3399,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="25" t="s">
         <v>189</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4037,11 +3416,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="22" t="s">
         <v>192</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -4054,7 +3433,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -4070,12 +3449,15 @@
       <c r="E28" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="L28" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="22" t="s">
         <v>198</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -4088,11 +3470,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="22" t="s">
         <v>201</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4105,11 +3487,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="17">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="22" t="s">
         <v>204</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -4122,180 +3504,179 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1"/>
-    <row r="34" s="6" customFormat="1"/>
-    <row r="35" s="6" customFormat="1"/>
-    <row r="36" s="6" customFormat="1"/>
-    <row r="37" s="6" customFormat="1"/>
-    <row r="38" s="6" customFormat="1"/>
-    <row r="39" s="6" customFormat="1"/>
-    <row r="40" s="6" customFormat="1"/>
-    <row r="41" s="6" customFormat="1"/>
-    <row r="42" s="6" customFormat="1"/>
-    <row r="43" s="6" customFormat="1"/>
-    <row r="44" s="6" customFormat="1"/>
-    <row r="45" s="6" customFormat="1"/>
-    <row r="46" s="6" customFormat="1"/>
-    <row r="47" s="6" customFormat="1"/>
-    <row r="48" s="6" customFormat="1"/>
-    <row r="49" spans="1:5">
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" s="6" customFormat="1"/>
-    <row r="66" s="6" customFormat="1"/>
-    <row r="67" s="6" customFormat="1"/>
-    <row r="68" s="6" customFormat="1"/>
-    <row r="69" s="6" customFormat="1"/>
-    <row r="70" s="6" customFormat="1"/>
-    <row r="71" s="6" customFormat="1"/>
-    <row r="72" s="6" customFormat="1"/>
-    <row r="73" s="6" customFormat="1"/>
-    <row r="74" s="6" customFormat="1"/>
-    <row r="75" s="6" customFormat="1"/>
-    <row r="76" s="6" customFormat="1"/>
-    <row r="77" s="6" customFormat="1"/>
-    <row r="78" s="6" customFormat="1"/>
-    <row r="79" s="6" customFormat="1"/>
-    <row r="80" s="6" customFormat="1"/>
-    <row r="81" s="6" customFormat="1"/>
-    <row r="82" s="6" customFormat="1"/>
-    <row r="83" s="6" customFormat="1"/>
-    <row r="84" s="6" customFormat="1"/>
-    <row r="85" s="6" customFormat="1"/>
-    <row r="86" s="6" customFormat="1"/>
-    <row r="87" s="6" customFormat="1"/>
-    <row r="89" s="6" customFormat="1"/>
-    <row r="90" s="6" customFormat="1"/>
-    <row r="91" s="6" customFormat="1"/>
-    <row r="92" s="6" customFormat="1"/>
-    <row r="93" s="6" customFormat="1"/>
-    <row r="94" s="6" customFormat="1"/>
-    <row r="95" s="6" customFormat="1"/>
-    <row r="96" s="6" customFormat="1"/>
-    <row r="97" s="6" customFormat="1"/>
-    <row r="98" s="6" customFormat="1"/>
-    <row r="99" s="6" customFormat="1"/>
-    <row r="100" s="6" customFormat="1"/>
-    <row r="101" s="6" customFormat="1"/>
-    <row r="102" s="6" customFormat="1"/>
-    <row r="103" s="6" customFormat="1"/>
-    <row r="104" s="6" customFormat="1"/>
-    <row r="105" s="6" customFormat="1"/>
-    <row r="106" s="6" customFormat="1"/>
-    <row r="107" s="6" customFormat="1"/>
-    <row r="108" s="6" customFormat="1"/>
-    <row r="109" s="6" customFormat="1"/>
-    <row r="110" s="6" customFormat="1"/>
-    <row r="111" s="6" customFormat="1"/>
-    <row r="112" s="6" customFormat="1"/>
-    <row r="113" s="6" customFormat="1"/>
-    <row r="114" s="6" customFormat="1"/>
-    <row r="115" s="6" customFormat="1"/>
-    <row r="116" s="6" customFormat="1"/>
-    <row r="117" s="6" customFormat="1"/>
-    <row r="118" s="6" customFormat="1"/>
-    <row r="119" s="6" customFormat="1"/>
-    <row r="120" s="6" customFormat="1"/>
-    <row r="121" s="6" customFormat="1"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="14.25" style="6" customWidth="1"/>
@@ -4305,7 +3686,7 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
@@ -4322,7 +3703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4342,11 +3723,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>213</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -4359,11 +3740,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4376,7 +3757,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -4393,7 +3774,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -4410,7 +3791,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -4427,7 +3808,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4444,11 +3825,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -4461,7 +3842,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -4478,7 +3859,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -4495,11 +3876,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="27" t="s">
         <v>240</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4512,7 +3893,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -4525,14 +3906,14 @@
       <c r="D13" s="8">
         <v>5000</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>245</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -4549,7 +3930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -4569,11 +3950,11 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="27" t="s">
         <v>254</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -4586,11 +3967,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>257</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -4603,11 +3984,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="27" t="s">
         <v>260</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -4623,7 +4004,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -4640,7 +4021,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -4657,14 +4038,14 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="13" t="s">
         <v>271</v>
       </c>
       <c r="D21" s="8">
@@ -4674,14 +4055,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>274</v>
       </c>
       <c r="D22" s="8">
@@ -4691,14 +4072,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>277</v>
       </c>
       <c r="D23" s="8">
@@ -4708,14 +4089,14 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>280</v>
       </c>
       <c r="D24" s="8">
@@ -4725,14 +4106,14 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="17">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
         <v>20</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D25" s="8">
@@ -4742,8 +4123,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -4759,28 +4140,28 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="18">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>5000</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="11" t="s">
         <v>290</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -4793,11 +4174,11 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="11" t="s">
         <v>293</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -4810,11 +4191,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -4827,7 +4208,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -4844,14 +4225,14 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="13" t="s">
         <v>303</v>
       </c>
       <c r="D32" s="8">
@@ -4861,14 +4242,14 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="17">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="13" t="s">
         <v>306</v>
       </c>
       <c r="D33" s="8">
@@ -4878,14 +4259,14 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="21">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>309</v>
       </c>
       <c r="D34" s="8">
@@ -4895,11 +4276,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="18" t="s">
         <v>311</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -4912,575 +4293,574 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-    </row>
-    <row r="75" spans="3:4">
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-    </row>
-    <row r="76" spans="3:4">
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-    </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-    </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-    </row>
-    <row r="94" spans="3:4">
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-    </row>
-    <row r="95" spans="3:4">
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-    </row>
-    <row r="96" spans="3:4">
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-    </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-    </row>
-    <row r="99" spans="3:4">
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-    </row>
-    <row r="103" spans="3:4">
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-    </row>
-    <row r="105" spans="3:4">
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-    </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-    </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-    </row>
-    <row r="117" spans="3:4">
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-    </row>
-    <row r="118" spans="3:4">
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-    </row>
-    <row r="119" spans="3:4">
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-    </row>
-    <row r="120" spans="3:4">
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-    </row>
-    <row r="121" spans="3:4">
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-    </row>
-    <row r="122" spans="3:4">
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-    </row>
-    <row r="123" spans="3:4">
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-    </row>
-    <row r="124" spans="3:4">
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-    </row>
-    <row r="125" spans="3:4">
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-    </row>
-    <row r="126" spans="3:4">
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-    </row>
-    <row r="127" spans="3:4">
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-    </row>
-    <row r="128" spans="3:4">
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-    </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-    </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-    </row>
-    <row r="131" spans="3:4">
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-    </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-    </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-    </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-    </row>
-    <row r="135" spans="3:4">
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-    </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-    </row>
-    <row r="137" spans="3:4">
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-    </row>
-    <row r="138" spans="3:4">
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-    </row>
-    <row r="139" spans="3:4">
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-    </row>
-    <row r="140" spans="3:4">
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
-    </row>
-    <row r="141" spans="3:4">
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
-    </row>
-    <row r="142" spans="3:4">
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-    </row>
-    <row r="143" spans="3:4">
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-    </row>
-    <row r="144" spans="3:4">
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
-    </row>
-    <row r="145" spans="3:4">
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
-    </row>
-    <row r="146" spans="3:4">
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-    </row>
-    <row r="147" spans="3:4">
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-    </row>
-    <row r="148" spans="3:4">
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-    </row>
-    <row r="149" spans="3:4">
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
-    </row>
-    <row r="150" spans="3:4">
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-    </row>
-    <row r="151" spans="3:4">
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
-    </row>
-    <row r="152" spans="3:4">
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-    </row>
-    <row r="153" spans="3:4">
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-    </row>
-    <row r="154" spans="3:4">
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-    </row>
-    <row r="155" spans="3:4">
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-    </row>
-    <row r="156" spans="3:4">
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-    </row>
-    <row r="157" spans="3:4">
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
-    </row>
-    <row r="158" spans="3:4">
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-    </row>
-    <row r="159" spans="3:4">
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-    </row>
-    <row r="160" spans="3:4">
-      <c r="C160" s="23"/>
-      <c r="D160" s="23"/>
-    </row>
-    <row r="161" spans="3:4">
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-    </row>
-    <row r="162" spans="3:4">
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-    </row>
-    <row r="163" spans="3:4">
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-    </row>
-    <row r="164" spans="3:4">
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
-    </row>
-    <row r="165" spans="3:4">
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-    </row>
-    <row r="166" spans="3:4">
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
-    </row>
-    <row r="167" spans="3:4">
-      <c r="C167" s="23"/>
-      <c r="D167" s="23"/>
-    </row>
-    <row r="168" spans="3:4">
-      <c r="C168" s="23"/>
-      <c r="D168" s="23"/>
-    </row>
-    <row r="169" spans="3:4">
-      <c r="C169" s="24"/>
-      <c r="D169" s="24"/>
-    </row>
-    <row r="170" spans="3:4">
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
-    </row>
-    <row r="171" spans="3:4">
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
-    </row>
-    <row r="172" spans="3:4">
-      <c r="C172" s="24"/>
-      <c r="D172" s="24"/>
-    </row>
-    <row r="173" spans="3:4">
-      <c r="C173" s="25"/>
-      <c r="D173" s="25"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="6" customWidth="1"/>
@@ -5489,7 +4869,7 @@
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
@@ -5503,7 +4883,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -5517,7 +4897,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -5529,7 +4909,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -5541,7 +4921,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -5553,7 +4933,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -5565,7 +4945,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -5577,7 +4957,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -5589,7 +4969,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -5601,7 +4981,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -5613,7 +4993,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -5625,7 +5005,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -5637,7 +5017,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -5649,7 +5029,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -5661,7 +5041,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -5673,7 +5053,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -5685,7 +5065,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -5697,7 +5077,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -5709,7 +5089,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -5721,7 +5101,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -5733,7 +5113,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -5745,7 +5125,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5757,7 +5137,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -5769,7 +5149,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -5781,7 +5161,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -5793,7 +5173,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -5805,7 +5185,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -5817,7 +5197,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -5829,7 +5209,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -5841,7 +5221,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -5853,7 +5233,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -5865,7 +5245,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -5877,7 +5257,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -5889,7 +5269,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -5901,7 +5281,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -5913,7 +5293,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -5925,7 +5305,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -5938,29 +5318,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="91" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.6083333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.8833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -5971,7 +5350,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5982,7 +5361,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5993,7 +5372,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6004,7 +5383,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6015,7 +5394,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6026,7 +5405,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6037,7 +5416,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6048,7 +5427,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6059,7 +5438,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6070,7 +5449,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6081,7 +5460,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6092,7 +5471,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6103,7 +5482,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6114,7 +5493,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6125,7 +5504,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6136,7 +5515,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6148,7 +5527,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46075363-5D8A-4589-AC25-445A608CE0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA011FAE-EEFA-4446-92F8-45015CD916E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,15 +589,9 @@
     <t>变为上一个使用的道具</t>
   </si>
   <si>
-    <t>儿童餐</t>
-  </si>
-  <si>
     <t>Kids Meal</t>
   </si>
   <si>
-    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
-  </si>
-  <si>
     <t>圣诞礼物</t>
   </si>
   <si>
@@ -607,15 +601,9 @@
     <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
   </si>
   <si>
-    <t>复活石</t>
-  </si>
-  <si>
     <t>Revive Stone</t>
   </si>
   <si>
-    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
-  </si>
-  <si>
     <t>大垃圾桶</t>
   </si>
   <si>
@@ -760,15 +748,9 @@
     <t>当有Level_3方块时生效，Level_3方块出现的权重提高200%，额外倍率x3</t>
   </si>
   <si>
-    <t>攻击的巨人</t>
-  </si>
-  <si>
     <t>Attack on Giant</t>
   </si>
   <si>
-    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
-  </si>
-  <si>
     <t>深邃黑暗幻想</t>
   </si>
   <si>
@@ -802,15 +784,9 @@
     <t>一格一格移动</t>
   </si>
   <si>
-    <t>便宜仓库</t>
-  </si>
-  <si>
     <t>Cheap Warehouse</t>
   </si>
   <si>
-    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
-  </si>
-  <si>
     <t>流星雨</t>
   </si>
   <si>
@@ -820,15 +796,9 @@
     <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
   </si>
   <si>
-    <t>临期食品</t>
-  </si>
-  <si>
     <t>Advent Food</t>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1，下开始先恢复原来的基础分</t>
-  </si>
-  <si>
     <t>增加的分数视为临时基础分，其他道具效果仅作用与常规基础分</t>
   </si>
   <si>
@@ -850,15 +820,9 @@
     <t>键盘上下、左右按键功能调换，额外倍率x3</t>
   </si>
   <si>
-    <t>朝九晚五</t>
-  </si>
-  <si>
     <t>Routine Work</t>
   </si>
   <si>
-    <t>每轮游戏开始时的剩余时间变为固定95秒</t>
-  </si>
-  <si>
     <t>子弹时间</t>
   </si>
   <si>
@@ -868,15 +832,9 @@
     <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
   </si>
   <si>
-    <t>沼泽地</t>
-  </si>
-  <si>
     <t>Marsh Land</t>
   </si>
   <si>
-    <t>每经过10秒即会自动强行消除最底下一行方块，额外倍率x2</t>
-  </si>
-  <si>
     <t>独木桥</t>
   </si>
   <si>
@@ -886,15 +844,9 @@
     <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x3</t>
   </si>
   <si>
-    <t>超超超贵宾</t>
-  </si>
-  <si>
     <t>SSSVIP</t>
   </si>
   <si>
-    <t>胡牌时每种奖励可以选择2个</t>
-  </si>
-  <si>
     <t>奥义很爽</t>
   </si>
   <si>
@@ -910,33 +862,15 @@
     <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
   </si>
   <si>
-    <t>不稳定电流</t>
-  </si>
-  <si>
     <t>Unstable Current</t>
   </si>
   <si>
-    <t>每经过6秒即增加或减少1~36基础分（最低为1），每轮游戏开始会先恢复原来的基础分</t>
-  </si>
-  <si>
-    <t>新能源</t>
-  </si>
-  <si>
     <t>Renewable Energy</t>
   </si>
   <si>
-    <t>每次胡牌的时间奖励加20秒</t>
-  </si>
-  <si>
-    <t>人人平等</t>
-  </si>
-  <si>
     <t>All Men are Equal</t>
   </si>
   <si>
-    <t>所有形状的方块所提供的方块倍率变为3</t>
-  </si>
-  <si>
     <t>大革命</t>
   </si>
   <si>
@@ -964,13 +898,7 @@
     <t>每次消除多行时会视为一行来进行麻将牌型判断</t>
   </si>
   <si>
-    <t>强者世界</t>
-  </si>
-  <si>
     <t>Strong World</t>
-  </si>
-  <si>
-    <t>每次胡牌后随机加入一个Level 3方块，方块倍率x5</t>
   </si>
   <si>
     <t>空手道大师</t>
@@ -1207,6 +1135,102 @@
   </si>
   <si>
     <t>增加音效控制功能</t>
+  </si>
+  <si>
+    <t>儿童餐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活石</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击的巨人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜仓库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>临期食品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1，下开始先恢复原来的基础分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝九晚五</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时的剩余时间变为固定95秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过10秒即会自动强行消除最底下一行方块，额外倍率x2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>超超超贵宾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时每种奖励可以选择2个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定电流</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过6秒即增加或减少1~36基础分（最低为1），每轮游戏开始会先恢复原来的基础分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次胡牌的时间奖励加20秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人平等</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有形状的方块所提供的方块倍率变为3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>强者世界</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次胡牌后随机加入一个Level 3方块，方块倍率x5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1214,12 +1238,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1289,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1319,7 +1350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,7 +1390,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1377,13 +1408,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1398,11 +1429,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2959,7 +2999,7 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3369,17 +3409,17 @@
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="D24" s="8">
         <v>2000</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>185</v>
+      <c r="E24" s="28" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -3387,33 +3427,33 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D25" s="8">
         <v>2000</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>189</v>
+      <c r="B26" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D26" s="8">
         <v>2000</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>191</v>
+      <c r="E26" s="28" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -3421,16 +3461,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -3438,16 +3478,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L28" s="6">
         <v>72</v>
@@ -3458,16 +3498,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D29" s="8">
         <v>3000</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
@@ -3475,16 +3515,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D30" s="8">
         <v>3000</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
@@ -3492,16 +3532,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D31" s="8">
         <v>120000</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3673,7 +3713,7 @@
   <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3691,10 +3731,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>115</v>
@@ -3708,19 +3748,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3728,16 +3768,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3745,16 +3785,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D4" s="8">
         <v>5000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3762,16 +3802,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3779,16 +3819,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D6" s="8">
         <v>5000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3796,16 +3836,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3813,16 +3853,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3830,16 +3870,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D9" s="8">
         <v>5000</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3847,16 +3887,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D10" s="8">
         <v>5000</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3864,33 +3904,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>240</v>
+      <c r="B12" s="29" t="s">
+        <v>365</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D12" s="8">
         <v>5000</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>242</v>
+      <c r="E12" s="28" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3898,19 +3938,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D13" s="8">
         <v>5000</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3918,16 +3958,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3935,36 +3975,36 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D15" s="8">
         <v>5000</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>254</v>
+      <c r="B16" s="29" t="s">
+        <v>367</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D16" s="8">
         <v>5000</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>256</v>
+      <c r="E16" s="28" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3972,36 +4012,36 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D17" s="8">
         <v>5000</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>260</v>
+      <c r="B18" s="29" t="s">
+        <v>369</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>262</v>
+      <c r="E18" s="28" t="s">
+        <v>370</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -4009,16 +4049,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D19" s="8">
         <v>5000</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -4026,33 +4066,33 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D20" s="8">
         <v>5000</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>270</v>
+      <c r="B21" s="30" t="s">
+        <v>371</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D21" s="8">
         <v>5000</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>272</v>
+      <c r="E21" s="28" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -4060,33 +4100,33 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>276</v>
+      <c r="B23" s="30" t="s">
+        <v>373</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D23" s="8">
         <v>5000</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>278</v>
+      <c r="E23" s="28" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -4094,33 +4134,33 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D24" s="8">
         <v>5000</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>20</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>282</v>
+      <c r="B25" s="30" t="s">
+        <v>375</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D25" s="8">
         <v>120000</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>284</v>
+      <c r="E25" s="28" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -4128,16 +4168,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D26" s="8">
         <v>200000</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -4148,64 +4188,64 @@
         <v>47</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D27" s="15">
         <v>5000</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>290</v>
+      <c r="B28" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D28" s="8">
         <v>5000</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>292</v>
+      <c r="E28" s="28" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>293</v>
+      <c r="B29" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D29" s="8">
         <v>5000</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>295</v>
+      <c r="E29" s="28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>296</v>
+      <c r="B30" s="30" t="s">
+        <v>381</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D30" s="8">
         <v>5000</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>298</v>
+      <c r="E30" s="28" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -4213,16 +4253,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D31" s="8">
         <v>5000</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -4230,16 +4270,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D32" s="8">
         <v>5000</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -4247,33 +4287,33 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D33" s="8">
         <v>120000</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>308</v>
+      <c r="B34" s="30" t="s">
+        <v>383</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D34" s="8">
         <v>5000</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>310</v>
+      <c r="E34" s="28" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -4281,16 +4321,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -4877,10 +4917,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4891,10 +4931,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4906,7 +4946,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -4918,7 +4958,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -4930,7 +4970,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4942,7 +4982,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -4954,7 +4994,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -4966,7 +5006,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4978,7 +5018,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -4990,7 +5030,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -5002,7 +5042,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -5014,7 +5054,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -5026,7 +5066,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5038,7 +5078,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5050,7 +5090,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5062,7 +5102,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -5074,7 +5114,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5086,7 +5126,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5098,7 +5138,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5110,7 +5150,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5122,7 +5162,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5134,7 +5174,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5146,7 +5186,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5158,7 +5198,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5170,7 +5210,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5182,7 +5222,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5194,7 +5234,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -5206,7 +5246,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -5218,7 +5258,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5230,7 +5270,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5242,7 +5282,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5254,7 +5294,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5266,7 +5306,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5278,7 +5318,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5290,7 +5330,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5302,7 +5342,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5314,7 +5354,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5344,10 +5384,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5355,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5366,10 +5406,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5377,10 +5417,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5388,10 +5428,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5399,10 +5439,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5410,10 +5450,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5421,10 +5461,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5432,10 +5472,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5443,10 +5483,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5454,10 +5494,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5465,10 +5505,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5476,10 +5516,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5487,10 +5527,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5498,10 +5538,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5509,10 +5549,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5520,10 +5560,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA011FAE-EEFA-4446-92F8-45015CD916E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8842DA8B-F096-4EDC-9461-91FBCCEF8702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="387">
   <si>
     <t>规范术语</t>
   </si>
@@ -1230,6 +1230,14 @@
   </si>
   <si>
     <t>每次胡牌后随机加入一个Level 3方块，方块倍率x5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈数参数暴露</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在setting面板自由调整凑成一圈所需的轮数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1243,7 +1251,7 @@
     <numFmt numFmtId="178" formatCode="0.00000_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1300,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1350,7 +1365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,11 +1453,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2999,7 +3026,7 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:E28"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3409,7 +3436,7 @@
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="30" t="s">
         <v>361</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3712,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3920,7 +3947,7 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>365</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -3994,7 +4021,7 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>367</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -4028,7 +4055,7 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="31" t="s">
         <v>369</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -4082,7 +4109,7 @@
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="32" t="s">
         <v>371</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4116,7 +4143,7 @@
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="32" t="s">
         <v>373</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -4150,7 +4177,7 @@
       <c r="A25" s="14">
         <v>20</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>375</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -4201,7 +4228,7 @@
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>377</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -4218,7 +4245,7 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="32" t="s">
         <v>379</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -4235,7 +4262,7 @@
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>381</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -4303,7 +4330,7 @@
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>383</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -5365,10 +5392,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5566,6 +5593,17 @@
         <v>360</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8842DA8B-F096-4EDC-9461-91FBCCEF8702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F2FA0-F07B-43D1-AC0C-B6C266A7597E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="393">
   <si>
     <t>规范术语</t>
   </si>
@@ -508,15 +508,9 @@
     <t>获得100金币</t>
   </si>
   <si>
-    <t>磁铁</t>
-  </si>
-  <si>
     <t>Magnet</t>
   </si>
   <si>
-    <t>当有胡牌区有刻子时，且场上有这个刻子对应的牌，将该牌加入刻子形成杠牌（满足多个刻子牌时随机一个加入）</t>
-  </si>
-  <si>
     <t>垃圾筒</t>
   </si>
   <si>
@@ -613,12 +607,6 @@
     <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
   </si>
   <si>
-    <t>悬赏令</t>
-  </si>
-  <si>
-    <t>Wanted Poster</t>
-  </si>
-  <si>
     <t>下次达成目标的金币奖励x3</t>
   </si>
   <si>
@@ -694,24 +682,12 @@
     <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
   </si>
   <si>
-    <t>延迟满足</t>
-  </si>
-  <si>
     <t>Delay of Gratification</t>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行及以上时基础分+8，胡牌后重置效果</t>
-  </si>
-  <si>
-    <t>麻将博士</t>
-  </si>
-  <si>
     <t>Dr. Mahjong</t>
   </si>
   <si>
-    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
-  </si>
-  <si>
     <t>老派玩家</t>
   </si>
   <si>
@@ -724,9 +700,6 @@
     <t>狂战士</t>
   </si>
   <si>
-    <t>Berserker</t>
-  </si>
-  <si>
     <t>每次胡牌会随机选择奖励，并在每轮游戏开始时使用所有可用道具，额外倍率x4</t>
   </si>
   <si>
@@ -820,30 +793,6 @@
     <t>键盘上下、左右按键功能调换，额外倍率x3</t>
   </si>
   <si>
-    <t>Routine Work</t>
-  </si>
-  <si>
-    <t>子弹时间</t>
-  </si>
-  <si>
-    <t>Bullet Time</t>
-  </si>
-  <si>
-    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
-  </si>
-  <si>
-    <t>Marsh Land</t>
-  </si>
-  <si>
-    <t>独木桥</t>
-  </si>
-  <si>
-    <t>Log Bridge</t>
-  </si>
-  <si>
-    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x3</t>
-  </si>
-  <si>
     <t>SSSVIP</t>
   </si>
   <si>
@@ -862,49 +811,13 @@
     <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
   </si>
   <si>
-    <t>Unstable Current</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>All Men are Equal</t>
-  </si>
-  <si>
-    <t>大革命</t>
-  </si>
-  <si>
-    <t>Great Revolution</t>
-  </si>
-  <si>
-    <t>每次胡牌后都会随机相同数量的方块，额外倍率x5</t>
-  </si>
-  <si>
     <t>三位一体</t>
   </si>
   <si>
-    <t>Trinity</t>
-  </si>
-  <si>
     <t>每次“碰”都会增加本局游戏基础分+5，方块倍率-15（最低为1）</t>
   </si>
   <si>
-    <t>合纵连横</t>
-  </si>
-  <si>
-    <t>Realpolitik</t>
-  </si>
-  <si>
-    <t>每次消除多行时会视为一行来进行麻将牌型判断</t>
-  </si>
-  <si>
-    <t>Strong World</t>
-  </si>
-  <si>
     <t>空手道大师</t>
-  </si>
-  <si>
-    <t>Karate Master</t>
   </si>
   <si>
     <t>不可使用道具，额外倍率x4</t>
@@ -1141,10 +1054,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>接下来60秒只会出现Lv1的方块，期间胡牌则效果停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>复活石</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1239,6 +1148,150 @@
   <si>
     <t>可以在setting面板自由调整凑成一圈所需的轮数</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berserker</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Routine Work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet Time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swamp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log Bridge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unstable Current</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Men are Equal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大革命</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Revolution</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Realpolitik</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong World</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karate Master</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有胡牌区有刻子时，且场上有这个刻子对应的牌，将该牌加入刻子形成杠牌（满足多个刻子牌时随机一个加入）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wanted Poster</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏令</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟满足</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行及以上时基础分+8，胡牌后重置效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次胡牌后都会随机相同数量的方块，额外倍率x5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>独木桥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合纵连横</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次消除多行时会视为一行来进行麻将牌型判断</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻将博士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运瓶盖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky Cap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次胡牌选择的奖励方块会获得2个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60秒内只会出现Lv1的方块，期间胡牌则效果停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40秒内不会出现Lv3的方块，期间胡牌则效果停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1365,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,6 +1523,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3023,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3283,17 +3348,17 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="D15" s="8">
         <v>500</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>158</v>
+      <c r="E15" s="28" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3301,292 +3366,391 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="8">
         <v>500</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" s="8">
         <v>500</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D18" s="8">
         <v>500</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D19" s="8">
         <v>500</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="8">
+        <v>500</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" s="8">
+        <v>500</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="9" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="8">
+      <c r="C24" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="22" t="s">
+      <c r="E24" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="9" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="D25" s="8">
         <v>2000</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>363</v>
+      <c r="B26" s="30" t="s">
+        <v>332</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D26" s="8">
         <v>2000</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>191</v>
+      <c r="B28" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D28" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L28" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="8">
-        <v>3000</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="8">
-        <v>3000</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D31" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="8">
         <v>120000</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="E33" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+    </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
@@ -3617,24 +3781,24 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
@@ -3695,8 +3859,8 @@
     <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3728,6 +3892,8 @@
     <row r="119" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="120" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="121" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3739,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3758,10 +3924,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>115</v>
@@ -3775,19 +3941,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3795,16 +3961,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3812,16 +3978,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D4" s="8">
         <v>5000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3829,50 +3995,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>218</v>
+      <c r="B6" s="31" t="s">
+        <v>375</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D6" s="8">
         <v>5000</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>220</v>
+      <c r="E6" s="28" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>221</v>
+      <c r="B7" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>223</v>
+      <c r="E7" s="28" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3880,16 +4046,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3897,16 +4063,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="D9" s="8">
         <v>5000</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3914,16 +4080,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D10" s="8">
         <v>5000</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3931,16 +4097,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3948,16 +4114,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D12" s="8">
         <v>5000</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3965,19 +4131,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D13" s="8">
         <v>5000</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3985,16 +4151,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -4002,19 +4168,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D15" s="8">
         <v>5000</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -4022,16 +4188,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D16" s="8">
         <v>5000</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -4039,16 +4205,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D17" s="8">
         <v>5000</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -4056,19 +4222,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -4076,16 +4242,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D19" s="8">
         <v>5000</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -4093,16 +4259,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D20" s="8">
         <v>5000</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -4110,33 +4276,33 @@
         <v>20</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>260</v>
+        <v>341</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>358</v>
       </c>
       <c r="D21" s="8">
         <v>5000</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>262</v>
+      <c r="B22" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>359</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>263</v>
+      <c r="E22" s="28" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -4144,50 +4310,50 @@
         <v>22</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>264</v>
+        <v>343</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>360</v>
       </c>
       <c r="D23" s="8">
         <v>5000</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>266</v>
+      <c r="B24" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="D24" s="8">
         <v>5000</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>267</v>
+      <c r="E24" s="28" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>20</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>375</v>
+      <c r="B25" s="32" t="s">
+        <v>345</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D25" s="8">
         <v>120000</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -4195,16 +4361,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D26" s="8">
         <v>200000</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -4215,30 +4381,30 @@
         <v>47</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D27" s="15">
         <v>5000</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>274</v>
+      <c r="B28" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>362</v>
       </c>
       <c r="D28" s="8">
         <v>5000</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -4246,50 +4412,50 @@
         <v>27</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>275</v>
+        <v>349</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>363</v>
       </c>
       <c r="D29" s="8">
         <v>5000</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>276</v>
+      <c r="B30" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>364</v>
       </c>
       <c r="D30" s="8">
         <v>5000</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>278</v>
+      <c r="B31" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>366</v>
       </c>
       <c r="D31" s="8">
         <v>5000</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>279</v>
+      <c r="E31" s="28" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -4297,33 +4463,33 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>281</v>
+        <v>257</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>367</v>
       </c>
       <c r="D32" s="8">
         <v>5000</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>284</v>
+      <c r="B33" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>368</v>
       </c>
       <c r="D33" s="8">
         <v>120000</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>285</v>
+      <c r="E33" s="28" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -4331,16 +4497,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>286</v>
+        <v>353</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>369</v>
       </c>
       <c r="D34" s="8">
         <v>5000</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -4348,16 +4514,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>288</v>
+        <v>259</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>370</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -4944,10 +5110,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4958,10 +5124,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4973,7 +5139,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -4985,7 +5151,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -4997,7 +5163,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5009,7 +5175,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -5021,7 +5187,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5033,7 +5199,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -5045,7 +5211,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -5057,7 +5223,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -5069,7 +5235,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -5081,7 +5247,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -5093,7 +5259,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5105,7 +5271,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5117,7 +5283,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5129,7 +5295,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -5141,7 +5307,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5153,7 +5319,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5165,7 +5331,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5177,7 +5343,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5189,7 +5355,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5201,7 +5367,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5213,7 +5379,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5225,7 +5391,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5237,7 +5403,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5249,7 +5415,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5261,7 +5427,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -5273,7 +5439,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -5285,7 +5451,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5297,7 +5463,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5309,7 +5475,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5321,7 +5487,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5333,7 +5499,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5345,7 +5511,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5357,7 +5523,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5369,7 +5535,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5381,7 +5547,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5411,10 +5577,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5422,10 +5588,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5433,10 +5599,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5444,10 +5610,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5455,10 +5621,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5466,10 +5632,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5477,10 +5643,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5488,10 +5654,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5499,10 +5665,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5510,10 +5676,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5521,10 +5687,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5532,10 +5698,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5543,10 +5709,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5554,10 +5720,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5565,10 +5731,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5576,10 +5742,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5587,10 +5753,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5598,10 +5764,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F2FA0-F07B-43D1-AC0C-B6C266A7597E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62FB005-3F85-4B4D-AD66-CAA4879B14DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -1418,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1500,9 +1500,6 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1518,12 +1515,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1533,8 +1524,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3090,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3348,7 +3342,7 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>371</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -3357,7 +3351,7 @@
       <c r="D15" s="8">
         <v>500</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3433,16 +3427,16 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="34" t="s">
         <v>387</v>
       </c>
       <c r="D20" s="8">
         <v>500</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3450,16 +3444,16 @@
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>390</v>
       </c>
       <c r="D21" s="8">
         <v>500</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3535,7 +3529,7 @@
       <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>332</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -3544,7 +3538,7 @@
       <c r="D26" s="8">
         <v>2000</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3569,7 +3563,7 @@
       <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>333</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -3578,7 +3572,7 @@
       <c r="D28" s="8">
         <v>2000</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3603,10 +3597,10 @@
       <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="34" t="s">
         <v>373</v>
       </c>
       <c r="D30" s="8">
@@ -3905,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4011,7 +4005,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>375</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -4020,7 +4014,7 @@
       <c r="D6" s="8">
         <v>5000</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4028,7 +4022,7 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>384</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -4037,7 +4031,7 @@
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4045,7 +4039,7 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -4113,7 +4107,7 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>335</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4122,7 +4116,7 @@
       <c r="D12" s="8">
         <v>5000</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4187,7 +4181,7 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>337</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -4196,7 +4190,7 @@
       <c r="D16" s="8">
         <v>5000</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4221,7 +4215,7 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>339</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -4230,7 +4224,7 @@
       <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>340</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -4275,16 +4269,16 @@
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="32" t="s">
         <v>358</v>
       </c>
       <c r="D21" s="8">
         <v>5000</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4292,16 +4286,16 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="32" t="s">
         <v>359</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>381</v>
       </c>
     </row>
@@ -4309,16 +4303,16 @@
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="32" t="s">
         <v>360</v>
       </c>
       <c r="D23" s="8">
         <v>5000</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4326,16 +4320,16 @@
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="32" t="s">
         <v>361</v>
       </c>
       <c r="D24" s="8">
         <v>5000</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4343,7 +4337,7 @@
       <c r="A25" s="14">
         <v>20</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>345</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -4352,7 +4346,7 @@
       <c r="D25" s="8">
         <v>120000</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4394,16 +4388,16 @@
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>362</v>
       </c>
       <c r="D28" s="8">
         <v>5000</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4411,16 +4405,16 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="33" t="s">
         <v>363</v>
       </c>
       <c r="D29" s="8">
         <v>5000</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4428,16 +4422,16 @@
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="33" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="8">
         <v>5000</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4445,16 +4439,16 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="33" t="s">
         <v>366</v>
       </c>
       <c r="D31" s="8">
         <v>5000</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4465,7 +4459,7 @@
       <c r="B32" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="32" t="s">
         <v>367</v>
       </c>
       <c r="D32" s="8">
@@ -4479,16 +4473,16 @@
       <c r="A33" s="14">
         <v>31</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="32" t="s">
         <v>368</v>
       </c>
       <c r="D33" s="8">
         <v>120000</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="27" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4496,16 +4490,16 @@
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="32" t="s">
         <v>369</v>
       </c>
       <c r="D34" s="8">
         <v>5000</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="27" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4516,7 +4510,7 @@
       <c r="B35" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>370</v>
       </c>
       <c r="D35" s="8">
@@ -5560,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5760,13 +5754,13 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>356</v>
       </c>
     </row>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62FB005-3F85-4B4D-AD66-CAA4879B14DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DBF124-C43E-4B8A-BF8D-CEEC620601D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="391">
   <si>
     <t>规范术语</t>
   </si>
@@ -803,12 +803,6 @@
   </si>
   <si>
     <t>额外倍率x16</t>
-  </si>
-  <si>
-    <t>Pair Age</t>
-  </si>
-  <si>
-    <t>消行时只会将对子放入胡牌区，胡牌牌型改为七对类牌型，方块下落速度+50%，胡牌延长时间-30秒</t>
   </si>
   <si>
     <t>三位一体</t>
@@ -1366,7 +1360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,6 +1397,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1418,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1464,12 +1464,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1503,9 +1497,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,6 +1520,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,7 +1828,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1929,7 +1938,7 @@
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>2</v>
       </c>
       <c r="C13" s="8">
@@ -1947,7 +1956,7 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>4</v>
       </c>
       <c r="C14" s="8">
@@ -2052,7 +2061,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="8">
@@ -2064,7 +2073,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="8">
@@ -2076,7 +2085,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="8">
@@ -2088,7 +2097,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="8">
@@ -2107,7 +2116,7 @@
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="24">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
@@ -2122,7 +2131,7 @@
       <c r="L24" s="6">
         <v>10</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2137,7 +2146,7 @@
       <c r="L25" s="6">
         <v>15</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="24">
         <f t="shared" si="1"/>
         <v>1.3333333333333299</v>
       </c>
@@ -2167,7 +2176,7 @@
       <c r="L26" s="6">
         <v>20</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2198,7 +2207,7 @@
       <c r="L27" s="6">
         <v>25</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="24">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -2229,7 +2238,7 @@
       <c r="L28" s="6">
         <v>30</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="24">
         <f t="shared" si="1"/>
         <v>0.66666666666666696</v>
       </c>
@@ -2260,7 +2269,7 @@
       <c r="L29" s="6">
         <v>35</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="24">
         <f t="shared" si="1"/>
         <v>0.57142857142857095</v>
       </c>
@@ -2276,7 +2285,7 @@
       <c r="L30" s="6">
         <v>40</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="24">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3084,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3121,7 +3130,7 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3138,7 +3147,7 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3155,7 +3164,7 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3172,7 +3181,7 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3189,7 +3198,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3206,7 +3215,7 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3223,7 +3232,7 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3240,7 +3249,7 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3257,7 +3266,7 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3274,7 +3283,7 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3291,7 +3300,7 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -3308,7 +3317,7 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3325,7 +3334,7 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3342,8 +3351,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>371</v>
+      <c r="B15" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>156</v>
@@ -3351,15 +3360,15 @@
       <c r="D15" s="8">
         <v>500</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>372</v>
+      <c r="E15" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -3376,7 +3385,7 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -3393,7 +3402,7 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3410,7 +3419,7 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -3427,41 +3436,41 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>387</v>
+      <c r="B20" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>385</v>
       </c>
       <c r="D20" s="8">
         <v>500</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>388</v>
+      <c r="E20" s="25" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>390</v>
+      <c r="B21" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="D21" s="8">
         <v>500</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>392</v>
+      <c r="E21" s="25" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>169</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -3478,7 +3487,7 @@
       <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>172</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -3495,7 +3504,7 @@
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3512,7 +3521,7 @@
       <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>178</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -3529,8 +3538,8 @@
       <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>332</v>
+      <c r="B26" s="26" t="s">
+        <v>330</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>181</v>
@@ -3538,15 +3547,15 @@
       <c r="D26" s="8">
         <v>2000</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>391</v>
+      <c r="E26" s="25" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>182</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -3563,8 +3572,8 @@
       <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>333</v>
+      <c r="B28" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>185</v>
@@ -3572,15 +3581,15 @@
       <c r="D28" s="8">
         <v>2000</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>334</v>
+      <c r="E28" s="25" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -3597,11 +3606,11 @@
       <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>373</v>
+      <c r="B30" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>371</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
@@ -3614,7 +3623,7 @@
       <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>190</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -3631,7 +3640,7 @@
       <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>193</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -3648,7 +3657,7 @@
       <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>196</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -3897,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3971,7 +3980,7 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4005,8 +4014,8 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>375</v>
+      <c r="B6" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>214</v>
@@ -4014,16 +4023,16 @@
       <c r="D6" s="8">
         <v>5000</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>376</v>
+      <c r="E6" s="25" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>384</v>
+      <c r="B7" s="27" t="s">
+        <v>382</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>215</v>
@@ -4031,8 +4040,8 @@
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>385</v>
+      <c r="E7" s="25" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4056,11 +4065,11 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>219</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" s="8">
         <v>5000</v>
@@ -4107,8 +4116,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>335</v>
+      <c r="B12" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>227</v>
@@ -4116,8 +4125,8 @@
       <c r="D12" s="8">
         <v>5000</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>336</v>
+      <c r="E12" s="25" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -4181,8 +4190,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>337</v>
+      <c r="B16" s="27" t="s">
+        <v>335</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>239</v>
@@ -4190,8 +4199,8 @@
       <c r="D16" s="8">
         <v>5000</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>338</v>
+      <c r="E16" s="25" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -4215,8 +4224,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>339</v>
+      <c r="B18" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>243</v>
@@ -4224,8 +4233,8 @@
       <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>340</v>
+      <c r="E18" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>244</v>
@@ -4269,76 +4278,76 @@
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>358</v>
+      <c r="B21" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>356</v>
       </c>
       <c r="D21" s="8">
         <v>5000</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>342</v>
+      <c r="E21" s="25" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>359</v>
+      <c r="B22" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>357</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>381</v>
+      <c r="E22" s="25" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>360</v>
+      <c r="B23" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>358</v>
       </c>
       <c r="D23" s="8">
         <v>5000</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>344</v>
+      <c r="E23" s="25" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>361</v>
+      <c r="B24" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="D24" s="8">
         <v>5000</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>379</v>
+      <c r="E24" s="25" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>20</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>345</v>
+      <c r="B25" s="28" t="s">
+        <v>343</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>251</v>
@@ -4346,8 +4355,8 @@
       <c r="D25" s="8">
         <v>120000</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>346</v>
+      <c r="E25" s="25" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -4368,36 +4377,36 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="15">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="15">
+      <c r="B27" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" s="8">
         <v>5000</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>256</v>
+      <c r="E27" s="25" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>362</v>
+      <c r="C28" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="D28" s="8">
         <v>5000</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4405,16 +4414,16 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="C29" s="33" t="s">
-        <v>363</v>
+      <c r="C29" s="30" t="s">
+        <v>362</v>
       </c>
       <c r="D29" s="8">
         <v>5000</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="25" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4422,655 +4431,638 @@
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>364</v>
       </c>
       <c r="D30" s="8">
         <v>5000</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>352</v>
+      <c r="E30" s="25" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>365</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>366</v>
       </c>
       <c r="D31" s="8">
         <v>5000</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>377</v>
+      <c r="E31" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="8">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="8">
+        <v>120000</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>5000</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="14">
-        <v>31</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="D33" s="8">
-        <v>120000</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>383</v>
+      <c r="E33" s="25" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>369</v>
+      <c r="B34" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>368</v>
       </c>
       <c r="D34" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>354</v>
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="8">
-        <v>33</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>260</v>
-      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C169" s="20"/>
-      <c r="D169" s="20"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C173" s="21"/>
-      <c r="D173" s="21"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5104,10 +5096,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5118,10 +5110,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5133,7 +5125,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -5145,7 +5137,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -5157,7 +5149,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5169,7 +5161,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -5181,7 +5173,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5193,7 +5185,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -5205,7 +5197,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -5217,7 +5209,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -5229,7 +5221,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -5241,7 +5233,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -5253,7 +5245,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5265,7 +5257,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5277,7 +5269,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5289,7 +5281,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -5301,7 +5293,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5313,7 +5305,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5325,7 +5317,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5337,7 +5329,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5349,7 +5341,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5361,7 +5353,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5373,7 +5365,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5385,7 +5377,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5397,7 +5389,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5409,7 +5401,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5421,7 +5413,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -5433,7 +5425,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -5445,7 +5437,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5457,7 +5449,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5469,7 +5461,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5481,7 +5473,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5493,7 +5485,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5505,7 +5497,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5517,7 +5509,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5529,7 +5521,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5541,7 +5533,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5554,14 +5546,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="70.875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
@@ -5571,10 +5563,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5582,21 +5574,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="38" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5604,10 +5596,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5615,10 +5607,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5626,10 +5618,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5637,10 +5629,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5648,10 +5640,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5659,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5670,21 +5662,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="36" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5692,10 +5684,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5703,10 +5695,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5714,10 +5706,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5725,10 +5717,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5736,10 +5728,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5747,21 +5739,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>356</v>
+      <c r="B18" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DBF124-C43E-4B8A-BF8D-CEEC620601D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A58B86E-CB3F-4F2B-AB32-4ABE511DBE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="394">
   <si>
     <t>规范术语</t>
   </si>
@@ -544,9 +544,6 @@
     <t>Skip Button</t>
   </si>
   <si>
-    <t>胡牌轮数+2，方块下降速度+2</t>
-  </si>
-  <si>
     <t>仙酒</t>
   </si>
   <si>
@@ -689,9 +686,6 @@
   </si>
   <si>
     <t>老派玩家</t>
-  </si>
-  <si>
-    <t>Old School</t>
   </si>
   <si>
     <t>胡牌时所有牌型都视为平胡，消行分数调整为：基础分x2^（连续消行数量）</t>
@@ -1285,6 +1279,26 @@
   </si>
   <si>
     <t>40秒内不会出现Lv3的方块，期间胡牌则效果停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除条约</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按条约2秒可移除条约，确定后会在下次胡牌时删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old School</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌轮数+2，方块下降速度+2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次胡牌即视为完成这圈游戏，方块下降速度+2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,9 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1506,9 +1517,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,6 +1545,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1808,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1828,7 +1851,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1938,12 +1961,12 @@
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="23">
-        <v>2</v>
+      <c r="B13" s="22">
+        <v>3</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>27</v>
@@ -1956,7 +1979,7 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>4</v>
       </c>
       <c r="C14" s="8">
@@ -2029,11 +2052,11 @@
         <v>41</v>
       </c>
       <c r="B18" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>42</v>
@@ -2061,7 +2084,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="8">
@@ -2073,7 +2096,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="8">
@@ -2085,7 +2108,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="8">
@@ -2097,7 +2120,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="8">
@@ -2116,7 +2139,7 @@
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="23">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
@@ -2131,7 +2154,7 @@
       <c r="L24" s="6">
         <v>10</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2146,7 +2169,7 @@
       <c r="L25" s="6">
         <v>15</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="23">
         <f t="shared" si="1"/>
         <v>1.3333333333333299</v>
       </c>
@@ -2176,7 +2199,7 @@
       <c r="L26" s="6">
         <v>20</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2207,7 +2230,7 @@
       <c r="L27" s="6">
         <v>25</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="23">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -2238,7 +2261,7 @@
       <c r="L28" s="6">
         <v>30</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="23">
         <f t="shared" si="1"/>
         <v>0.66666666666666696</v>
       </c>
@@ -2269,7 +2292,7 @@
       <c r="L29" s="6">
         <v>35</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="23">
         <f t="shared" si="1"/>
         <v>0.57142857142857095</v>
       </c>
@@ -2285,7 +2308,7 @@
       <c r="L30" s="6">
         <v>40</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="23">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3091,10 +3114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3130,7 +3153,7 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3147,7 +3170,7 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3164,7 +3187,7 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3181,7 +3204,7 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>126</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3198,7 +3221,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3215,7 +3238,7 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>132</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3232,7 +3255,7 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3249,7 +3272,7 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3266,7 +3289,7 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3283,7 +3306,7 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3300,7 +3323,7 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -3317,7 +3340,7 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3334,7 +3357,7 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>153</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3351,8 +3374,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>369</v>
+      <c r="B15" s="25" t="s">
+        <v>367</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>156</v>
@@ -3360,15 +3383,15 @@
       <c r="D15" s="8">
         <v>500</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>370</v>
+      <c r="E15" s="24" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -3381,11 +3404,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -3398,11 +3421,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3415,11 +3438,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -3428,246 +3451,249 @@
       <c r="D19" s="8">
         <v>500</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>385</v>
+      <c r="B20" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>383</v>
       </c>
       <c r="D20" s="8">
         <v>500</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E20" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>388</v>
+      <c r="B21" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>386</v>
       </c>
       <c r="D21" s="8">
         <v>500</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
+      <c r="E21" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="C24" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="D25" s="8">
         <v>2000</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="D26" s="8">
         <v>2000</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
+      <c r="E26" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
-        <v>27</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="D28" s="8">
         <v>2000</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
+      <c r="E28" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="D29" s="8">
         <v>2000</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="14">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>371</v>
+      <c r="B30" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>369</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="14">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20" t="s">
+      <c r="C31" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="D31" s="8">
         <v>3000</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="14">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="D32" s="8">
         <v>3000</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="14">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20" t="s">
+      <c r="C33" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="D33" s="8">
         <v>120000</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -3909,7 +3935,7 @@
   <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3927,10 +3953,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>115</v>
@@ -3944,19 +3970,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3964,33 +3990,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="D4" s="8">
         <v>5000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3998,50 +4024,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>214</v>
+      <c r="B6" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="D6" s="8">
         <v>5000</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>374</v>
+      <c r="E6" s="24" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>215</v>
+      <c r="B7" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>383</v>
+      <c r="E7" s="24" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4049,16 +4075,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>391</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4066,16 +4092,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>355</v>
+        <v>217</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="D9" s="8">
         <v>5000</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4083,16 +4109,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="D10" s="8">
         <v>5000</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4100,33 +4126,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>227</v>
+      <c r="B12" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="D12" s="8">
         <v>5000</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>334</v>
+      <c r="E12" s="24" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -4134,19 +4160,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="D13" s="8">
         <v>5000</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -4154,16 +4180,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>231</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -4171,36 +4197,36 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>234</v>
       </c>
       <c r="D15" s="8">
         <v>5000</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>239</v>
+      <c r="B16" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="D16" s="8">
         <v>5000</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>336</v>
+      <c r="E16" s="24" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -4208,36 +4234,36 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="D17" s="8">
         <v>5000</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>337</v>
+      <c r="B18" s="26" t="s">
+        <v>335</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>338</v>
+      <c r="E18" s="24" t="s">
+        <v>336</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -4245,16 +4271,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="D19" s="8">
         <v>5000</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -4262,807 +4288,807 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="D20" s="8">
         <v>5000</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>356</v>
+      <c r="B21" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>354</v>
       </c>
       <c r="D21" s="8">
         <v>5000</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>340</v>
+      <c r="E21" s="24" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>357</v>
+      <c r="B22" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>355</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>379</v>
+      <c r="E22" s="24" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>358</v>
+      <c r="B23" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>356</v>
       </c>
       <c r="D23" s="8">
         <v>5000</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>342</v>
+      <c r="E23" s="24" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>359</v>
+      <c r="B24" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>357</v>
       </c>
       <c r="D24" s="8">
         <v>5000</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>377</v>
+      <c r="E24" s="24" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
-        <v>20</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>251</v>
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>249</v>
       </c>
       <c r="D25" s="8">
         <v>120000</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>344</v>
+      <c r="E25" s="24" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
-        <v>24</v>
+      <c r="A26" s="13">
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="D26" s="8">
         <v>200000</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>360</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>358</v>
       </c>
       <c r="D27" s="8">
         <v>5000</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>346</v>
+      <c r="E27" s="24" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>361</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>359</v>
       </c>
       <c r="D28" s="8">
         <v>5000</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>348</v>
+      <c r="E28" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
-        <v>27</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>362</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>360</v>
       </c>
       <c r="D29" s="8">
         <v>5000</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>350</v>
+      <c r="E29" s="24" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
-        <v>28</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>364</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>362</v>
       </c>
       <c r="D30" s="8">
         <v>5000</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>375</v>
+      <c r="E30" s="24" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
-        <v>29</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>365</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>363</v>
       </c>
       <c r="D31" s="8">
         <v>5000</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="14">
-        <v>30</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>366</v>
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>364</v>
       </c>
       <c r="D32" s="8">
         <v>120000</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>381</v>
+      <c r="E32" s="24" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>367</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>365</v>
       </c>
       <c r="D33" s="8">
         <v>5000</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>352</v>
+      <c r="E33" s="24" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
-        <v>32</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>368</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>366</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5096,10 +5122,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5110,10 +5136,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5125,7 +5151,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -5137,7 +5163,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -5149,7 +5175,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5161,7 +5187,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -5173,7 +5199,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5185,7 +5211,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -5197,7 +5223,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -5209,7 +5235,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -5221,7 +5247,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -5233,7 +5259,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -5245,7 +5271,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5257,7 +5283,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5269,7 +5295,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5281,7 +5307,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -5293,7 +5319,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5305,7 +5331,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5317,7 +5343,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5329,7 +5355,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5341,7 +5367,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5353,7 +5379,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5365,7 +5391,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5377,7 +5403,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5389,7 +5415,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5401,7 +5427,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5413,7 +5439,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -5425,7 +5451,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -5437,7 +5463,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5449,7 +5475,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5461,7 +5487,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5473,7 +5499,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5485,7 +5511,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5497,7 +5523,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5509,7 +5535,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5521,7 +5547,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5533,7 +5559,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5544,10 +5570,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5563,10 +5589,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5574,21 +5600,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="36" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5596,10 +5622,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5607,10 +5633,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5618,10 +5644,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5629,10 +5655,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5640,10 +5666,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5651,10 +5677,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5662,21 +5688,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="34" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5684,10 +5710,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5695,10 +5721,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5706,10 +5732,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5717,10 +5743,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5728,10 +5754,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5739,21 +5765,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>354</v>
+      <c r="B18" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A58B86E-CB3F-4F2B-AB32-4ABE511DBE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7075A5C8-5792-40CC-85BD-8D82DA2B9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="405">
   <si>
     <t>规范术语</t>
   </si>
@@ -397,54 +397,36 @@
     <t>Juice</t>
   </si>
   <si>
-    <t>本局游戏基础分+3</t>
-  </si>
-  <si>
     <t>功能饮料</t>
   </si>
   <si>
     <t>Energy Drink</t>
   </si>
   <si>
-    <t>本轮游戏基础分+8，胡牌后移除效果</t>
-  </si>
-  <si>
     <t>类固醇</t>
   </si>
   <si>
     <t>Steroid</t>
   </si>
   <si>
-    <t>本轮游戏基础分加16，胡牌后基础分减32，再次胡牌移除效果</t>
-  </si>
-  <si>
     <t>气球</t>
   </si>
   <si>
     <t>Balloon</t>
   </si>
   <si>
-    <t>本局游戏方块下降速度-3</t>
-  </si>
-  <si>
     <t>降落伞</t>
   </si>
   <si>
     <t>Parachute</t>
   </si>
   <si>
-    <t>本轮游戏方块下降速度-8，胡牌后移除效果</t>
-  </si>
-  <si>
     <t>喷气背包</t>
   </si>
   <si>
     <t>Jet Pack</t>
   </si>
   <si>
-    <t>接下来10个方块的下降速度-15（最低为1）</t>
-  </si>
-  <si>
     <t>炸弹</t>
   </si>
   <si>
@@ -469,45 +451,30 @@
     <t>Hourglass</t>
   </si>
   <si>
-    <t>倒计时+40秒</t>
-  </si>
-  <si>
     <t>停表</t>
   </si>
   <si>
     <t>Stopwatch</t>
   </si>
   <si>
-    <t>本轮游戏增加5次暂停时间，胡牌后恢复为2次</t>
-  </si>
-  <si>
     <t>微波炉</t>
   </si>
   <si>
     <t>Microwave Oven</t>
   </si>
   <si>
-    <t>将下一个方块换成相同小方块数量的其他形状</t>
-  </si>
-  <si>
     <t>橡皮擦</t>
   </si>
   <si>
     <t>Eraser</t>
   </si>
   <si>
-    <t>将上一组加入胡牌区的牌放回牌库</t>
-  </si>
-  <si>
     <t>代金券</t>
   </si>
   <si>
     <t>Voucher</t>
   </si>
   <si>
-    <t>获得100金币</t>
-  </si>
-  <si>
     <t>Magnet</t>
   </si>
   <si>
@@ -517,27 +484,18 @@
     <t>Trash Bin</t>
   </si>
   <si>
-    <t>下次消除的行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-  </si>
-  <si>
     <t>方尖塔</t>
   </si>
   <si>
     <t>Obelisk</t>
   </si>
   <si>
-    <t>下一个形状会是7格长条方块</t>
-  </si>
-  <si>
     <t>试用小样</t>
   </si>
   <si>
     <t>Sample</t>
   </si>
   <si>
-    <t>下次胡牌额外获得2个Dot方块</t>
-  </si>
-  <si>
     <t>快进按钮</t>
   </si>
   <si>
@@ -550,36 +508,24 @@
     <t>Elixir Wine</t>
   </si>
   <si>
-    <t>本局游戏基础分x2</t>
-  </si>
-  <si>
     <t>优惠券</t>
   </si>
   <si>
     <t>Coupon</t>
   </si>
   <si>
-    <t>当前目标分数减20%</t>
-  </si>
-  <si>
     <t>超级炸弹</t>
   </si>
   <si>
     <t>Super Bomb</t>
   </si>
   <si>
-    <t>强行消除最底下5行</t>
-  </si>
-  <si>
     <t>黄金镜</t>
   </si>
   <si>
     <t>Gold Mirror</t>
   </si>
   <si>
-    <t>变为上一个使用的道具</t>
-  </si>
-  <si>
     <t>Kids Meal</t>
   </si>
   <si>
@@ -589,9 +535,6 @@
     <t>Xmas Gift</t>
   </si>
   <si>
-    <t>当胡牌区的牌组小于4组且牌库中有可以组成刻子或顺子的牌时可以使用，随机将一组牌加入胡牌区</t>
-  </si>
-  <si>
     <t>Revive Stone</t>
   </si>
   <si>
@@ -601,39 +544,24 @@
     <t>Big Trash Bin</t>
   </si>
   <si>
-    <t>使用后3次消行不会进行判定是会被直接移除，胡牌后恢复为正常牌库</t>
-  </si>
-  <si>
-    <t>下次达成目标的金币奖励x3</t>
-  </si>
-  <si>
     <t>点金手</t>
   </si>
   <si>
     <t>Hand of Midas</t>
   </si>
   <si>
-    <t>使用后20秒内每次消除行会给与金币，初始为1，此后每多消除一行给与的金币x2，期间胡牌则效果停止</t>
-  </si>
-  <si>
     <t>计分板</t>
   </si>
   <si>
     <t>Scoreboard</t>
   </si>
   <si>
-    <t>使用后20秒内每次消除行会给增加当前得分的5%，期间胡牌则效果停止</t>
-  </si>
-  <si>
     <t>神之救济</t>
   </si>
   <si>
     <t>God's Salvation</t>
   </si>
   <si>
-    <t>本局游戏基础分+18，方块下落速度-8，倒计时+80秒，强行消除最底下3行</t>
-  </si>
-  <si>
     <t>名称 CH</t>
   </si>
   <si>
@@ -646,9 +574,6 @@
     <t>Speed Star</t>
   </si>
   <si>
-    <t>方块下降速度增加10，额外倍率x2</t>
-  </si>
-  <si>
     <t>每次胡牌方块下降速度额外+1，额外倍率x2</t>
   </si>
   <si>
@@ -658,27 +583,18 @@
     <t>1/9 Remover</t>
   </si>
   <si>
-    <t>移除所有的1和9的牌，方块倍率-12（最低为1）</t>
-  </si>
-  <si>
     <t>缺一门</t>
   </si>
   <si>
     <t>Suit Remover</t>
   </si>
   <si>
-    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
-  </si>
-  <si>
     <t>备用口袋</t>
   </si>
   <si>
     <t>Spare Pocket</t>
   </si>
   <si>
-    <t>增加2个道具槽位，方块倍率-8（最低为1）</t>
-  </si>
-  <si>
     <t>Delay of Gratification</t>
   </si>
   <si>
@@ -688,33 +604,21 @@
     <t>老派玩家</t>
   </si>
   <si>
-    <t>胡牌时所有牌型都视为平胡，消行分数调整为：基础分x2^（连续消行数量）</t>
-  </si>
-  <si>
     <t>狂战士</t>
   </si>
   <si>
-    <t>每次胡牌会随机选择奖励，并在每轮游戏开始时使用所有可用道具，额外倍率x4</t>
-  </si>
-  <si>
     <t>混淆视听</t>
   </si>
   <si>
     <t>Blurred Vision</t>
   </si>
   <si>
-    <t>胡牌牌型仅2种花面时，也视为清一色牌型，方块倍率-16（最低为1）</t>
-  </si>
-  <si>
     <t>超算力</t>
   </si>
   <si>
     <t>Hyper Hashrate</t>
   </si>
   <si>
-    <t>当有Level_3方块时生效，Level_3方块出现的权重提高200%，额外倍率x3</t>
-  </si>
-  <si>
     <t>Attack on Giant</t>
   </si>
   <si>
@@ -724,9 +628,6 @@
     <t>Deep Dark Fantasy</t>
   </si>
   <si>
-    <t>方块落地后会在3秒逐渐变暗直到看不见牌面，额外倍率x4</t>
-  </si>
-  <si>
     <t>方块落地后会在10秒内逐渐变暗直到看不见牌面，额外倍率x4</t>
   </si>
   <si>
@@ -736,18 +637,12 @@
     <t>Time is Money</t>
   </si>
   <si>
-    <t>每次胡牌不奖励倒计时时间，目标金币奖励x2</t>
-  </si>
-  <si>
     <t>台风天气</t>
   </si>
   <si>
     <t>Typhoon</t>
   </si>
   <si>
-    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
-  </si>
-  <si>
     <t>一格一格移动</t>
   </si>
   <si>
@@ -760,9 +655,6 @@
     <t>Meteor Shower</t>
   </si>
   <si>
-    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
-  </si>
-  <si>
     <t>Advent Food</t>
   </si>
   <si>
@@ -775,18 +667,12 @@
     <t>No Gravity</t>
   </si>
   <si>
-    <t>方块中的麻将随机旋转方向，额外倍率x2</t>
-  </si>
-  <si>
     <t>戏法空间</t>
   </si>
   <si>
     <t>Trick Room</t>
   </si>
   <si>
-    <t>键盘上下、左右按键功能调换，额外倍率x3</t>
-  </si>
-  <si>
     <t>SSSVIP</t>
   </si>
   <si>
@@ -796,19 +682,10 @@
     <t>Ultimate Impact</t>
   </si>
   <si>
-    <t>额外倍率x16</t>
-  </si>
-  <si>
     <t>三位一体</t>
   </si>
   <si>
-    <t>每次“碰”都会增加本局游戏基础分+5，方块倍率-15（最低为1）</t>
-  </si>
-  <si>
     <t>空手道大师</t>
-  </si>
-  <si>
-    <t>不可使用道具，额外倍率x4</t>
   </si>
   <si>
     <t>成就标题</t>
@@ -1046,50 +923,26 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>使用后本轮游戏如果游戏失败则会将场上所有牌返回牌库，然后倒计时增加30秒后继续游戏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击的巨人</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每次新一轮游戏第一个块会变成巨人方块，方块倍率+36</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>便宜仓库</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>当剩余牌库中的牌低于36张时游戏失败，额外倍率x2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>临期食品</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分+120，然后每秒-1直到降为1，下开始先恢复原来的基础分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>朝九晚五</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每轮游戏开始时的剩余时间变为固定95秒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>沼泽地</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每经过10秒即会自动强行消除最底下一行方块，额外倍率x2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>超超超贵宾</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1102,34 +955,18 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每经过6秒即增加或减少1~36基础分（最低为1），每轮游戏开始会先恢复原来的基础分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>新能源</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每次胡牌的时间奖励加20秒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>人人平等</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>所有形状的方块所提供的方块倍率变为3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>强者世界</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每次胡牌后随机加入一个Level 3方块，方块倍率x5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>圈数参数暴露</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1198,10 +1035,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>当有胡牌区有刻子时，且场上有这个刻子对应的牌，将该牌加入刻子形成杠牌（满足多个刻子牌时随机一个加入）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Wanted Poster</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1214,46 +1047,22 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每轮游戏开始胡牌基础分-10，每次一次性消除4行及以上时基础分+8，胡牌后重置效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次胡牌后都会随机相同数量的方块，额外倍率x5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>独木桥</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>胡牌时每种胡牌奖励数量变为1个，额外倍率x3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹时间</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>当场上有方块高度超过10时，方块下降速度变为5，倒计时时间流逝速度减慢为20%；</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>合纵连横</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每次消除多行时会视为一行来进行麻将牌型判断</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>麻将博士</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>胡牌时如果是平胡，额外倍率x0，且无法选择奖励，其他牌型的计算番数倍率时底数从2变为3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>幸运瓶盖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1262,10 +1071,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>下一次胡牌选择的奖励方块会获得2个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>漏斗</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1274,14 +1079,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>60秒内只会出现Lv1的方块，期间胡牌则效果停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40秒内不会出现Lv3的方块，期间胡牌则效果停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>删除条约</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1294,12 +1091,282 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>胡牌轮数+2，方块下降速度+2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>下一次胡牌即视为完成这圈游戏，方块下降速度+2</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏增加5次暂停时间，胡牌后恢复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将下一个方块替换成相同方块数量的其他形状</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将上一组加入胡牌区的牌放回牌库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得100金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次消除的行不会进行判定而是会被直接移除，胡牌后恢复为正常牌库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次胡牌额外获得2个1格方块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个形状会变为7格长条方块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次胡牌选择的方块奖励会额外增加1个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前目标分数-20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强行消除底下5行方块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用效果复制上一个使用的道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60秒内只会出现1格的方块，期间胡牌则效果停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有胡牌区有刻子时，且场上有这个刻子的牌，加入该牌形成杠牌（满足多个刻子时随机）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当胡牌区牌组小于4组且牌库中存在可以组成刻子或顺子的牌时，随机将一组牌加入胡牌区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来3次消除的行不会进行判定而是会被直接移除，胡牌后恢复为正常牌库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前目标的金币奖励x3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20秒内每次消除行会给与金币，初始为1，此后每消除1行金币奖励x2，期间胡牌效果中止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40秒内不会出现5格方块，期间胡牌效果中止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20秒内每次消除行会给增加当前得分的5%，期间胡牌效果中止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时所有牌型都视为平胡，消行分数调整为：基础分x2的“连续消行数量”次方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3^xxx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时不再增加游戏时间，目标金币奖励x2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当场上有方块高度超过10时，方块下降速度变为5，游戏时间流逝速度减慢为20%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时，剩余游戏时间变为固定95秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次消除多行时会视为一行来进行麻将判定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时游戏时间奖励+20秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF595E</t>
+  </si>
+  <si>
+    <t>FFCA3A</t>
+  </si>
+  <si>
+    <t>3296DC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整局游戏&lt;color=#3296DC&gt;基础分+3&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏&lt;color=#3296DC&gt;基础分+8&lt;/color&gt;，胡牌后恢复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏&lt;color=#3296DC&gt;基础分+16&lt;/color&gt;，胡牌后&lt;color=#3296DC&gt;基础分-32&lt;/color&gt;（最低为1），再次胡牌后恢复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整局游戏当前&lt;color=#3296DC&gt;基础分x2&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>36BA98</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整局游戏方块&lt;color=#36BA98&gt;下降速度-3&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏方块&lt;color=#36BA98&gt;下降速度-8&lt;/color&gt;，胡牌后恢复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来10个方块的&lt;color=#36BA98&gt;下降速度-15&lt;/color&gt;（最低为1），期间胡牌效果中止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余&lt;color=#36BA98&gt;游戏时间+40秒&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈数计数+2，方块&lt;color=#36BA98&gt;下降速度+2&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏如果游戏失败则会将场上所有牌返回牌库，&lt;color=#36BA98&gt;游戏时间+30秒&lt;/color&gt;，然后继续游戏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整局游戏&lt;color=#3296DC&gt;基础分+18&lt;/color&gt;，方块&lt;color=#36BA98&gt;下落速度-8&lt;/color&gt;，&lt;color=#36BA98&gt;游戏时间+80秒&lt;/color&gt;，强行消除底下3行方块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFCA3A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3296DC&gt;基础分+3&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF595E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除所有数字1和9的牌，&lt;color=#FF595E&gt;方块倍率-12（最低为1）&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机移除一种花色所有的牌，&lt;color=#FF595E&gt;方块倍率-16（最低为1）&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加2个道具槽位，&lt;color=#FF595E&gt;方块倍率-8&lt;/color&gt;（最低为1）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时如牌型仅2种花面，视为“清一色”牌型，&lt;color=#FF595E&gt;方块倍率-16&lt;/color&gt;（最低为1）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时，第1个方块固定是“巨人方块”，&lt;color=#FF595E&gt;方块倍率+36&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有形状的方块所提供的&lt;color=#FF595E&gt;方块倍率变为3&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF595E&gt;方块倍率-15&lt;/color&gt;（最低为1），每次将“刻子”牌加入胡牌区时，整局游戏基础分+5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过6秒&lt;color=#3296DC&gt;基础分增加或减少1~36&lt;/color&gt;（最低为1），胡牌后重置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时，胡牌&lt;color=#3296DC&gt;基础分+120&lt;/color&gt;，之后&lt;color=#3296DC&gt;每秒-1&lt;/color&gt;（最低为1），胡牌后重置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时，&lt;color=#3296DC&gt;基础分-10&lt;/color&gt;（最低为1），每当一次性消除4行及以上时&lt;color=#3296DC&gt;基础分+8&lt;/color&gt;，胡牌后重置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>E682E6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块&lt;color=#36BA98&gt;下降速度+10&lt;/color&gt;，&lt;color=#E682E6&gt;额外倍率x2&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>胡牌时如果是平胡，&lt;color=#E682E6&gt;额外倍率x0&lt;/color&gt;，且无奖励，其他牌型计算番数倍率时底数从2变为3</t>
+  </si>
+  <si>
+    <t>胡牌时会自动随机选择奖励，并在游戏开始时自动使用所有可用道具，&lt;color=#E682E6&gt;额外倍率x4&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>当有5格方块时生效，5格方块出现的权重提高200%，&lt;color=#E682E6&gt;额外倍率x3&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>方块落地后牌面会在3秒内逐渐变为黑色，&lt;color=#E682E6&gt;额外倍率x4&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>方块下落时每2秒会随机往左或右移动1~2格，&lt;color=#E682E6&gt;额外倍率x2&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>当牌库中剩余的牌低于36张时游戏失败，&lt;color=#E682E6&gt;额外倍率x2&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>方块有10%的概率以25的速度下落，&lt;color=#E682E6&gt;额外倍率x2&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>方块中的麻将牌面会随机旋转方向，&lt;color=#E682E6&gt;额外倍率x2&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>键盘上下、左右按键功能调换，&lt;color=#E682E6&gt;额外倍率x3&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每经过10秒即会强行消除最底下一行方块，&lt;color=#E682E6&gt;额外倍率x2&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>胡牌时每种奖励的数量减为1个，&lt;color=#E682E6&gt;额外倍率x3&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#E682E6&gt;额外倍率x16&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每轮游戏开始时，会将方块列表中所有方块随机变为其他方块，&lt;color=#E682E6&gt;额外倍率x5&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>胡牌时强行加入随机一个5格方块，&lt;color=#E682E6&gt;额外倍率x5&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>不可使用道具，&lt;color=#E682E6&gt;额外倍率x4&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1441,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1417,6 +1484,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1432,7 +1505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1465,12 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1561,6 +1628,15 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,7 +1927,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1961,7 +2037,7 @@
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>3</v>
       </c>
       <c r="C13" s="8">
@@ -1979,7 +2055,7 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>4</v>
       </c>
       <c r="C14" s="8">
@@ -2084,7 +2160,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="8">
@@ -2096,7 +2172,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="8">
@@ -2108,7 +2184,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="8">
@@ -2120,7 +2196,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="8">
@@ -2139,7 +2215,7 @@
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="21">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
@@ -2154,7 +2230,7 @@
       <c r="L24" s="6">
         <v>10</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2169,7 +2245,7 @@
       <c r="L25" s="6">
         <v>15</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="21">
         <f t="shared" si="1"/>
         <v>1.3333333333333299</v>
       </c>
@@ -2199,7 +2275,7 @@
       <c r="L26" s="6">
         <v>20</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2230,7 +2306,7 @@
       <c r="L27" s="6">
         <v>25</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="21">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -2261,7 +2337,7 @@
       <c r="L28" s="6">
         <v>30</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="21">
         <f t="shared" si="1"/>
         <v>0.66666666666666696</v>
       </c>
@@ -2292,7 +2368,7 @@
       <c r="L29" s="6">
         <v>35</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="21">
         <f t="shared" si="1"/>
         <v>0.57142857142857095</v>
       </c>
@@ -2308,7 +2384,7 @@
       <c r="L30" s="6">
         <v>40</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="21">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3114,25 +3190,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="14" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="76" style="6" customWidth="1"/>
+    <col min="3" max="4" width="1.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="115.25" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
     <col min="7" max="11" width="9.875" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
@@ -3149,11 +3224,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3162,538 +3237,555 @@
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>123</v>
+      <c r="B4" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="8">
         <v>500</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>126</v>
+      <c r="B5" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>129</v>
+      <c r="B6" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E6" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>132</v>
+      <c r="B7" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D7" s="8">
         <v>500</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>135</v>
+      <c r="B8" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>138</v>
+      <c r="B9" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D9" s="8">
         <v>500</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>141</v>
+      <c r="B10" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>144</v>
+      <c r="B11" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D11" s="8">
         <v>500</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E11" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>147</v>
+      <c r="B12" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D12" s="8">
         <v>500</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E12" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>150</v>
+      <c r="B13" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E13" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>153</v>
+      <c r="B14" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E14" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>367</v>
+      <c r="B15" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D15" s="8">
         <v>500</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E15" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>157</v>
+      <c r="B16" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D16" s="8">
         <v>500</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>159</v>
+      <c r="E16" s="22" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>160</v>
+      <c r="B17" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D17" s="8">
         <v>500</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>162</v>
+      <c r="E17" s="22" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>163</v>
+      <c r="B18" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D18" s="8">
         <v>500</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>165</v>
+      <c r="E18" s="22" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>166</v>
+      <c r="B19" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D19" s="8">
         <v>500</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>393</v>
+      <c r="E19" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>383</v>
+      <c r="B20" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>325</v>
       </c>
       <c r="D20" s="8">
         <v>500</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>384</v>
+      <c r="E20" s="22" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>386</v>
+      <c r="B21" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="D21" s="8">
         <v>500</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>388</v>
+      <c r="E21" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>168</v>
+      <c r="B22" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>170</v>
+      <c r="E22" s="36" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>171</v>
+      <c r="B23" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>173</v>
+      <c r="E23" s="36" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>174</v>
+      <c r="B24" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>176</v>
+      <c r="E24" s="22" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>177</v>
+      <c r="B25" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D25" s="8">
         <v>2000</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>179</v>
+      <c r="E25" s="22" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>328</v>
+      <c r="B26" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D26" s="8">
         <v>2000</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>387</v>
+      <c r="E26" s="22" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>181</v>
+      <c r="B27" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>183</v>
+      <c r="E27" s="22" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>329</v>
+      <c r="B28" s="23" t="s">
+        <v>288</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D28" s="8">
         <v>2000</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>330</v>
+      <c r="E28" s="22" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>185</v>
+      <c r="B29" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D29" s="8">
         <v>2000</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>187</v>
+      <c r="E29" s="22" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>369</v>
+      <c r="B30" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>188</v>
+      <c r="E30" s="22" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>189</v>
+      <c r="B31" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D31" s="8">
         <v>3000</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>191</v>
+      <c r="E31" s="22" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>192</v>
+      <c r="B32" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D32" s="8">
         <v>3000</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>194</v>
+      <c r="E32" s="22" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>195</v>
+      <c r="B33" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D33" s="8">
         <v>120000</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>197</v>
+      <c r="E33" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E34" s="22" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -3932,31 +4024,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="14.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16" style="6"/>
-    <col min="5" max="5" width="91.875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="3" max="4" width="5.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="102.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9" style="6"/>
+    <col min="12" max="12" width="34.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>115</v>
@@ -3965,268 +4058,292 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>201</v>
+        <v>176</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>202</v>
+      <c r="E2" s="41" t="s">
+        <v>389</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>205</v>
+        <v>179</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E3" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>208</v>
+      <c r="B4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="D4" s="8">
         <v>5000</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E4" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>211</v>
+        <v>183</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E5" s="43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>213</v>
+      <c r="B6" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="D6" s="8">
         <v>5000</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E6" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>214</v>
+      <c r="B7" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>391</v>
+        <v>187</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>330</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E8" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>353</v>
+        <v>188</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="D9" s="8">
         <v>5000</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E9" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>220</v>
+        <v>189</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="D10" s="8">
         <v>5000</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E10" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>223</v>
+        <v>191</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>225</v>
+      <c r="B12" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="D12" s="8">
         <v>5000</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>227</v>
+        <v>194</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>195</v>
       </c>
       <c r="D13" s="8">
         <v>5000</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>228</v>
+      <c r="E13" s="42" t="s">
+        <v>393</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>231</v>
+        <v>197</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>234</v>
+        <v>199</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="D15" s="8">
         <v>5000</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>235</v>
+      <c r="E15" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>237</v>
+      <c r="B16" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="D16" s="8">
         <v>5000</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>334</v>
+      <c r="E16" s="22" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -4234,36 +4351,36 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>239</v>
+        <v>203</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="D17" s="8">
         <v>5000</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>240</v>
+      <c r="E17" s="22" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>335</v>
+      <c r="B18" s="24" t="s">
+        <v>291</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>336</v>
+      <c r="E18" s="22" t="s">
+        <v>386</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -4271,16 +4388,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>244</v>
+        <v>207</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="D19" s="8">
         <v>5000</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>245</v>
+      <c r="E19" s="22" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -4288,807 +4405,810 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>247</v>
+        <v>209</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>210</v>
       </c>
       <c r="D20" s="8">
         <v>5000</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>248</v>
+      <c r="E20" s="22" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>354</v>
+      <c r="B21" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="D21" s="8">
         <v>5000</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>338</v>
+      <c r="E21" s="22" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>355</v>
+      <c r="B22" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>304</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>377</v>
+      <c r="E22" s="22" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>356</v>
+      <c r="B23" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="D23" s="8">
         <v>5000</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>340</v>
+      <c r="E23" s="22" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>357</v>
+      <c r="B24" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>306</v>
       </c>
       <c r="D24" s="8">
         <v>5000</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>375</v>
+      <c r="E24" s="22" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>249</v>
+      <c r="B25" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>211</v>
       </c>
       <c r="D25" s="8">
         <v>120000</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>342</v>
+      <c r="E25" s="22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>251</v>
+        <v>212</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="D26" s="8">
         <v>200000</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>252</v>
+      <c r="E26" s="22" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>358</v>
+      <c r="B27" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>307</v>
       </c>
       <c r="D27" s="8">
         <v>5000</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>344</v>
+      <c r="E27" s="22" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>359</v>
+      <c r="B28" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>308</v>
       </c>
       <c r="D28" s="8">
         <v>5000</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>346</v>
+      <c r="E28" s="22" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>360</v>
+      <c r="B29" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>309</v>
       </c>
       <c r="D29" s="8">
         <v>5000</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>348</v>
+      <c r="E29" s="22" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>362</v>
+      <c r="B30" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>311</v>
       </c>
       <c r="D30" s="8">
         <v>5000</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>373</v>
+      <c r="E30" s="22" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>363</v>
+      <c r="B31" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>312</v>
       </c>
       <c r="D31" s="8">
         <v>5000</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>254</v>
+      <c r="E31" s="22" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>364</v>
+      <c r="B32" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>313</v>
       </c>
       <c r="D32" s="8">
         <v>120000</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>379</v>
+      <c r="E32" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>365</v>
+      <c r="B33" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>314</v>
       </c>
       <c r="D33" s="8">
         <v>5000</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>350</v>
+      <c r="E33" s="22" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>366</v>
+      <c r="B34" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>315</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>256</v>
+      <c r="E34" s="22" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="22" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5122,10 +5242,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5136,10 +5256,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5151,7 +5271,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -5163,7 +5283,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -5175,7 +5295,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5187,7 +5307,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -5199,7 +5319,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5211,7 +5331,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -5223,7 +5343,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -5235,7 +5355,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -5247,7 +5367,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -5259,7 +5379,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -5271,7 +5391,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5283,7 +5403,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5295,7 +5415,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5307,7 +5427,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -5319,7 +5439,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5331,7 +5451,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5343,7 +5463,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5355,7 +5475,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5367,7 +5487,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5379,7 +5499,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5391,7 +5511,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5403,7 +5523,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5415,7 +5535,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5427,7 +5547,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5439,7 +5559,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -5451,7 +5571,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -5463,7 +5583,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5475,7 +5595,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5487,7 +5607,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5499,7 +5619,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5511,7 +5631,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5523,7 +5643,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5535,7 +5655,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5547,7 +5667,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5559,7 +5679,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5589,10 +5709,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5600,21 +5720,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>301</v>
+      <c r="B3" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5622,10 +5742,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5633,10 +5753,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5644,10 +5764,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5655,10 +5775,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5666,10 +5786,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5677,10 +5797,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5688,21 +5808,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>315</v>
+      <c r="B11" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5710,10 +5830,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5721,10 +5841,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5732,10 +5852,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5743,10 +5863,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5754,10 +5874,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5765,32 +5885,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>352</v>
+      <c r="B18" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>390</v>
+      <c r="B19" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7075A5C8-5792-40CC-85BD-8D82DA2B9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3DA1F-E19D-47A8-8332-6B726F098609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -1363,10 +1363,11 @@
     <t>每轮游戏开始时，会将方块列表中所有方块随机变为其他方块，&lt;color=#E682E6&gt;额外倍率x5&lt;/color&gt;</t>
   </si>
   <si>
+    <t>不可使用道具，&lt;color=#E682E6&gt;额外倍率x4&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>胡牌时强行加入随机一个5格方块，&lt;color=#E682E6&gt;额外倍率x5&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>不可使用道具，&lt;color=#E682E6&gt;额外倍率x4&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3193,7 +3194,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4026,8 +4027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4635,7 +4636,7 @@
         <v>5000</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -4652,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3DA1F-E19D-47A8-8332-6B726F098609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EEB6D8-ACDC-4CCE-AF61-DEACCF692433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -3194,14 +3194,15 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="14" style="8" customWidth="1"/>
-    <col min="3" max="4" width="1.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="115.25" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
     <col min="7" max="11" width="9.875" style="6" customWidth="1"/>
@@ -4028,14 +4029,15 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="14.25" style="6" customWidth="1"/>
-    <col min="3" max="4" width="5.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="102.875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="9" style="6"/>
     <col min="12" max="12" width="34.5" style="6" bestFit="1" customWidth="1"/>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EEB6D8-ACDC-4CCE-AF61-DEACCF692433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BD5E6-2801-4440-A16D-174CCD7D5CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -685,9 +685,6 @@
     <t>三位一体</t>
   </si>
   <si>
-    <t>空手道大师</t>
-  </si>
-  <si>
     <t>成就标题</t>
   </si>
   <si>
@@ -1191,10 +1188,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>当场上有方块高度超过10时，方块下降速度变为5，游戏时间流逝速度减慢为20%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>每轮游戏开始时，剩余游戏时间变为固定95秒</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1367,6 +1360,14 @@
   </si>
   <si>
     <t>胡牌时强行加入随机一个5格方块，&lt;color=#E682E6&gt;额外倍率x5&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空手道大师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当场上有方块高度超过8时，方块下降速度变为5，游戏时间流逝速度减慢为20%</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3194,14 +3195,14 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="14" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="115.25" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
@@ -3240,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3260,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3280,10 +3281,10 @@
         <v>500</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3300,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -3317,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3337,7 +3338,7 @@
         <v>500</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -3388,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3405,7 +3406,7 @@
         <v>500</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -3422,7 +3423,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3439,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -3456,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -3464,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>145</v>
@@ -3473,7 +3474,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -3490,7 +3491,7 @@
         <v>500</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3507,7 +3508,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3524,7 +3525,7 @@
         <v>500</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3541,10 +3542,10 @@
         <v>500</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3552,16 +3553,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>325</v>
       </c>
       <c r="D20" s="8">
         <v>500</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3569,16 +3570,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>326</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>327</v>
       </c>
       <c r="D21" s="8">
         <v>500</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -3595,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -3612,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -3629,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -3646,7 +3647,7 @@
         <v>2000</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -3654,7 +3655,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>162</v>
@@ -3663,7 +3664,7 @@
         <v>2000</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3680,7 +3681,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -3688,7 +3689,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>165</v>
@@ -3697,7 +3698,7 @@
         <v>2000</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -3714,7 +3715,7 @@
         <v>2000</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -3722,16 +3723,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -3748,7 +3749,7 @@
         <v>3000</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -3765,7 +3766,7 @@
         <v>3000</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -3782,12 +3783,12 @@
         <v>120000</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E34" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -4029,7 +4030,7 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4075,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>178</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4098,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -4118,16 +4119,16 @@
         <v>5000</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -4144,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -4152,7 +4153,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>185</v>
@@ -4161,13 +4162,13 @@
         <v>5000</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -4175,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>186</v>
@@ -4184,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -4195,16 +4196,16 @@
         <v>187</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>353</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -4215,13 +4216,13 @@
         <v>188</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D9" s="8">
         <v>5000</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4238,7 +4239,7 @@
         <v>5000</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -4255,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -4263,7 +4264,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>193</v>
@@ -4272,7 +4273,7 @@
         <v>5000</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -4289,7 +4290,7 @@
         <v>5000</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>196</v>
@@ -4309,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -4326,7 +4327,7 @@
         <v>5000</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>201</v>
@@ -4337,7 +4338,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>202</v>
@@ -4346,7 +4347,7 @@
         <v>5000</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -4363,7 +4364,7 @@
         <v>5000</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -4371,7 +4372,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>205</v>
@@ -4380,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>206</v>
@@ -4400,7 +4401,7 @@
         <v>5000</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -4417,7 +4418,7 @@
         <v>5000</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -4425,16 +4426,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D21" s="8">
         <v>5000</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -4442,16 +4443,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -4459,16 +4460,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D23" s="8">
         <v>5000</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -4476,16 +4477,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D24" s="8">
         <v>5000</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -4493,7 +4494,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>211</v>
@@ -4502,7 +4503,7 @@
         <v>120000</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -4519,7 +4520,7 @@
         <v>200000</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -4527,16 +4528,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D27" s="8">
         <v>5000</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -4544,16 +4545,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D28" s="8">
         <v>5000</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -4561,16 +4562,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D29" s="8">
         <v>5000</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -4578,16 +4579,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>310</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>311</v>
       </c>
       <c r="D30" s="8">
         <v>5000</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -4598,13 +4599,13 @@
         <v>214</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D31" s="8">
         <v>5000</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -4612,16 +4613,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D32" s="8">
         <v>120000</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -4629,16 +4630,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D33" s="8">
         <v>5000</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -4646,23 +4647,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>215</v>
+        <v>403</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -5245,10 +5246,10 @@
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5259,10 +5260,10 @@
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5274,7 +5275,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -5286,7 +5287,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -5298,7 +5299,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5310,7 +5311,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -5322,7 +5323,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5334,7 +5335,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -5346,7 +5347,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -5358,7 +5359,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -5370,7 +5371,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -5382,7 +5383,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -5394,7 +5395,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5406,7 +5407,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5418,7 +5419,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5430,7 +5431,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -5442,7 +5443,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5454,7 +5455,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5466,7 +5467,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5478,7 +5479,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5490,7 +5491,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5502,7 +5503,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5514,7 +5515,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5526,7 +5527,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5538,7 +5539,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5550,7 +5551,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5562,7 +5563,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -5574,7 +5575,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -5586,7 +5587,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5598,7 +5599,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5610,7 +5611,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5622,7 +5623,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5634,7 +5635,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5646,7 +5647,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5658,7 +5659,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5670,7 +5671,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5682,7 +5683,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5712,10 +5713,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5723,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5734,10 +5735,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>259</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5745,10 +5746,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5756,10 +5757,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5767,10 +5768,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5778,10 +5779,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5789,10 +5790,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5800,10 +5801,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5811,10 +5812,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5822,10 +5823,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>273</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5833,10 +5834,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5844,10 +5845,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5855,10 +5856,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5866,10 +5867,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5877,10 +5878,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5888,10 +5889,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5899,10 +5900,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>300</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5910,10 +5911,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BD5E6-2801-4440-A16D-174CCD7D5CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A381BE6-70D4-4A18-B1AF-96CBC20127B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -1507,7 +1507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1618,9 +1618,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4029,7 +4026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -4075,7 +4072,7 @@
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>387</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4144,7 +4141,7 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4195,7 +4192,7 @@
       <c r="B8" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>329</v>
       </c>
       <c r="D8" s="8">
@@ -4289,7 +4286,7 @@
       <c r="D13" s="8">
         <v>5000</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>391</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -4428,7 +4425,7 @@
       <c r="B21" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>302</v>
       </c>
       <c r="D21" s="8">
@@ -4445,7 +4442,7 @@
       <c r="B22" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>303</v>
       </c>
       <c r="D22" s="8">
@@ -4462,7 +4459,7 @@
       <c r="B23" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>304</v>
       </c>
       <c r="D23" s="8">
@@ -4479,7 +4476,7 @@
       <c r="B24" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>305</v>
       </c>
       <c r="D24" s="8">
@@ -4496,7 +4493,7 @@
       <c r="B25" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>211</v>
       </c>
       <c r="D25" s="8">
@@ -4530,7 +4527,7 @@
       <c r="B27" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>306</v>
       </c>
       <c r="D27" s="8">
@@ -4547,7 +4544,7 @@
       <c r="B28" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>307</v>
       </c>
       <c r="D28" s="8">
@@ -4564,7 +4561,7 @@
       <c r="B29" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>308</v>
       </c>
       <c r="D29" s="8">
@@ -4581,7 +4578,7 @@
       <c r="B30" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>310</v>
       </c>
       <c r="D30" s="8">
@@ -4598,7 +4595,7 @@
       <c r="B31" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>311</v>
       </c>
       <c r="D31" s="8">
@@ -4615,7 +4612,7 @@
       <c r="B32" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="38" t="s">
         <v>312</v>
       </c>
       <c r="D32" s="8">
@@ -4632,7 +4629,7 @@
       <c r="B33" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>313</v>
       </c>
       <c r="D33" s="8">
@@ -4649,7 +4646,7 @@
       <c r="B34" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>314</v>
       </c>
       <c r="D34" s="8">
@@ -5696,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5720,13 +5717,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="32" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5753,13 +5750,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="32" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5797,13 +5794,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="32" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5830,24 +5827,24 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="32" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="32" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5863,13 +5860,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="32" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5885,13 +5882,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="32" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5907,13 +5904,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="29" t="s">
         <v>328</v>
       </c>
     </row>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A381BE6-70D4-4A18-B1AF-96CBC20127B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C445E8-12F2-420C-8D84-1C366E929537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1906,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5693,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C445E8-12F2-420C-8D84-1C366E929537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7906DAEF-9478-468A-913C-ABD9A84ABE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5693,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5805,13 +5805,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="32" t="s">
         <v>271</v>
       </c>
     </row>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7906DAEF-9478-468A-913C-ABD9A84ABE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E7F8AF-45B7-4A29-AB60-5D2F3B7D9411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5693,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5739,13 +5739,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="32" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5849,13 +5849,13 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="32" t="s">
         <v>279</v>
       </c>
     </row>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E7F8AF-45B7-4A29-AB60-5D2F3B7D9411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415CC036-0D98-4514-A56F-1428E5CD5A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1507,7 +1507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1606,15 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3592,7 +3583,7 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="33" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3609,7 +3600,7 @@
       <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="33" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4072,7 +4063,7 @@
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="37" t="s">
         <v>387</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4141,7 +4132,7 @@
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="39" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4192,7 +4183,7 @@
       <c r="B8" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>329</v>
       </c>
       <c r="D8" s="8">
@@ -4286,7 +4277,7 @@
       <c r="D13" s="8">
         <v>5000</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="38" t="s">
         <v>391</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -4425,7 +4416,7 @@
       <c r="B21" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="35" t="s">
         <v>302</v>
       </c>
       <c r="D21" s="8">
@@ -4442,7 +4433,7 @@
       <c r="B22" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>303</v>
       </c>
       <c r="D22" s="8">
@@ -4459,7 +4450,7 @@
       <c r="B23" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="35" t="s">
         <v>304</v>
       </c>
       <c r="D23" s="8">
@@ -4476,7 +4467,7 @@
       <c r="B24" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>305</v>
       </c>
       <c r="D24" s="8">
@@ -4493,7 +4484,7 @@
       <c r="B25" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="36" t="s">
         <v>211</v>
       </c>
       <c r="D25" s="8">
@@ -4527,7 +4518,7 @@
       <c r="B27" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>306</v>
       </c>
       <c r="D27" s="8">
@@ -4544,7 +4535,7 @@
       <c r="B28" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="34" t="s">
         <v>307</v>
       </c>
       <c r="D28" s="8">
@@ -4561,7 +4552,7 @@
       <c r="B29" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>308</v>
       </c>
       <c r="D29" s="8">
@@ -4578,7 +4569,7 @@
       <c r="B30" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="34" t="s">
         <v>310</v>
       </c>
       <c r="D30" s="8">
@@ -4595,7 +4586,7 @@
       <c r="B31" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="35" t="s">
         <v>311</v>
       </c>
       <c r="D31" s="8">
@@ -4612,7 +4603,7 @@
       <c r="B32" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="35" t="s">
         <v>312</v>
       </c>
       <c r="D32" s="8">
@@ -4629,7 +4620,7 @@
       <c r="B33" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="35" t="s">
         <v>313</v>
       </c>
       <c r="D33" s="8">
@@ -4646,7 +4637,7 @@
       <c r="B34" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="34" t="s">
         <v>314</v>
       </c>
       <c r="D34" s="8">
@@ -5693,8 +5684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="90.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5728,13 +5719,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>259</v>
       </c>
     </row>

--- a/Mahtris 108/Assets/Document/Mahtris 108.xlsx
+++ b/Mahtris 108/Assets/Document/Mahtris 108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dabbido\Desktop\Game Dev\GitHub\Mahtris-108\Mahtris 108\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415CC036-0D98-4514-A56F-1428E5CD5A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070F74A-360E-49D5-ACAB-4AFE131E56B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="480">
   <si>
     <t>规范术语</t>
   </si>
@@ -388,9 +388,6 @@
     <t>售价</t>
   </si>
   <si>
-    <t>效果</t>
-  </si>
-  <si>
     <t>果汁</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>Magnet</t>
   </si>
   <si>
-    <t>垃圾筒</t>
-  </si>
-  <si>
     <t>Trash Bin</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>Speed Star</t>
   </si>
   <si>
-    <t>每次胡牌方块下降速度额外+1，额外倍率x2</t>
-  </si>
-  <si>
     <t>断幺九</t>
   </si>
   <si>
@@ -589,12 +580,6 @@
     <t>Suit Remover</t>
   </si>
   <si>
-    <t>备用口袋</t>
-  </si>
-  <si>
-    <t>Spare Pocket</t>
-  </si>
-  <si>
     <t>Delay of Gratification</t>
   </si>
   <si>
@@ -628,9 +613,6 @@
     <t>Deep Dark Fantasy</t>
   </si>
   <si>
-    <t>方块落地后会在10秒内逐渐变暗直到看不见牌面，额外倍率x4</t>
-  </si>
-  <si>
     <t>时间就是金钱</t>
   </si>
   <si>
@@ -656,9 +638,6 @@
   </si>
   <si>
     <t>Advent Food</t>
-  </si>
-  <si>
-    <t>增加的分数视为临时基础分，其他道具效果仅作用与常规基础分</t>
   </si>
   <si>
     <t>无重力</t>
@@ -1088,10 +1067,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>下一次胡牌即视为完成这圈游戏，方块下降速度+2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1200,16 +1175,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>FF595E</t>
-  </si>
-  <si>
-    <t>FFCA3A</t>
-  </si>
-  <si>
-    <t>3296DC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>整局游戏&lt;color=#3296DC&gt;基础分+3&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1226,10 +1191,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>36BA98</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>整局游戏方块&lt;color=#36BA98&gt;下降速度-3&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1258,18 +1219,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FFCA3A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#3296DC&gt;基础分+3&lt;/color&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FF595E</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>移除所有数字1和9的牌，&lt;color=#FF595E&gt;方块倍率-12（最低为1）&lt;/color&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1278,10 +1227,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>增加2个道具槽位，&lt;color=#FF595E&gt;方块倍率-8&lt;/color&gt;（最低为1）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>胡牌时如牌型仅2种花面，视为“清一色”牌型，&lt;color=#FF595E&gt;方块倍率-16&lt;/color&gt;（最低为1）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1310,10 +1255,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>E682E6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>方块&lt;color=#36BA98&gt;下降速度+10&lt;/color&gt;，&lt;color=#E682E6&gt;额外倍率x2&lt;/color&gt;</t>
   </si>
   <si>
@@ -1356,18 +1297,387 @@
     <t>每轮游戏开始时，会将方块列表中所有方块随机变为其他方块，&lt;color=#E682E6&gt;额外倍率x5&lt;/color&gt;</t>
   </si>
   <si>
+    <t>胡牌时强行加入随机一个5格方块，&lt;color=#E682E6&gt;额外倍率x5&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空手道大师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当场上有方块高度超过8时，方块下降速度变为5，游戏时间流逝速度减慢为20%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整局游戏基础分+3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏基础分+16，胡牌后基础分-32（最低为1），再次胡牌后恢复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整局游戏方块下降速度-3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏方块下降速度-8，胡牌后恢复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来10个方块的下降速度-15（最低为1），期间胡牌效果中止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余游戏时间+40秒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整局游戏当前基础分x2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏如果游戏失败则会将场上所有牌返回牌库，游戏时间+30秒，然后继续游戏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scissors</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除方块列表中方块倍率最大的方块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来20秒的方块会尽可能只有筒子牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来20秒的方块会尽可能只有万子牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来20秒的方块会尽可能只有条子牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照-筒子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照-万子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照-条子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passport - Tong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passport - Wan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passport - Tiao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金苹果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Apple</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚空间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subspace</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠上开花</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块倍率-20，每组杠牌提供的番数+1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一气贯通</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块倍率-14，牌型中包含同一花色的1~9数字牌时，胡牌番数+3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底捞月</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一圈所需要的轮数-1，每次胡牌方块下降速度额外+2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当牌库中的麻将不足时，如果当前方块着陆后触发胡牌，本次胡牌基础分+36</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然保护区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当向胡牌区添加一张”一条“，本局基础分+5，胡牌后重置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物短缺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>不可使用道具，&lt;color=#E682E6&gt;额外倍率x4&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>胡牌时强行加入随机一个5格方块，&lt;color=#E682E6&gt;额外倍率x5&lt;/color&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空手道大师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>当场上有方块高度超过8时，方块下降速度变为5，游戏时间流逝速度减慢为20%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除行时麻将不会返回牌库，额外倍率x5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝杀</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果胡牌时剩余时间小于3秒，基础分+36</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里走单骑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>香槟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Champagne</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术幕布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Curtain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后场上所有方块的麻将牌面被随机打乱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强行消除最上方3行方块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop Bomb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>空投炸弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有其他条约，每完成一圈胡牌，额外倍率x2，期间加入条约则失效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>整局游戏基础分+20，方块下落速度-10，游戏时间+100秒，强行消除底下4行方块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块列表中每有一种方块，整局游戏基础分+3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾筒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮游戏基础分+8，胡牌后恢复</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次胡牌即完成一圈，整局游戏方块下降速度+3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻获得2个1格方块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果下下个方块降落后胡牌，本轮游戏基础分+10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可使用道具，额外倍率x4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时强行加入随机一个5格方块，额外倍率x5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块倍率-15（最低为1），每次将“刻子”牌加入胡牌区时，整局游戏基础分+5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时，会将方块列表中所有方块随机变为其他方块，额外倍率x5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有形状的方块所提供的方块倍率变为3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过6秒基础分增加或减少1~36（最低为1），胡牌后重置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外倍率x16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时每种奖励的数量减为1个，额外倍率x3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每经过10秒即会强行消除最底下一行方块，额外倍率x2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘上下、左右按键功能调换，额外倍率x3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块中的麻将牌面会随机旋转方向，额外倍率x2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时，胡牌基础分+120，之后每秒-1（最低为1），胡牌后重置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块有10%的概率以25的速度下落，额外倍率x2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当牌库中剩余的牌低于36张时游戏失败，额外倍率x2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块下落时每2秒会随机往左或右移动1~2格，额外倍率x2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块落地后牌面会在3秒内逐渐变为黑色，额外倍率x4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时，第1个方块固定是“巨人方块”，方块倍率+36</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有5格方块时生效，5格方块出现的权重提高200%，额外倍率x3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时如牌型仅2种花面，视为“清一色”牌型，方块倍率-16（最低为1）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时如果是平胡，额外倍率x0，且无奖励，其他牌型计算番数倍率时底数从2变为3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌时会自动随机选择奖励，并在游戏开始时自动使用所有可用道具，额外倍率x4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature Reserve</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food Shortage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>One Man Army</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blooming on Kong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Gasp Goal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pure Straight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom Moon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每轮游戏开始时，基础分-10（最低为1），每当一次性消除4行及以上时基础分+8，胡牌后重置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机移除一种花色所有的牌，方块倍率-16（最低为1）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除所有数字1和9的牌，方块倍率-12（最低为1）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块下降速度+10，额外倍率x2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1381,7 +1691,7 @@
     <numFmt numFmtId="178" formatCode="0.00000_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,8 +1752,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1482,13 +1800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,7 +1819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1538,16 +1850,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1558,9 +1864,6 @@
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,15 +1880,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,9 +1891,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1613,20 +1904,68 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1917,7 +2256,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2027,7 +2366,7 @@
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
       <c r="C13" s="8">
@@ -2045,7 +2384,7 @@
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>4</v>
       </c>
       <c r="C14" s="8">
@@ -2150,7 +2489,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="8">
@@ -2162,7 +2501,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="8">
@@ -2174,7 +2513,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="8">
@@ -2186,7 +2525,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="8">
@@ -2205,7 +2544,7 @@
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="18">
         <f t="shared" ref="N23:N30" si="1">J23/K23</f>
         <v>4</v>
       </c>
@@ -2220,7 +2559,7 @@
       <c r="L24" s="6">
         <v>10</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2235,7 +2574,7 @@
       <c r="L25" s="6">
         <v>15</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="18">
         <f t="shared" si="1"/>
         <v>1.3333333333333299</v>
       </c>
@@ -2265,7 +2604,7 @@
       <c r="L26" s="6">
         <v>20</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2296,7 +2635,7 @@
       <c r="L27" s="6">
         <v>25</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="18">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -2327,7 +2666,7 @@
       <c r="L28" s="6">
         <v>30</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="18">
         <f t="shared" si="1"/>
         <v>0.66666666666666696</v>
       </c>
@@ -2358,7 +2697,7 @@
       <c r="L29" s="6">
         <v>35</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="18">
         <f t="shared" si="1"/>
         <v>0.57142857142857095</v>
       </c>
@@ -2374,7 +2713,7 @@
       <c r="L30" s="6">
         <v>40</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="18">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3180,832 +3519,1287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="14" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14" style="32" customWidth="1"/>
     <col min="3" max="3" width="19.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="115.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="11" width="9.875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="9.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="79.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="72.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+    <col min="9" max="13" width="9.875" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F1" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>500</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>500</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B4" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="8">
         <v>500</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F4" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>123</v>
+      <c r="B5" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="E5" s="8">
+        <v>500</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>125</v>
+      <c r="B6" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>500</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>127</v>
+      <c r="B7" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
         <v>500</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F7" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>129</v>
+      <c r="B8" s="32" t="s">
+        <v>126</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="E8" s="8">
+        <v>500</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>132</v>
+      <c r="B9" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
         <v>500</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="8">
+        <v>500</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>137</v>
+      <c r="B11" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
         <v>500</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>139</v>
+      <c r="B12" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
         <v>500</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E13" s="8">
+        <v>500</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>143</v>
+      <c r="B14" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>500</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>315</v>
+      <c r="B15" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="8">
+        <v>139</v>
+      </c>
+      <c r="E15" s="8">
         <v>500</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>146</v>
+      <c r="B16" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
         <v>500</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
         <v>500</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>150</v>
+      <c r="B18" s="32" t="s">
+        <v>148</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="8">
+        <v>149</v>
+      </c>
+      <c r="E18" s="8">
         <v>500</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="8">
         <v>500</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <v>500</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="B21" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="8">
         <v>500</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+      <c r="F21" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>500</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="8">
+        <v>500</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="8">
+        <v>500</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="8">
+        <v>500</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>500</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>2</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>500</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>3</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>500</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="10">
+        <v>4</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="10">
+        <v>5</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>6</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>7</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
+        <v>8</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="10">
+        <v>9</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
+        <v>10</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="10">
+        <v>11</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="10">
+        <v>12</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="10">
+        <v>13</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="G38" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="10">
+        <v>14</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="8">
-        <v>3000</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="G39" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="10">
+        <v>15</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="8">
+        <v>80000</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="10">
+        <v>16</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C41" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="8">
-        <v>3000</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="D41" s="32"/>
+      <c r="E41" s="8">
         <v>120000</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E34" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="116" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="118" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="119" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="120" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="122" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="123" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="35"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="35"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="35"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="35"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="35"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="35"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="35"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="35"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="35"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="35"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="35"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="35"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="35"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="35"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="35"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="35"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="35"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="35"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="35"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="35"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="35"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="35"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="35"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="35"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="35"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="35"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="35"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="35"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="94" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="35"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="35"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="35"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="35"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="35"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="35"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="35"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="35"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="35"/>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="35"/>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="35"/>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="35"/>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="35"/>
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="35"/>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="35"/>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="35"/>
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="35"/>
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="35"/>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="35"/>
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="35"/>
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="35"/>
+      <c r="D114" s="8"/>
+    </row>
+    <row r="115" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="35"/>
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="35"/>
+      <c r="D116" s="8"/>
+    </row>
+    <row r="117" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="35"/>
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="35"/>
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="35"/>
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="35"/>
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="35"/>
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="35"/>
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="35"/>
+      <c r="D123" s="8"/>
+    </row>
+    <row r="124" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="35"/>
+      <c r="D124" s="8"/>
+    </row>
+    <row r="125" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="35"/>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="35"/>
+      <c r="D126" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4015,1192 +4809,1702 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="14.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="102.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="34.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="6"/>
+    <col min="3" max="3" width="19.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="82.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="102.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="34.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F1" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>387</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B4" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>5000</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F4" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>5000</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F6" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="G6" s="19" t="s">
+      